--- a/teaching/traditional_assets/database/data/australia/australia_investments_asset_management.xlsx
+++ b/teaching/traditional_assets/database/data/australia/australia_investments_asset_management.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ65"/>
+  <dimension ref="A1:AQ57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>55</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.0751</v>
+        <v>0.0162</v>
       </c>
       <c r="E2">
-        <v>0.0727</v>
+        <v>-0.0164</v>
       </c>
       <c r="F2">
-        <v>0.0585</v>
+        <v>0.06845</v>
       </c>
       <c r="G2">
-        <v>0.3977808661266889</v>
+        <v>0.3925506385863251</v>
       </c>
       <c r="H2">
-        <v>0.3962514465505763</v>
+        <v>0.3906808451307722</v>
       </c>
       <c r="I2">
-        <v>0.5299806818114781</v>
+        <v>0.420189829927715</v>
       </c>
       <c r="J2">
-        <v>0.4704354592292624</v>
+        <v>0.3667979665894801</v>
       </c>
       <c r="K2">
-        <v>1571.865</v>
+        <v>1191.913</v>
       </c>
       <c r="L2">
-        <v>0.3998737694621313</v>
+        <v>0.3377737385553791</v>
       </c>
       <c r="M2">
-        <v>1438.576</v>
+        <v>1323.61</v>
       </c>
       <c r="N2">
-        <v>0.03724303630200355</v>
+        <v>0.03130251189644916</v>
       </c>
       <c r="O2">
-        <v>0.9152032776351658</v>
+        <v>1.110492124844683</v>
       </c>
       <c r="P2">
-        <v>1401.803</v>
+        <v>1249.412</v>
       </c>
       <c r="Q2">
-        <v>0.03629102669393725</v>
+        <v>0.02954777766378793</v>
       </c>
       <c r="R2">
-        <v>0.8918087749265998</v>
+        <v>1.048240937048258</v>
       </c>
       <c r="S2">
-        <v>36.77300000000001</v>
+        <v>74.19799999999999</v>
       </c>
       <c r="T2">
-        <v>0.02556208361602029</v>
+        <v>0.05605729784453124</v>
       </c>
       <c r="U2">
-        <v>2095.167</v>
+        <v>2178.594</v>
       </c>
       <c r="V2">
-        <v>0.05424140305396439</v>
+        <v>0.05152232500701322</v>
       </c>
       <c r="W2">
-        <v>0.0538864388092613</v>
+        <v>0.03887748117727584</v>
       </c>
       <c r="X2">
-        <v>0.04789431287630905</v>
+        <v>0.03528629168048083</v>
       </c>
       <c r="Y2">
-        <v>0.005992125932952244</v>
+        <v>0.003591189496795009</v>
       </c>
       <c r="Z2">
-        <v>0.2314990021491071</v>
+        <v>0.206029557585127</v>
       </c>
       <c r="AA2">
-        <v>0.06582329446627584</v>
+        <v>0.04761844475471862</v>
       </c>
       <c r="AB2">
-        <v>0.04774834413123465</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC2">
-        <v>0.01806107712965538</v>
+        <v>0.01237369177077541</v>
       </c>
       <c r="AD2">
-        <v>911.846</v>
+        <v>1050.877</v>
       </c>
       <c r="AE2">
-        <v>263.5367396260782</v>
+        <v>0.9935052975729968</v>
       </c>
       <c r="AF2">
-        <v>1175.382739626078</v>
+        <v>1051.870505297573</v>
       </c>
       <c r="AG2">
-        <v>-919.7842603739218</v>
+        <v>-1126.723494702427</v>
       </c>
       <c r="AH2">
-        <v>0.02953067613264508</v>
+        <v>0.02427225257421077</v>
       </c>
       <c r="AI2">
-        <v>0.05485044629093282</v>
+        <v>0.05122507428495173</v>
       </c>
       <c r="AJ2">
-        <v>-0.024392978688643</v>
+        <v>-0.02737573603696563</v>
       </c>
       <c r="AK2">
-        <v>-0.04757415370484967</v>
+        <v>-0.06138277323118849</v>
       </c>
       <c r="AL2">
-        <v>34.908</v>
+        <v>30.551</v>
       </c>
       <c r="AM2">
-        <v>14.637</v>
+        <v>25.396</v>
       </c>
       <c r="AN2">
-        <v>0.5712025217337922</v>
+        <v>0.7762269477562495</v>
       </c>
       <c r="AO2">
-        <v>59.86808181505672</v>
+        <v>48.51337108441623</v>
       </c>
       <c r="AP2">
-        <v>-0.5761752411883532</v>
+        <v>-0.8322507194068569</v>
       </c>
       <c r="AQ2">
-        <v>142.7802828448453</v>
+        <v>58.3608442274374</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VGI Partners Global Investments Limited (ASX:VG1)</t>
+          <t>Hearts and Minds Investments Limited (ASX:HM1)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -734,16 +734,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7694524495677233</v>
+        <v>0.8873873873873873</v>
       </c>
       <c r="J3">
-        <v>0.5529465983735664</v>
+        <v>0.8873873873873873</v>
       </c>
       <c r="K3">
-        <v>35.5</v>
+        <v>-1.85</v>
       </c>
       <c r="L3">
-        <v>0.5115273775216138</v>
+        <v>-0.4166666666666666</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -752,7 +752,7 @@
         <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -761,22 +761,22 @@
         <v>-0</v>
       </c>
       <c r="R3">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="U3">
-        <v>338.2</v>
+        <v>36.1</v>
       </c>
       <c r="V3">
-        <v>0.5258084577114427</v>
+        <v>0.04684053457895419</v>
       </c>
       <c r="X3">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AB3">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>-338.2</v>
+        <v>-36.1</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -797,16 +797,22 @@
         <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-1.108852459016393</v>
+        <v>-0.04914239041655322</v>
       </c>
       <c r="AK3">
-        <v>-1.049332919640087</v>
+        <v>-0.07488073013897531</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>0.003</v>
+      </c>
+      <c r="AO3">
+        <v>1313.333333333333</v>
+      </c>
+      <c r="AQ3">
+        <v>1313.333333333333</v>
       </c>
     </row>
     <row r="4">
@@ -817,7 +823,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hearts and Minds Investments Limited (ASX:HM1)</t>
+          <t>Teaminvest Private Group Limited (ASX:TIP)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -826,22 +832,22 @@
         </is>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.05636942675159236</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.05636942675159236</v>
       </c>
       <c r="I4">
-        <v>0.8306709265175719</v>
+        <v>0.04135157835794779</v>
       </c>
       <c r="J4">
-        <v>0.8306709265175719</v>
+        <v>0.03849858796799197</v>
       </c>
       <c r="K4">
-        <v>-0.628</v>
+        <v>5.73</v>
       </c>
       <c r="L4">
-        <v>-0.2006389776357828</v>
+        <v>0.09124203821656052</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -850,7 +856,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -859,52 +865,73 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>7.44</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.1113772455089821</v>
       </c>
       <c r="X4">
-        <v>0.04776221733662046</v>
+        <v>0.03629241367209503</v>
+      </c>
+      <c r="Z4">
+        <v>3047.893333333333</v>
+      </c>
+      <c r="AA4">
+        <v>117.3395896103896</v>
       </c>
       <c r="AB4">
-        <v>0.04776221733662046</v>
+        <v>0.03504690975477236</v>
+      </c>
+      <c r="AC4">
+        <v>117.3045427006348</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>3.83</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>0.0206043956043956</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>3.850604395604396</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>-3.589395604395605</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>0.05450207296236471</v>
+      </c>
+      <c r="AI4">
+        <v>0.06422961760643607</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>-0.05678470628015713</v>
+      </c>
+      <c r="AK4">
+        <v>-0.06835563303278355</v>
       </c>
       <c r="AL4">
-        <v>0.1</v>
+        <v>0.275</v>
       </c>
       <c r="AM4">
-        <v>0.1</v>
+        <v>0.275</v>
+      </c>
+      <c r="AN4">
+        <v>1.075540578489188</v>
       </c>
       <c r="AO4">
-        <v>26</v>
+        <v>9.381818181818181</v>
+      </c>
+      <c r="AP4">
+        <v>-1.007974053466893</v>
       </c>
       <c r="AQ4">
-        <v>26</v>
+        <v>9.381818181818181</v>
       </c>
     </row>
     <row r="5">
@@ -915,7 +942,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Spheria Emerging Companies Limited (ASX:SEC)</t>
+          <t>Strategic Elements Ltd (ASX:SOR)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -924,88 +951,112 @@
         </is>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-10.47337278106509</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-10.47337278106509</v>
       </c>
       <c r="I5">
-        <v>0.4517906336088154</v>
+        <v>-10.46102176281702</v>
       </c>
       <c r="J5">
-        <v>0.4517906336088154</v>
+        <v>-10.46102176281702</v>
       </c>
       <c r="K5">
-        <v>2.26</v>
+        <v>-1.76</v>
       </c>
       <c r="L5">
-        <v>0.6225895316804407</v>
+        <v>-10.41420118343195</v>
       </c>
       <c r="M5">
-        <v>2.79</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.03444444444444444</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>1.234513274336283</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>2.79</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.03444444444444444</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>1.234513274336283</v>
+        <v>0</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
       <c r="U5">
-        <v>13.6</v>
+        <v>1.57</v>
       </c>
       <c r="V5">
-        <v>0.1679012345679012</v>
+        <v>0.02688356164383562</v>
+      </c>
+      <c r="W5">
+        <v>-1.093167701863354</v>
       </c>
       <c r="X5">
-        <v>0.04776221733662046</v>
+        <v>0.03525002524663953</v>
+      </c>
+      <c r="Y5">
+        <v>-1.128417727109993</v>
+      </c>
+      <c r="Z5">
+        <v>-3.048526934110477</v>
+      </c>
+      <c r="AA5">
+        <v>31.89070660226355</v>
       </c>
       <c r="AB5">
-        <v>0.04776221733662046</v>
+        <v>0.03524646906912836</v>
+      </c>
+      <c r="AC5">
+        <v>31.85546013319442</v>
       </c>
       <c r="AD5">
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>0.0145633895803802</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>0.0145633895803802</v>
       </c>
       <c r="AG5">
-        <v>-13.6</v>
+        <v>-1.55543661041962</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>0.0002493109378093533</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>0.009368154221302782</v>
       </c>
       <c r="AJ5">
-        <v>-0.201780415430267</v>
+        <v>-0.02736297928369227</v>
       </c>
       <c r="AK5">
-        <v>-0.1620977353992848</v>
+        <v>100.7628338176287</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>-0.017</v>
+      </c>
+      <c r="AN5">
+        <v>-0</v>
+      </c>
+      <c r="AO5">
+        <v>-593.3333333333334</v>
+      </c>
+      <c r="AP5">
+        <v>0.8862886669057662</v>
+      </c>
+      <c r="AQ5">
+        <v>104.7058823529412</v>
       </c>
     </row>
     <row r="6">
@@ -1016,7 +1067,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Strategic Elements Ltd (ASX:SOR)</t>
+          <t>Netwealth Group Limited (ASX:NWL)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1024,113 +1075,125 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D6">
+        <v>0.192</v>
+      </c>
+      <c r="E6">
+        <v>0.492</v>
+      </c>
+      <c r="F6">
+        <v>0.184</v>
+      </c>
       <c r="G6">
-        <v>-38.33333333333334</v>
+        <v>0.5228070175438597</v>
       </c>
       <c r="H6">
-        <v>-38.33333333333334</v>
+        <v>0.5228070175438597</v>
       </c>
       <c r="I6">
-        <v>-38.58864101992506</v>
+        <v>0.5076023391812865</v>
       </c>
       <c r="J6">
-        <v>-38.58864101992506</v>
+        <v>0.3528598246964602</v>
       </c>
       <c r="K6">
-        <v>-1.39</v>
+        <v>30.1</v>
       </c>
       <c r="L6">
-        <v>-38.61111111111111</v>
+        <v>0.352046783625731</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>22.2</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.007594676884129862</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.7375415282392026</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>22.2</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.007594676884129862</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.7375415282392026</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
-        <v>1.68</v>
+        <v>59</v>
       </c>
       <c r="V6">
-        <v>0.09940828402366865</v>
+        <v>0.02018405117854333</v>
       </c>
       <c r="W6">
-        <v>-0.4426751592356687</v>
+        <v>0.6718750000000001</v>
       </c>
       <c r="X6">
-        <v>0.04776334760357587</v>
+        <v>0.03526724242107084</v>
       </c>
       <c r="Y6">
-        <v>-0.4904385068392446</v>
+        <v>0.6366077575789293</v>
       </c>
       <c r="Z6">
-        <v>-1.239472385776792</v>
+        <v>22.50000000000002</v>
       </c>
       <c r="AA6">
-        <v>47.82955494885069</v>
+        <v>7.93934605567036</v>
       </c>
       <c r="AB6">
-        <v>0.04776249553169192</v>
+        <v>0.03524113863221218</v>
       </c>
       <c r="AC6">
-        <v>47.78179245331899</v>
+        <v>7.904104917038148</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AE6">
-        <v>0.0009553835865099838</v>
+        <v>0</v>
       </c>
       <c r="AF6">
-        <v>0.0009553835865099838</v>
+        <v>3.5</v>
       </c>
       <c r="AG6">
-        <v>-1.67904461641349</v>
+        <v>-55.5</v>
       </c>
       <c r="AH6">
-        <v>5.652837752816103e-05</v>
+        <v>0.001195927014282786</v>
       </c>
       <c r="AI6">
-        <v>0.0005930540325598525</v>
+        <v>0.0625</v>
       </c>
       <c r="AJ6">
-        <v>-0.1103113815197228</v>
+        <v>-0.01935416376063607</v>
       </c>
       <c r="AK6">
-        <v>24.31825540688266</v>
+        <v>18.5</v>
       </c>
       <c r="AL6">
-        <v>0.001</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AM6">
-        <v>-0.039</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AN6">
-        <v>-0</v>
+        <v>0.07829977628635346</v>
       </c>
       <c r="AO6">
-        <v>-1390</v>
+        <v>516.6666666666666</v>
       </c>
       <c r="AP6">
-        <v>1.217581302692886</v>
+        <v>-1.241610738255033</v>
       </c>
       <c r="AQ6">
-        <v>35.64102564102564</v>
+        <v>516.6666666666666</v>
       </c>
     </row>
     <row r="7">
@@ -1141,7 +1204,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>VGI Partners Limited (ASX:VGI)</t>
+          <t>Magellan Financial Group Limited (ASX:MFG)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1149,104 +1212,125 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D7">
+        <v>0.196</v>
+      </c>
+      <c r="E7">
+        <v>0.179</v>
+      </c>
+      <c r="F7">
+        <v>0.114</v>
+      </c>
       <c r="G7">
-        <v>0.6344186046511628</v>
+        <v>0.8296852199291224</v>
       </c>
       <c r="H7">
-        <v>0.5581395348837209</v>
+        <v>0.8296852199291224</v>
       </c>
       <c r="I7">
-        <v>0.4178906120981484</v>
+        <v>0.8226328733614001</v>
       </c>
       <c r="J7">
-        <v>0.2421028735077434</v>
+        <v>0.6327055423631692</v>
       </c>
       <c r="K7">
-        <v>2.3</v>
+        <v>273.6</v>
       </c>
       <c r="L7">
-        <v>0.1069767441860465</v>
+        <v>0.5703564727954973</v>
       </c>
       <c r="M7">
-        <v>36.768</v>
+        <v>210.9</v>
       </c>
       <c r="N7">
-        <v>0.05773869346733669</v>
+        <v>0.02773430822034901</v>
       </c>
       <c r="O7">
-        <v>15.98608695652174</v>
+        <v>0.7708333333333333</v>
       </c>
       <c r="P7">
-        <v>36.3</v>
+        <v>210.9</v>
       </c>
       <c r="Q7">
-        <v>0.05700376884422111</v>
+        <v>0.02773430822034901</v>
       </c>
       <c r="R7">
-        <v>15.78260869565217</v>
+        <v>0.7708333333333333</v>
       </c>
       <c r="S7">
-        <v>0.4680000000000035</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>0.0127284595300262</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>53.3</v>
+        <v>302.1</v>
       </c>
       <c r="V7">
-        <v>0.08369974874371859</v>
+        <v>0.03972752258590535</v>
+      </c>
+      <c r="W7">
+        <v>0.5315717893918788</v>
       </c>
       <c r="X7">
-        <v>0.04780905396559031</v>
+        <v>0.03527398949717193</v>
+      </c>
+      <c r="Y7">
+        <v>0.4962977998947068</v>
       </c>
       <c r="Z7">
-        <v>82.13655926994616</v>
+        <v>1.586676530681989</v>
       </c>
       <c r="AA7">
-        <v>19.88549701929305</v>
+        <v>1.00389903490006</v>
       </c>
       <c r="AB7">
-        <v>0.04775948603539415</v>
+        <v>0.03523978876329435</v>
       </c>
       <c r="AC7">
-        <v>19.83773753325766</v>
+        <v>0.9686592461367655</v>
       </c>
       <c r="AD7">
-        <v>1.23</v>
+        <v>11.9</v>
       </c>
       <c r="AE7">
-        <v>0.2617591994490432</v>
+        <v>0.03005324268200516</v>
       </c>
       <c r="AF7">
-        <v>1.491759199449043</v>
+        <v>11.93005324268201</v>
       </c>
       <c r="AG7">
-        <v>-51.80824080055095</v>
+        <v>-290.169946757318</v>
       </c>
       <c r="AH7">
-        <v>0.00233711179558392</v>
+        <v>0.001566398750993961</v>
       </c>
       <c r="AI7">
-        <v>0.02284758777738112</v>
+        <v>0.01625281306940949</v>
       </c>
       <c r="AJ7">
-        <v>-0.08856234294898381</v>
+        <v>-0.03967251671012777</v>
       </c>
       <c r="AK7">
-        <v>-4.320320308210597</v>
+        <v>-0.6717984650035098</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AN7">
-        <v>0.1313120529518522</v>
+        <v>0.02989776972687508</v>
+      </c>
+      <c r="AO7">
+        <v>493.25</v>
       </c>
       <c r="AP7">
-        <v>-5.530932080767689</v>
+        <v>-0.729028088219319</v>
+      </c>
+      <c r="AQ7">
+        <v>493.25</v>
       </c>
     </row>
     <row r="8">
@@ -1257,7 +1341,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A1 Investments &amp; Resources Ltd (ASX:AYI)</t>
+          <t>Microequities Asset Management Group Limited (ASX:MAM)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1266,115 +1350,121 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.188</v>
+        <v>0.175</v>
+      </c>
+      <c r="E8">
+        <v>0.138</v>
       </c>
       <c r="G8">
-        <v>-1.476190476190476</v>
+        <v>0.6553672316384181</v>
       </c>
       <c r="H8">
-        <v>-1.476190476190476</v>
+        <v>0.6553672316384181</v>
       </c>
       <c r="I8">
-        <v>-1.613756613756614</v>
+        <v>0.6214689265536724</v>
       </c>
       <c r="J8">
-        <v>-1.613756613756614</v>
+        <v>0.4547690262545696</v>
       </c>
       <c r="K8">
-        <v>-1.81</v>
+        <v>2.31</v>
       </c>
       <c r="L8">
-        <v>-9.576719576719578</v>
+        <v>0.4350282485875707</v>
       </c>
       <c r="M8">
-        <v>-0</v>
+        <v>1.934</v>
       </c>
       <c r="N8">
-        <v>-0</v>
+        <v>0.03868000000000001</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.8372294372294373</v>
       </c>
       <c r="P8">
-        <v>-0</v>
+        <v>1.84</v>
       </c>
       <c r="Q8">
-        <v>-0</v>
+        <v>0.0368</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>0.7965367965367965</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>0.09400000000000008</v>
+      </c>
+      <c r="T8">
+        <v>0.04860392967942093</v>
       </c>
       <c r="U8">
-        <v>0.332</v>
+        <v>2.55</v>
       </c>
       <c r="V8">
-        <v>0.01964497041420118</v>
+        <v>0.051</v>
       </c>
       <c r="W8">
-        <v>1.660550458715596</v>
+        <v>0.3830845771144278</v>
       </c>
       <c r="X8">
-        <v>0.04807099349682167</v>
+        <v>0.0352792772063175</v>
       </c>
       <c r="Y8">
-        <v>1.612479465218775</v>
+        <v>0.3478052999081103</v>
       </c>
       <c r="Z8">
-        <v>-6.750000000000003</v>
+        <v>1.93090909090909</v>
       </c>
       <c r="AA8">
-        <v>10.89285714285715</v>
+        <v>0.8781176470588232</v>
       </c>
       <c r="AB8">
-        <v>0.04774444321987566</v>
+        <v>0.03524730881192732</v>
       </c>
       <c r="AC8">
-        <v>10.84511269963727</v>
+        <v>0.8428703382468959</v>
       </c>
       <c r="AD8">
-        <v>0.261</v>
+        <v>0.093</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>0.261</v>
+        <v>0.093</v>
       </c>
       <c r="AG8">
-        <v>-0.07100000000000001</v>
+        <v>-2.457</v>
       </c>
       <c r="AH8">
-        <v>0.01520890391002856</v>
+        <v>0.001856546822909388</v>
       </c>
       <c r="AI8">
-        <v>0.5483193277310925</v>
+        <v>0.01381256497846428</v>
       </c>
       <c r="AJ8">
-        <v>-0.004218907837661181</v>
+        <v>-0.05167953221294407</v>
       </c>
       <c r="AK8">
-        <v>-0.4930555555555556</v>
+        <v>-0.587377480277313</v>
       </c>
       <c r="AL8">
-        <v>0.09</v>
+        <v>0.006</v>
       </c>
       <c r="AM8">
-        <v>0.09</v>
+        <v>0.006</v>
       </c>
       <c r="AN8">
-        <v>-0.9354838709677419</v>
+        <v>0.02672413793103448</v>
       </c>
       <c r="AO8">
-        <v>-3.388888888888889</v>
+        <v>550</v>
       </c>
       <c r="AP8">
-        <v>0.2544802867383513</v>
+        <v>-0.7060344827586207</v>
       </c>
       <c r="AQ8">
-        <v>-3.388888888888889</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9">
@@ -1385,7 +1475,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Australian Ethical Investment Ltd (ASX:AEF)</t>
+          <t>Prime Financial Group Limited (ASX:PFG)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1394,115 +1484,118 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.156</v>
-      </c>
-      <c r="E9">
-        <v>0.211</v>
+        <v>0.125</v>
       </c>
       <c r="G9">
-        <v>0.2515679442508711</v>
+        <v>0.2346979865771812</v>
       </c>
       <c r="H9">
-        <v>0.2515679442508711</v>
+        <v>0.2140939597315436</v>
       </c>
       <c r="I9">
-        <v>0.2538269822026638</v>
+        <v>0.1812080536912752</v>
       </c>
       <c r="J9">
-        <v>0.184891239783416</v>
+        <v>0.1437683731765489</v>
       </c>
       <c r="K9">
-        <v>4.64</v>
+        <v>1.47</v>
       </c>
       <c r="L9">
-        <v>0.1616724738675958</v>
+        <v>0.09865771812080537</v>
       </c>
       <c r="M9">
-        <v>4.019</v>
+        <v>0.515</v>
       </c>
       <c r="N9">
-        <v>0.01329034391534392</v>
+        <v>0.04055118110236221</v>
       </c>
       <c r="O9">
-        <v>0.8661637931034484</v>
+        <v>0.3503401360544218</v>
       </c>
       <c r="P9">
-        <v>3.42</v>
+        <v>0.515</v>
       </c>
       <c r="Q9">
-        <v>0.01130952380952381</v>
+        <v>0.04055118110236221</v>
       </c>
       <c r="R9">
-        <v>0.7370689655172414</v>
+        <v>0.3503401360544218</v>
       </c>
       <c r="S9">
-        <v>0.5990000000000002</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>0.1490420502612591</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>13.2</v>
+        <v>0.064</v>
       </c>
       <c r="V9">
-        <v>0.04365079365079365</v>
+        <v>0.005039370078740158</v>
       </c>
       <c r="W9">
-        <v>0.4106194690265486</v>
+        <v>0.05485074626865671</v>
       </c>
       <c r="X9">
-        <v>0.04790442200867995</v>
+        <v>0.0486166199840548</v>
       </c>
       <c r="Y9">
-        <v>0.3627150470178687</v>
+        <v>0.006234126284601918</v>
       </c>
       <c r="Z9">
-        <v>22.94480037452624</v>
+        <v>5.702257941063904</v>
       </c>
       <c r="AA9">
-        <v>4.242292587829144</v>
+        <v>0.8198043476198148</v>
       </c>
       <c r="AB9">
-        <v>0.04773517817019966</v>
+        <v>0.03370045686156443</v>
       </c>
       <c r="AC9">
-        <v>4.194557409658944</v>
+        <v>0.7861038907582504</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>9.35</v>
       </c>
       <c r="AE9">
-        <v>2.150828053917752</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>2.150828053917752</v>
+        <v>9.35</v>
       </c>
       <c r="AG9">
-        <v>-11.04917194608225</v>
+        <v>9.286</v>
       </c>
       <c r="AH9">
-        <v>0.00706229586588735</v>
+        <v>0.4240362811791384</v>
       </c>
       <c r="AI9">
-        <v>0.1530748256020429</v>
+        <v>0.247682119205298</v>
       </c>
       <c r="AJ9">
-        <v>-0.03792394214179983</v>
+        <v>0.4223596834349131</v>
       </c>
       <c r="AK9">
-        <v>-12.98637473835616</v>
+        <v>0.2464045003449557</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>0.416</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>0.416</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>2.931034482758621</v>
+      </c>
+      <c r="AO9">
+        <v>6.490384615384616</v>
       </c>
       <c r="AP9">
-        <v>-1.387215561341148</v>
+        <v>2.910971786833856</v>
+      </c>
+      <c r="AQ9">
+        <v>6.490384615384616</v>
       </c>
     </row>
     <row r="10">
@@ -1513,7 +1606,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Netwealth Group Limited (ASX:NWL)</t>
+          <t>Platinum Investment Management Limited (ASX:PTM)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1522,49 +1615,49 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.177</v>
+        <v>-0.0289</v>
       </c>
       <c r="E10">
-        <v>0.332</v>
+        <v>-0.0613</v>
       </c>
       <c r="F10">
-        <v>0.188</v>
+        <v>-0.00821</v>
       </c>
       <c r="G10">
-        <v>0.5252525252525253</v>
+        <v>0.8035575048732944</v>
       </c>
       <c r="H10">
-        <v>0.5252525252525253</v>
+        <v>0.7855750487329435</v>
       </c>
       <c r="I10">
-        <v>0.5271883695478757</v>
+        <v>0.7824026794703487</v>
       </c>
       <c r="J10">
-        <v>0.370984408200357</v>
+        <v>0.5513782662409151</v>
       </c>
       <c r="K10">
-        <v>24</v>
+        <v>107.4</v>
       </c>
       <c r="L10">
-        <v>0.3463203463203464</v>
+        <v>0.5233918128654972</v>
       </c>
       <c r="M10">
-        <v>18.1</v>
+        <v>108.4</v>
       </c>
       <c r="N10">
-        <v>0.01387823953381383</v>
+        <v>0.05973439135945335</v>
       </c>
       <c r="O10">
-        <v>0.7541666666666668</v>
+        <v>1.009310986964618</v>
       </c>
       <c r="P10">
-        <v>18.1</v>
+        <v>108.4</v>
       </c>
       <c r="Q10">
-        <v>0.01387823953381383</v>
+        <v>0.05973439135945335</v>
       </c>
       <c r="R10">
-        <v>0.7541666666666668</v>
+        <v>1.009310986964618</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1573,67 +1666,73 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>41</v>
+        <v>72.7</v>
       </c>
       <c r="V10">
-        <v>0.03143689618156725</v>
+        <v>0.04006171819033449</v>
       </c>
       <c r="W10">
-        <v>0.4809619238476954</v>
+        <v>0.4771212794313639</v>
       </c>
       <c r="X10">
-        <v>0.04779409219664232</v>
+        <v>0.03530714507694982</v>
       </c>
       <c r="Y10">
-        <v>0.4331678316510531</v>
+        <v>0.4418141343544141</v>
       </c>
       <c r="Z10">
-        <v>5.339299808855852</v>
+        <v>1.405866056906361</v>
       </c>
       <c r="AA10">
-        <v>1.980796979792668</v>
+        <v>0.775163989023981</v>
       </c>
       <c r="AB10">
-        <v>0.04775612317606256</v>
+        <v>0.03523316994238965</v>
       </c>
       <c r="AC10">
-        <v>1.933040856616605</v>
+        <v>0.7399308190815913</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="AE10">
-        <v>2.079229951661052</v>
+        <v>0.05985086342229198</v>
       </c>
       <c r="AF10">
-        <v>2.079229951661052</v>
+        <v>6.159850863422291</v>
       </c>
       <c r="AG10">
-        <v>-38.92077004833894</v>
+        <v>-66.54014913657771</v>
       </c>
       <c r="AH10">
-        <v>0.001591719369018823</v>
+        <v>0.003382935188834764</v>
       </c>
       <c r="AI10">
-        <v>0.04435290327518231</v>
+        <v>0.02721264764898141</v>
       </c>
       <c r="AJ10">
-        <v>-0.03076061720370284</v>
+        <v>-0.0380629660975873</v>
       </c>
       <c r="AK10">
-        <v>-6.62004554479838</v>
+        <v>-0.433035361954898</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>0.165</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>0.165</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>0.03782687692622519</v>
+      </c>
+      <c r="AO10">
+        <v>972.7272727272726</v>
       </c>
       <c r="AP10">
-        <v>-1.039272898487021</v>
+        <v>-0.4126239396790155</v>
+      </c>
+      <c r="AQ10">
+        <v>972.7272727272726</v>
       </c>
     </row>
     <row r="11">
@@ -1644,7 +1743,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Prime Financial Group Limited (ASX:PFG)</t>
+          <t>Fiducian Group Limited (ASX:FID)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1653,46 +1752,46 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.116</v>
+        <v>0.159</v>
       </c>
       <c r="E11">
-        <v>-0.129</v>
+        <v>0.178</v>
       </c>
       <c r="G11">
-        <v>0.1810457516339869</v>
+        <v>0.3131578947368421</v>
       </c>
       <c r="H11">
-        <v>0.1810457516339869</v>
+        <v>0.3131578947368421</v>
       </c>
       <c r="I11">
-        <v>0.1488779545199453</v>
+        <v>0.2736842105263158</v>
       </c>
       <c r="J11">
-        <v>0.1286437131874002</v>
+        <v>0.191578947368421</v>
       </c>
       <c r="K11">
-        <v>0.922</v>
+        <v>7.22</v>
       </c>
       <c r="L11">
-        <v>0.06026143790849673</v>
+        <v>0.19</v>
       </c>
       <c r="M11">
-        <v>0.844</v>
+        <v>4.95</v>
       </c>
       <c r="N11">
-        <v>0.08893572181243414</v>
+        <v>0.03291223404255319</v>
       </c>
       <c r="O11">
-        <v>0.9154013015184381</v>
+        <v>0.685595567867036</v>
       </c>
       <c r="P11">
-        <v>0.844</v>
+        <v>4.95</v>
       </c>
       <c r="Q11">
-        <v>0.08893572181243414</v>
+        <v>0.03291223404255319</v>
       </c>
       <c r="R11">
-        <v>0.9154013015184381</v>
+        <v>0.685595567867036</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1701,73 +1800,67 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0.147</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="V11">
-        <v>0.0154899894625922</v>
+        <v>0.06409574468085107</v>
       </c>
       <c r="W11">
-        <v>0.0370281124497992</v>
+        <v>0.2959016393442623</v>
       </c>
       <c r="X11">
-        <v>0.0684211744368179</v>
+        <v>0.03584928098809674</v>
       </c>
       <c r="Y11">
-        <v>-0.0313930619870187</v>
+        <v>0.2600523583561655</v>
       </c>
       <c r="Z11">
-        <v>13.12362434411169</v>
+        <v>3.747534516765286</v>
       </c>
       <c r="AA11">
-        <v>1.688271766103087</v>
+        <v>0.717948717948718</v>
       </c>
       <c r="AB11">
-        <v>0.04581655071911005</v>
+        <v>0.03512826165128539</v>
       </c>
       <c r="AC11">
-        <v>1.642455215383977</v>
+        <v>0.6828204562974326</v>
       </c>
       <c r="AD11">
-        <v>6.76</v>
+        <v>5</v>
       </c>
       <c r="AE11">
-        <v>3.045836479224186</v>
+        <v>0</v>
       </c>
       <c r="AF11">
-        <v>9.805836479224187</v>
+        <v>5</v>
       </c>
       <c r="AG11">
-        <v>9.658836479224187</v>
+        <v>-4.640000000000001</v>
       </c>
       <c r="AH11">
-        <v>0.5081840577257236</v>
+        <v>0.03217503217503218</v>
       </c>
       <c r="AI11">
-        <v>0.2614482811136871</v>
+        <v>0.1597444089456869</v>
       </c>
       <c r="AJ11">
-        <v>0.5044085310198185</v>
+        <v>-0.0318331503841932</v>
       </c>
       <c r="AK11">
-        <v>0.2585422189097246</v>
+        <v>-0.2142197599261312</v>
       </c>
       <c r="AL11">
-        <v>0.432</v>
+        <v>0</v>
       </c>
       <c r="AM11">
-        <v>0.432</v>
+        <v>0</v>
       </c>
       <c r="AN11">
-        <v>1.961125616478097</v>
-      </c>
-      <c r="AO11">
-        <v>5.11574074074074</v>
+        <v>0.4201680672268908</v>
       </c>
       <c r="AP11">
-        <v>2.802099355736637</v>
-      </c>
-      <c r="AQ11">
-        <v>5.11574074074074</v>
+        <v>-0.3899159663865547</v>
       </c>
     </row>
     <row r="12">
@@ -1778,7 +1871,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Microequities Asset Management Group Limited (ASX:MAM)</t>
+          <t>VGI Partners Limited (ASX:VGI)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1786,116 +1879,116 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D12">
-        <v>0.272</v>
-      </c>
-      <c r="E12">
-        <v>0.161</v>
-      </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.494142259414226</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.405857740585774</v>
       </c>
       <c r="I12">
-        <v>0.5373708707151091</v>
+        <v>0.5188284518828452</v>
       </c>
       <c r="J12">
-        <v>0.3968122959497019</v>
+        <v>0.3374602152844831</v>
       </c>
       <c r="K12">
-        <v>1.78</v>
+        <v>7.62</v>
       </c>
       <c r="L12">
-        <v>0.3396946564885496</v>
+        <v>0.3188284518828452</v>
       </c>
       <c r="M12">
-        <v>2.093</v>
+        <v>14.8</v>
       </c>
       <c r="N12">
-        <v>0.05104878048780487</v>
+        <v>0.03196544276457883</v>
       </c>
       <c r="O12">
-        <v>1.175842696629213</v>
+        <v>1.942257217847769</v>
       </c>
       <c r="P12">
-        <v>1.86</v>
+        <v>14.8</v>
       </c>
       <c r="Q12">
-        <v>0.04536585365853659</v>
+        <v>0.03196544276457883</v>
       </c>
       <c r="R12">
-        <v>1.044943820224719</v>
+        <v>1.942257217847769</v>
       </c>
       <c r="S12">
-        <v>0.2329999999999999</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0.111323459149546</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>3.28</v>
+        <v>28.4</v>
       </c>
       <c r="V12">
-        <v>0.08</v>
+        <v>0.06133909287257019</v>
       </c>
       <c r="W12">
-        <v>0.2742681047765794</v>
+        <v>0.119435736677116</v>
       </c>
       <c r="X12">
-        <v>0.04789431287630905</v>
+        <v>0.03528629168048083</v>
       </c>
       <c r="Y12">
-        <v>0.2263737919002703</v>
+        <v>0.08414944499663515</v>
       </c>
       <c r="Z12">
-        <v>2.742187505193469</v>
+        <v>2.037510656436487</v>
       </c>
       <c r="AA12">
-        <v>1.088133719860406</v>
+        <v>0.6875787847654853</v>
       </c>
       <c r="AB12">
-        <v>0.04775454675314757</v>
+        <v>0.03524768435493195</v>
       </c>
       <c r="AC12">
-        <v>1.040379173107258</v>
+        <v>0.6523311004105533</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="AE12">
-        <v>0.2708831872641408</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>0.2708831872641408</v>
+        <v>1.04</v>
       </c>
       <c r="AG12">
-        <v>-3.009116812735859</v>
+        <v>-27.36</v>
       </c>
       <c r="AH12">
-        <v>0.006563542292880545</v>
+        <v>0.002241186104646151</v>
       </c>
       <c r="AI12">
-        <v>0.04299130442723839</v>
+        <v>0.01307518229821473</v>
       </c>
       <c r="AJ12">
-        <v>-0.07920628741120236</v>
+        <v>-0.0628041502157745</v>
       </c>
       <c r="AK12">
-        <v>-0.9961049885749015</v>
+        <v>-0.5350019554165037</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>0.062</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>0.08062015503875969</v>
+      </c>
+      <c r="AO12">
+        <v>200</v>
       </c>
       <c r="AP12">
-        <v>-15.8374569091361</v>
+        <v>-2.120930232558139</v>
+      </c>
+      <c r="AQ12">
+        <v>200</v>
       </c>
     </row>
     <row r="13">
@@ -1906,7 +1999,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Fiducian Group Limited (ASX:FID)</t>
+          <t>Perpetual Limited (ASX:PPT)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1915,115 +2008,124 @@
         </is>
       </c>
       <c r="D13">
-        <v>0.167</v>
+        <v>-0.00779</v>
       </c>
       <c r="E13">
-        <v>0.21</v>
+        <v>-0.0771</v>
+      </c>
+      <c r="F13">
+        <v>0.0229</v>
       </c>
       <c r="G13">
-        <v>0.3265895953757226</v>
+        <v>0.2774174528301886</v>
       </c>
       <c r="H13">
-        <v>0.3265895953757226</v>
+        <v>0.2774174528301886</v>
       </c>
       <c r="I13">
-        <v>0.3041260933223657</v>
+        <v>0.2538325471698113</v>
       </c>
       <c r="J13">
-        <v>0.2204914176587151</v>
+        <v>0.178471082854799</v>
       </c>
       <c r="K13">
-        <v>7.26</v>
+        <v>56.6</v>
       </c>
       <c r="L13">
-        <v>0.2098265895953757</v>
+        <v>0.1668632075471698</v>
       </c>
       <c r="M13">
-        <v>4.83</v>
+        <v>76.7</v>
       </c>
       <c r="N13">
-        <v>0.03968775677896467</v>
+        <v>0.05122553930408068</v>
       </c>
       <c r="O13">
-        <v>0.6652892561983471</v>
+        <v>1.355123674911661</v>
       </c>
       <c r="P13">
-        <v>4.83</v>
+        <v>72.7</v>
       </c>
       <c r="Q13">
-        <v>0.03968775677896467</v>
+        <v>0.04855406398183397</v>
       </c>
       <c r="R13">
-        <v>0.6652892561983471</v>
+        <v>1.284452296819788</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>0.05215123859191655</v>
       </c>
       <c r="U13">
-        <v>8.27</v>
+        <v>113.3</v>
       </c>
       <c r="V13">
-        <v>0.06795398520953164</v>
+        <v>0.07566953850263808</v>
       </c>
       <c r="W13">
-        <v>0.3156521739130435</v>
+        <v>0.1219039414171872</v>
       </c>
       <c r="X13">
-        <v>0.04788316203898753</v>
+        <v>0.03593810385208233</v>
       </c>
       <c r="Y13">
-        <v>0.2677690118740559</v>
+        <v>0.08596583756510484</v>
       </c>
       <c r="Z13">
-        <v>4.321658355881727</v>
+        <v>3.02857142857143</v>
       </c>
       <c r="AA13">
-        <v>0.9528885775249939</v>
+        <v>0.5405124223602487</v>
       </c>
       <c r="AB13">
-        <v>0.04773919628981398</v>
+        <v>0.03511164880193185</v>
       </c>
       <c r="AC13">
-        <v>0.90514938123518</v>
+        <v>0.5054007735583168</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>57.1</v>
       </c>
       <c r="AE13">
-        <v>0.7361858552307368</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>0.7361858552307368</v>
+        <v>57.1</v>
       </c>
       <c r="AG13">
-        <v>-7.533814144769263</v>
+        <v>-56.2</v>
       </c>
       <c r="AH13">
-        <v>0.006012812716178591</v>
+        <v>0.03673443129181678</v>
       </c>
       <c r="AI13">
-        <v>0.02928789035340219</v>
+        <v>0.1122027903320888</v>
       </c>
       <c r="AJ13">
-        <v>-0.06598989086245353</v>
+        <v>-0.0389979876483242</v>
       </c>
       <c r="AK13">
-        <v>-0.4466815561879267</v>
+        <v>-0.1420626895854398</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>0.6068012752391074</v>
+      </c>
+      <c r="AO13">
+        <v>30.97122302158273</v>
       </c>
       <c r="AP13">
-        <v>-0.6346936937463574</v>
+        <v>-0.5972369819341127</v>
+      </c>
+      <c r="AQ13">
+        <v>30.97122302158273</v>
       </c>
     </row>
     <row r="14">
@@ -2034,7 +2136,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Magellan Financial Group Limited (ASX:MFG)</t>
+          <t>Advanced Share Registry Limited (ASX:ASW)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2043,49 +2145,46 @@
         </is>
       </c>
       <c r="D14">
-        <v>0.328</v>
+        <v>0.0162</v>
       </c>
       <c r="E14">
-        <v>0.354</v>
-      </c>
-      <c r="F14">
-        <v>0.132</v>
+        <v>0.00398</v>
       </c>
       <c r="G14">
-        <v>0.8324837812789619</v>
+        <v>0.3989637305699482</v>
       </c>
       <c r="H14">
-        <v>0.8324837812789619</v>
+        <v>0.3989637305699482</v>
       </c>
       <c r="I14">
-        <v>0.8227933645935227</v>
+        <v>0.3892501281102317</v>
       </c>
       <c r="J14">
-        <v>0.6286912005263604</v>
+        <v>0.2753681649536572</v>
       </c>
       <c r="K14">
-        <v>264.3</v>
+        <v>1.05</v>
       </c>
       <c r="L14">
-        <v>0.6123725671918443</v>
+        <v>0.2720207253886011</v>
       </c>
       <c r="M14">
-        <v>183.2</v>
+        <v>1.21</v>
       </c>
       <c r="N14">
-        <v>0.02511997806115453</v>
+        <v>0.04566037735849057</v>
       </c>
       <c r="O14">
-        <v>0.693151721528566</v>
+        <v>1.152380952380952</v>
       </c>
       <c r="P14">
-        <v>183.2</v>
+        <v>1.21</v>
       </c>
       <c r="Q14">
-        <v>0.02511997806115453</v>
+        <v>0.04566037735849057</v>
       </c>
       <c r="R14">
-        <v>0.693151721528566</v>
+        <v>1.152380952380952</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -2094,73 +2193,67 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>139</v>
+        <v>2.8</v>
       </c>
       <c r="V14">
-        <v>0.01905937200054847</v>
+        <v>0.1056603773584906</v>
       </c>
       <c r="W14">
-        <v>0.5759424711266071</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="X14">
-        <v>0.04780200135050457</v>
+        <v>0.03526432454198033</v>
       </c>
       <c r="Y14">
-        <v>0.5281404697761025</v>
+        <v>0.1499208606432049</v>
       </c>
       <c r="Z14">
-        <v>1.50639457232461</v>
+        <v>1.755764491829992</v>
       </c>
       <c r="AA14">
-        <v>0.9470570121411525</v>
+        <v>0.4834816462060151</v>
       </c>
       <c r="AB14">
-        <v>0.04775461402639909</v>
+        <v>0.03524172271457562</v>
       </c>
       <c r="AC14">
-        <v>0.8993023981147533</v>
+        <v>0.4482399234914395</v>
       </c>
       <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14">
-        <v>14.51191920717791</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="AF14">
-        <v>14.51191920717791</v>
+        <v>0.02747252747252747</v>
       </c>
       <c r="AG14">
-        <v>-124.4880807928221</v>
+        <v>-2.772527472527472</v>
       </c>
       <c r="AH14">
-        <v>0.001985890596912276</v>
+        <v>0.001035625517812759</v>
       </c>
       <c r="AI14">
-        <v>0.02742175427363482</v>
+        <v>0.004943349217962153</v>
       </c>
       <c r="AJ14">
-        <v>-0.01736595854144722</v>
+        <v>-0.1168488329010745</v>
       </c>
       <c r="AK14">
-        <v>-0.3190268535255243</v>
+        <v>-1.005459689953373</v>
       </c>
       <c r="AL14">
-        <v>0.298</v>
+        <v>0</v>
       </c>
       <c r="AM14">
-        <v>0.298</v>
+        <v>0</v>
       </c>
       <c r="AN14">
         <v>0</v>
       </c>
-      <c r="AO14">
-        <v>1193.959731543624</v>
-      </c>
       <c r="AP14">
-        <v>-0.3443463177495631</v>
-      </c>
-      <c r="AQ14">
-        <v>1193.959731543624</v>
+        <v>-1.768193541152725</v>
       </c>
     </row>
     <row r="15">
@@ -2171,7 +2264,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Platinum Investment Management Limited (ASX:PTM)</t>
+          <t>Pendal Group Limited (ASX:PDL)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2180,118 +2273,124 @@
         </is>
       </c>
       <c r="D15">
-        <v>-0.014</v>
+        <v>0.0104</v>
       </c>
       <c r="E15">
-        <v>-0.0365</v>
+        <v>-0.0164</v>
       </c>
       <c r="F15">
-        <v>-0.0475</v>
+        <v>-0.0212</v>
       </c>
       <c r="G15">
-        <v>0.8079022988505746</v>
+        <v>0.3443847072879331</v>
       </c>
       <c r="H15">
-        <v>0.7911877394636014</v>
+        <v>0.3443847072879331</v>
       </c>
       <c r="I15">
-        <v>0.7897056832960057</v>
+        <v>0.3303464755077658</v>
       </c>
       <c r="J15">
-        <v>0.5608274526286413</v>
+        <v>0.2539253092843103</v>
       </c>
       <c r="K15">
-        <v>110.5</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="L15">
-        <v>0.5292145593869731</v>
+        <v>0.2491039426523298</v>
       </c>
       <c r="M15">
-        <v>118.6</v>
+        <v>119.6</v>
       </c>
       <c r="N15">
-        <v>0.06460398736245779</v>
+        <v>0.08031696998186824</v>
       </c>
       <c r="O15">
-        <v>1.073303167420814</v>
+        <v>1.434052757793765</v>
       </c>
       <c r="P15">
-        <v>118.6</v>
+        <v>92.7</v>
       </c>
       <c r="Q15">
-        <v>0.06460398736245779</v>
+        <v>0.06225236720166544</v>
       </c>
       <c r="R15">
-        <v>1.073303167420814</v>
+        <v>1.111510791366906</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>26.89999999999999</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>0.2249163879598662</v>
       </c>
       <c r="U15">
-        <v>79.2</v>
+        <v>148.7</v>
       </c>
       <c r="V15">
-        <v>0.0431419544612703</v>
+        <v>0.09985897521993151</v>
       </c>
       <c r="W15">
-        <v>0.445744251714401</v>
+        <v>0.135786388798437</v>
       </c>
       <c r="X15">
-        <v>0.04783842401237663</v>
+        <v>0.03560041508574872</v>
       </c>
       <c r="Y15">
-        <v>0.3979058277020243</v>
+        <v>0.1001859737126883</v>
       </c>
       <c r="Z15">
-        <v>1.56173723853184</v>
+        <v>1.735704287417699</v>
       </c>
       <c r="AA15">
-        <v>0.8758651171611004</v>
+        <v>0.4407392480086427</v>
       </c>
       <c r="AB15">
-        <v>0.04774767955117459</v>
+        <v>0.03517565676734846</v>
       </c>
       <c r="AC15">
-        <v>0.8281174376099258</v>
+        <v>0.4055635912412942</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="AE15">
-        <v>6.997266638969975</v>
+        <v>0</v>
       </c>
       <c r="AF15">
-        <v>6.997266638969975</v>
+        <v>29.1</v>
       </c>
       <c r="AG15">
-        <v>-72.20273336103003</v>
+        <v>-119.6</v>
       </c>
       <c r="AH15">
-        <v>0.003797089764373326</v>
+        <v>0.01916743512053748</v>
       </c>
       <c r="AI15">
-        <v>0.03014799243566408</v>
+        <v>0.04335518474374255</v>
       </c>
       <c r="AJ15">
-        <v>-0.04094060176143992</v>
+        <v>-0.08733114275282949</v>
       </c>
       <c r="AK15">
-        <v>-0.47223037368954</v>
+        <v>-0.2288995215311005</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>0.2523850823937555</v>
+      </c>
+      <c r="AO15">
+        <v>101.4678899082569</v>
       </c>
       <c r="AP15">
-        <v>-0.4336760968288187</v>
+        <v>-1.037294015611448</v>
+      </c>
+      <c r="AQ15">
+        <v>101.4678899082569</v>
       </c>
     </row>
     <row r="16">
@@ -2302,7 +2401,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Pendal Group Limited (ASX:PDL)</t>
+          <t>Navigator Global Investments Limited (ASX:NGI)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2311,124 +2410,121 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.0375</v>
+        <v>0.0593</v>
       </c>
       <c r="E16">
-        <v>0.0492</v>
-      </c>
-      <c r="F16">
-        <v>0.0493</v>
+        <v>-0.331</v>
       </c>
       <c r="G16">
-        <v>0.4116460074949554</v>
+        <v>0.3340494092373792</v>
       </c>
       <c r="H16">
-        <v>0.4116460074949554</v>
+        <v>0.3340494092373792</v>
       </c>
       <c r="I16">
-        <v>0.392318021138277</v>
+        <v>0.3147153598281418</v>
       </c>
       <c r="J16">
-        <v>0.2997033563241089</v>
+        <v>0.2209083104894061</v>
       </c>
       <c r="K16">
-        <v>104.2</v>
+        <v>18.1</v>
       </c>
       <c r="L16">
-        <v>0.3003747477659268</v>
+        <v>0.1944146079484426</v>
       </c>
       <c r="M16">
-        <v>125</v>
+        <v>28.2</v>
       </c>
       <c r="N16">
-        <v>0.0722501589503497</v>
+        <v>0.129536058796509</v>
       </c>
       <c r="O16">
-        <v>1.199616122840691</v>
+        <v>1.558011049723757</v>
       </c>
       <c r="P16">
-        <v>101.5</v>
+        <v>28.2</v>
       </c>
       <c r="Q16">
-        <v>0.05866712906768395</v>
+        <v>0.129536058796509</v>
       </c>
       <c r="R16">
-        <v>0.974088291746641</v>
+        <v>1.558011049723757</v>
       </c>
       <c r="S16">
-        <v>23.5</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>0.188</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>100.5</v>
+        <v>27</v>
       </c>
       <c r="V16">
-        <v>0.05808912779608116</v>
+        <v>0.1240238860817639</v>
       </c>
       <c r="W16">
-        <v>0.1611008039579468</v>
+        <v>0.08453993460999534</v>
       </c>
       <c r="X16">
-        <v>0.04814027462160317</v>
+        <v>0.03718098012898879</v>
       </c>
       <c r="Y16">
-        <v>0.1129605293363437</v>
+        <v>0.04735895448100655</v>
       </c>
       <c r="Z16">
-        <v>1.619103329543573</v>
+        <v>1.019715224534502</v>
       </c>
       <c r="AA16">
-        <v>0.4852507020997485</v>
+        <v>0.2252635674322422</v>
       </c>
       <c r="AB16">
-        <v>0.0476911647878941</v>
+        <v>0.03533952417634231</v>
       </c>
       <c r="AC16">
-        <v>0.4375595373118544</v>
+        <v>0.1899240432558998</v>
       </c>
       <c r="AD16">
-        <v>2.49</v>
+        <v>23.2</v>
       </c>
       <c r="AE16">
-        <v>30.22439233565883</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>32.71439233565883</v>
+        <v>23.2</v>
       </c>
       <c r="AG16">
-        <v>-67.78560766434117</v>
+        <v>-3.800000000000001</v>
       </c>
       <c r="AH16">
-        <v>0.01855804699456394</v>
+        <v>0.09630552096305521</v>
       </c>
       <c r="AI16">
-        <v>0.05056989413629337</v>
+        <v>0.1036639857015192</v>
       </c>
       <c r="AJ16">
-        <v>-0.04077785043363429</v>
+        <v>-0.01776531089294063</v>
       </c>
       <c r="AK16">
-        <v>-0.1240553115275575</v>
+        <v>-0.0193089430894309</v>
       </c>
       <c r="AL16">
-        <v>0.08799999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AM16">
-        <v>0.08799999999999999</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="AN16">
-        <v>0.01687677917852786</v>
+        <v>0.7459807073954984</v>
       </c>
       <c r="AO16">
-        <v>1561.363636363636</v>
+        <v>35.51515151515152</v>
       </c>
       <c r="AP16">
-        <v>-0.4594388482061892</v>
+        <v>-0.1221864951768489</v>
       </c>
       <c r="AQ16">
-        <v>1561.363636363636</v>
+        <v>45.07692307692309</v>
       </c>
     </row>
     <row r="17">
@@ -2439,7 +2535,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Perpetual Limited (ASX:PPT)</t>
+          <t>Pengana Capital Group Limited (ASX:PCG)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2448,124 +2544,121 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.0266</v>
+        <v>0.00241</v>
       </c>
       <c r="E17">
-        <v>0.0727</v>
-      </c>
-      <c r="F17">
-        <v>0.0585</v>
+        <v>-0.0331</v>
       </c>
       <c r="G17">
-        <v>0.3511806699615596</v>
+        <v>0.2147335423197492</v>
       </c>
       <c r="H17">
-        <v>0.3511806699615596</v>
+        <v>0.2012539184952978</v>
       </c>
       <c r="I17">
-        <v>0.3235093185854245</v>
+        <v>0.1435736677115988</v>
       </c>
       <c r="J17">
-        <v>0.2313219665874671</v>
+        <v>0.1347232361403358</v>
       </c>
       <c r="K17">
-        <v>81.3</v>
+        <v>4.22</v>
       </c>
       <c r="L17">
-        <v>0.2232289950576606</v>
+        <v>0.1322884012539185</v>
       </c>
       <c r="M17">
-        <v>87.98999999999999</v>
+        <v>3.72</v>
       </c>
       <c r="N17">
-        <v>0.06548336682295154</v>
+        <v>0.03788187372708757</v>
       </c>
       <c r="O17">
-        <v>1.082287822878229</v>
+        <v>0.8815165876777251</v>
       </c>
       <c r="P17">
-        <v>86.5</v>
+        <v>2.31</v>
       </c>
       <c r="Q17">
-        <v>0.064374488353055</v>
+        <v>0.0235234215885947</v>
       </c>
       <c r="R17">
-        <v>1.063960639606396</v>
+        <v>0.54739336492891</v>
       </c>
       <c r="S17">
-        <v>1.489999999999995</v>
+        <v>1.41</v>
       </c>
       <c r="T17">
-        <v>0.01693374247073525</v>
+        <v>0.3790322580645161</v>
       </c>
       <c r="U17">
-        <v>210.1</v>
+        <v>10.6</v>
       </c>
       <c r="V17">
-        <v>0.156359306392796</v>
+        <v>0.1079429735234216</v>
       </c>
       <c r="W17">
-        <v>0.1662576687116564</v>
+        <v>0.08577235772357722</v>
       </c>
       <c r="X17">
-        <v>0.04962050813543209</v>
+        <v>0.03579294085528207</v>
       </c>
       <c r="Y17">
-        <v>0.1166371605762243</v>
+        <v>0.04997941686829515</v>
       </c>
       <c r="Z17">
-        <v>2.076520749115518</v>
+        <v>1.661458333333334</v>
       </c>
       <c r="AA17">
-        <v>0.4803448633450821</v>
+        <v>0.2238370433789955</v>
       </c>
       <c r="AB17">
-        <v>0.04743662588256935</v>
+        <v>0.0351388809014304</v>
       </c>
       <c r="AC17">
-        <v>0.4329082374625127</v>
+        <v>0.188698162477565</v>
       </c>
       <c r="AD17">
-        <v>61</v>
+        <v>2.96</v>
       </c>
       <c r="AE17">
-        <v>63.88953085594203</v>
+        <v>0</v>
       </c>
       <c r="AF17">
-        <v>124.889530855942</v>
+        <v>2.96</v>
       </c>
       <c r="AG17">
-        <v>-85.21046914405797</v>
+        <v>-7.64</v>
       </c>
       <c r="AH17">
-        <v>0.08504046109000404</v>
+        <v>0.02926057730328193</v>
       </c>
       <c r="AI17">
-        <v>0.211968346882385</v>
+        <v>0.04831864185439112</v>
       </c>
       <c r="AJ17">
-        <v>-0.06770852442936366</v>
+        <v>-0.08436395759717313</v>
       </c>
       <c r="AK17">
-        <v>-0.2247766350910884</v>
+        <v>-0.1508093170153968</v>
       </c>
       <c r="AL17">
-        <v>1.95</v>
+        <v>0.197</v>
       </c>
       <c r="AM17">
-        <v>1.95</v>
+        <v>0.197</v>
       </c>
       <c r="AN17">
-        <v>0.4385334291876348</v>
+        <v>0.4610591900311526</v>
       </c>
       <c r="AO17">
-        <v>61.23076923076923</v>
+        <v>23.248730964467</v>
       </c>
       <c r="AP17">
-        <v>-0.6125842497775555</v>
+        <v>-1.190031152647975</v>
       </c>
       <c r="AQ17">
-        <v>61.23076923076923</v>
+        <v>23.248730964467</v>
       </c>
     </row>
     <row r="18">
@@ -2576,7 +2669,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Advanced Share Registry Limited (ASX:ASW)</t>
+          <t>EQT Holdings Limited (ASX:EQT)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2585,46 +2678,46 @@
         </is>
       </c>
       <c r="D18">
-        <v>0.00635</v>
+        <v>0.0238</v>
       </c>
       <c r="E18">
-        <v>-0.0105</v>
+        <v>0.0253</v>
       </c>
       <c r="G18">
-        <v>0.3850267379679144</v>
+        <v>0.3581183611532625</v>
       </c>
       <c r="H18">
-        <v>0.3850267379679144</v>
+        <v>0.3581183611532625</v>
       </c>
       <c r="I18">
-        <v>0.3846422924226739</v>
+        <v>0.3277693474962063</v>
       </c>
       <c r="J18">
-        <v>0.278331436600296</v>
+        <v>0.1997981572775918</v>
       </c>
       <c r="K18">
-        <v>1.04</v>
+        <v>13.3</v>
       </c>
       <c r="L18">
-        <v>0.2780748663101604</v>
+        <v>0.2018209408194234</v>
       </c>
       <c r="M18">
-        <v>1.23</v>
+        <v>10.1</v>
       </c>
       <c r="N18">
-        <v>0.05442477876106194</v>
+        <v>0.02365339578454332</v>
       </c>
       <c r="O18">
-        <v>1.182692307692308</v>
+        <v>0.7593984962406014</v>
       </c>
       <c r="P18">
-        <v>1.23</v>
+        <v>10.1</v>
       </c>
       <c r="Q18">
-        <v>0.05442477876106194</v>
+        <v>0.02365339578454332</v>
       </c>
       <c r="R18">
-        <v>1.182692307692308</v>
+        <v>0.7593984962406014</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2633,70 +2726,73 @@
         <v>0</v>
       </c>
       <c r="U18">
-        <v>2.76</v>
+        <v>58.5</v>
       </c>
       <c r="V18">
-        <v>0.1221238938053097</v>
+        <v>0.1370023419203747</v>
       </c>
       <c r="W18">
-        <v>0.1685575364667747</v>
+        <v>0.07181425485961124</v>
       </c>
       <c r="X18">
-        <v>0.04783492763261809</v>
+        <v>0.03637263657770221</v>
       </c>
       <c r="Y18">
-        <v>0.1207226088341566</v>
+        <v>0.03544161828190903</v>
       </c>
       <c r="Z18">
-        <v>1.617514739054543</v>
+        <v>0.9998482779547874</v>
       </c>
       <c r="AA18">
-        <v>0.4502052010432039</v>
+        <v>0.1997678434925399</v>
       </c>
       <c r="AB18">
-        <v>0.04774834413123465</v>
+        <v>0.03503258173909337</v>
       </c>
       <c r="AC18">
-        <v>0.4024568569119693</v>
+        <v>0.1647352617534465</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="AE18">
-        <v>0.08218913169599691</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>0.08218913169599691</v>
+        <v>26.5</v>
       </c>
       <c r="AG18">
-        <v>-2.677810868304003</v>
+        <v>-32</v>
       </c>
       <c r="AH18">
-        <v>0.003623509671786757</v>
+        <v>0.05843439911797133</v>
       </c>
       <c r="AI18">
-        <v>0.01426352551392322</v>
+        <v>0.1255329227854098</v>
       </c>
       <c r="AJ18">
-        <v>-0.1344134849138458</v>
+        <v>-0.0810126582278481</v>
       </c>
       <c r="AK18">
-        <v>-0.8919527554185949</v>
+        <v>-0.2096985583224115</v>
       </c>
       <c r="AL18">
-        <v>0</v>
+        <v>0.708</v>
       </c>
       <c r="AM18">
-        <v>-0.06</v>
+        <v>0.708</v>
       </c>
       <c r="AN18">
-        <v>0</v>
+        <v>1.122881355932203</v>
+      </c>
+      <c r="AO18">
+        <v>30.50847457627119</v>
       </c>
       <c r="AP18">
-        <v>-1.755941552986231</v>
+        <v>-1.35593220338983</v>
       </c>
       <c r="AQ18">
-        <v>-22.83333333333334</v>
+        <v>30.50847457627119</v>
       </c>
     </row>
     <row r="19">
@@ -2707,7 +2803,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Pacific Current Group Limited (ASX:PAC)</t>
+          <t>BlackWall Limited (ASX:BWF)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2716,46 +2812,46 @@
         </is>
       </c>
       <c r="D19">
-        <v>1.119</v>
+        <v>0.0566</v>
       </c>
       <c r="E19">
-        <v>0.236</v>
+        <v>0.09970000000000001</v>
       </c>
       <c r="G19">
-        <v>0.7183544303797468</v>
+        <v>0.4945188794153471</v>
       </c>
       <c r="H19">
-        <v>0.7183544303797468</v>
+        <v>0.4945188794153471</v>
       </c>
       <c r="I19">
-        <v>0.6977062091610601</v>
+        <v>0.4738124238733252</v>
       </c>
       <c r="J19">
-        <v>0.5020531452164242</v>
+        <v>0.3473033132169714</v>
       </c>
       <c r="K19">
-        <v>26.4</v>
+        <v>3.13</v>
       </c>
       <c r="L19">
-        <v>0.2784810126582278</v>
+        <v>0.3812423873325212</v>
       </c>
       <c r="M19">
-        <v>10.7</v>
+        <v>1.79</v>
       </c>
       <c r="N19">
-        <v>0.04863636363636363</v>
+        <v>0.07748917748917748</v>
       </c>
       <c r="O19">
-        <v>0.4053030303030303</v>
+        <v>0.5718849840255591</v>
       </c>
       <c r="P19">
-        <v>10.7</v>
+        <v>1.79</v>
       </c>
       <c r="Q19">
-        <v>0.04863636363636363</v>
+        <v>0.07748917748917748</v>
       </c>
       <c r="R19">
-        <v>0.4053030303030303</v>
+        <v>0.5718849840255591</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -2764,73 +2860,73 @@
         <v>0</v>
       </c>
       <c r="U19">
-        <v>56.3</v>
+        <v>1.88</v>
       </c>
       <c r="V19">
-        <v>0.2559090909090909</v>
+        <v>0.08138528138528138</v>
       </c>
       <c r="W19">
-        <v>0.106280193236715</v>
+        <v>0.1416289592760181</v>
       </c>
       <c r="X19">
-        <v>0.04842357285656582</v>
+        <v>0.03650345962098515</v>
       </c>
       <c r="Y19">
-        <v>0.05785662038014915</v>
+        <v>0.1051254996550329</v>
       </c>
       <c r="Z19">
-        <v>0.7487131087239843</v>
+        <v>0.5552174207073781</v>
       </c>
       <c r="AA19">
-        <v>0.3758937710996428</v>
+        <v>0.1928288497674535</v>
       </c>
       <c r="AB19">
-        <v>0.04763962618748933</v>
+        <v>0.03500947033379583</v>
       </c>
       <c r="AC19">
-        <v>0.3282541449121535</v>
+        <v>0.1578193794336577</v>
       </c>
       <c r="AD19">
-        <v>5.26</v>
+        <v>1.6</v>
       </c>
       <c r="AE19">
-        <v>2.017256857657553</v>
+        <v>0</v>
       </c>
       <c r="AF19">
-        <v>7.277256857657553</v>
+        <v>1.6</v>
       </c>
       <c r="AG19">
-        <v>-49.02274314234244</v>
+        <v>-0.2799999999999998</v>
       </c>
       <c r="AH19">
-        <v>0.03201929202364167</v>
+        <v>0.06477732793522267</v>
       </c>
       <c r="AI19">
-        <v>0.02634994981287786</v>
+        <v>0.09580838323353294</v>
       </c>
       <c r="AJ19">
-        <v>-0.2867208425454795</v>
+        <v>-0.01226993865030674</v>
       </c>
       <c r="AK19">
-        <v>-0.2229550424766233</v>
+        <v>-0.01889338731443993</v>
       </c>
       <c r="AL19">
-        <v>0.454</v>
+        <v>0.077</v>
       </c>
       <c r="AM19">
-        <v>0.454</v>
+        <v>0.077</v>
       </c>
       <c r="AN19">
-        <v>0.07662500364187279</v>
+        <v>0.394088669950739</v>
       </c>
       <c r="AO19">
-        <v>145.374449339207</v>
+        <v>50.51948051948052</v>
       </c>
       <c r="AP19">
-        <v>-0.7141383786723544</v>
+        <v>-0.06896551724137927</v>
       </c>
       <c r="AQ19">
-        <v>145.374449339207</v>
+        <v>50.51948051948052</v>
       </c>
     </row>
     <row r="20">
@@ -2841,7 +2937,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Thorney Technologies Ltd (ASX:TEK)</t>
+          <t>Pacific Current Group Limited (ASX:PAC)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2850,106 +2946,118 @@
         </is>
       </c>
       <c r="D20">
-        <v>-0.225</v>
+        <v>-0.19</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.5131313131313131</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.5131313131313131</v>
       </c>
       <c r="I20">
-        <v>0.7428571428571429</v>
+        <v>0.4626262626262626</v>
       </c>
       <c r="J20">
-        <v>0.7428571428571429</v>
+        <v>0.4626262626262626</v>
       </c>
       <c r="K20">
-        <v>15.8</v>
+        <v>-12.1</v>
       </c>
       <c r="L20">
-        <v>1.128571428571429</v>
+        <v>-0.2444444444444444</v>
       </c>
       <c r="M20">
-        <v>0.015</v>
+        <v>9.058999999999999</v>
       </c>
       <c r="N20">
-        <v>0.0002976190476190476</v>
+        <v>0.03751138716356107</v>
       </c>
       <c r="O20">
-        <v>0.0009493670886075949</v>
+        <v>-0.7486776859504132</v>
       </c>
       <c r="P20">
-        <v>-0</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="Q20">
-        <v>-0</v>
+        <v>0.0346583850931677</v>
       </c>
       <c r="R20">
-        <v>-0</v>
+        <v>-0.6917355371900826</v>
       </c>
       <c r="S20">
-        <v>0.015</v>
+        <v>0.6890000000000001</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>0.07605695992935203</v>
       </c>
       <c r="U20">
-        <v>4.49</v>
+        <v>13.9</v>
       </c>
       <c r="V20">
-        <v>0.08908730158730159</v>
+        <v>0.05755693581780538</v>
       </c>
       <c r="W20">
-        <v>0.3326315789473684</v>
+        <v>-0.04506517690875233</v>
       </c>
       <c r="X20">
-        <v>0.04776221733662046</v>
+        <v>0.03537785580294067</v>
       </c>
       <c r="Y20">
-        <v>0.284869361610748</v>
+        <v>-0.08044303271169301</v>
       </c>
       <c r="Z20">
-        <v>0.426829268292683</v>
+        <v>0.2801992528019926</v>
       </c>
       <c r="AA20">
-        <v>0.3170731707317074</v>
+        <v>0.1296275331144572</v>
       </c>
       <c r="AB20">
-        <v>0.04776221733662046</v>
+        <v>0.03521913416266617</v>
       </c>
       <c r="AC20">
-        <v>0.2693109533950869</v>
+        <v>0.09440839895179098</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AE20">
         <v>0</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AG20">
-        <v>-4.49</v>
+        <v>-12.14</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>0.007235057140508099</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>0.006293356218265037</v>
       </c>
       <c r="AJ20">
-        <v>-0.09780004356349381</v>
+        <v>-0.05292989187303802</v>
       </c>
       <c r="AK20">
-        <v>-0.07973716924169776</v>
+        <v>-0.04568031306441903</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>0.29</v>
+      </c>
+      <c r="AN20">
+        <v>0.06929133858267716</v>
+      </c>
+      <c r="AO20">
+        <v>78.96551724137932</v>
+      </c>
+      <c r="AP20">
+        <v>-0.4779527559055118</v>
+      </c>
+      <c r="AQ20">
+        <v>78.96551724137932</v>
       </c>
     </row>
     <row r="21">
@@ -2960,7 +3068,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>IOOF Holdings Ltd (ASX:IFL)</t>
+          <t>Easton Investments Limited (ASX:EAS)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2969,124 +3077,121 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.0751</v>
+        <v>0.325</v>
       </c>
       <c r="E21">
-        <v>-0.224</v>
-      </c>
-      <c r="F21">
-        <v>0.0285</v>
+        <v>0.0547</v>
       </c>
       <c r="G21">
-        <v>0.2604963112005365</v>
+        <v>0.06272545090180361</v>
       </c>
       <c r="H21">
-        <v>0.2604963112005365</v>
+        <v>0.06272545090180361</v>
       </c>
       <c r="I21">
-        <v>0.2125090283111966</v>
+        <v>0.05211841702054426</v>
       </c>
       <c r="J21">
-        <v>0.2125090283111966</v>
+        <v>0.03716135651464842</v>
       </c>
       <c r="K21">
-        <v>20</v>
+        <v>1.02</v>
       </c>
       <c r="L21">
-        <v>0.02682763246143528</v>
+        <v>0.02044088176352706</v>
       </c>
       <c r="M21">
-        <v>134.65</v>
+        <v>0.9269999999999999</v>
       </c>
       <c r="N21">
-        <v>0.06970183248783518</v>
+        <v>0.03100334448160535</v>
       </c>
       <c r="O21">
-        <v>6.7325</v>
+        <v>0.9088235294117646</v>
       </c>
       <c r="P21">
-        <v>129.1</v>
+        <v>0.834</v>
       </c>
       <c r="Q21">
-        <v>0.06682886427166373</v>
+        <v>0.02789297658862876</v>
       </c>
       <c r="R21">
-        <v>6.455</v>
+        <v>0.8176470588235294</v>
       </c>
       <c r="S21">
-        <v>5.550000000000011</v>
+        <v>0.09299999999999997</v>
       </c>
       <c r="T21">
-        <v>0.04121797252135174</v>
+        <v>0.1003236245954692</v>
       </c>
       <c r="U21">
-        <v>68.3</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="V21">
-        <v>0.03535562687648825</v>
+        <v>0.02307692307692307</v>
       </c>
       <c r="W21">
-        <v>0.01500375093773443</v>
+        <v>0.04533333333333334</v>
       </c>
       <c r="X21">
-        <v>0.05136569956548431</v>
+        <v>0.03970484011559004</v>
       </c>
       <c r="Y21">
-        <v>-0.03636194862774988</v>
+        <v>0.005628493217743294</v>
       </c>
       <c r="Z21">
-        <v>1.255319750066934</v>
+        <v>3.468299303922215</v>
       </c>
       <c r="AA21">
-        <v>0.2667667803065784</v>
+        <v>0.1288867069325604</v>
       </c>
       <c r="AB21">
-        <v>0.04717754526304922</v>
+        <v>0.03452721907990304</v>
       </c>
       <c r="AC21">
-        <v>0.2195892350435291</v>
+        <v>0.09435948785265737</v>
       </c>
       <c r="AD21">
-        <v>299</v>
+        <v>6.72</v>
       </c>
       <c r="AE21">
-        <v>49.17259697001475</v>
+        <v>0.6214549533742065</v>
       </c>
       <c r="AF21">
-        <v>348.1725969700148</v>
+        <v>7.341454953374206</v>
       </c>
       <c r="AG21">
-        <v>279.8725969700147</v>
+        <v>6.651454953374206</v>
       </c>
       <c r="AH21">
-        <v>0.1527091147642393</v>
+        <v>0.1971312603808205</v>
       </c>
       <c r="AI21">
-        <v>0.2305973349464857</v>
+        <v>0.2298409688629</v>
       </c>
       <c r="AJ21">
-        <v>0.12654341214583</v>
+        <v>0.1819751077449294</v>
       </c>
       <c r="AK21">
-        <v>0.1941439491554349</v>
+        <v>0.2128366491511478</v>
       </c>
       <c r="AL21">
-        <v>9.029999999999999</v>
+        <v>0.316</v>
       </c>
       <c r="AM21">
-        <v>9.029999999999999</v>
+        <v>0.316</v>
       </c>
       <c r="AN21">
-        <v>1.492313835096826</v>
+        <v>1.884992987377279</v>
       </c>
       <c r="AO21">
-        <v>17.95127353266888</v>
+        <v>7.246835443037975</v>
       </c>
       <c r="AP21">
-        <v>1.396848657266993</v>
+        <v>1.865765765322358</v>
       </c>
       <c r="AQ21">
-        <v>17.95127353266888</v>
+        <v>7.246835443037975</v>
       </c>
     </row>
     <row r="22">
@@ -3097,7 +3202,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Navigator Global Investments Limited (ASX:NGI)</t>
+          <t>Clime Investment Management Limited (ASX:CIW)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3106,118 +3211,121 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.105</v>
+        <v>0.0436</v>
       </c>
       <c r="E22">
-        <v>0.14</v>
+        <v>-0.345</v>
       </c>
       <c r="G22">
-        <v>0.350844277673546</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="H22">
-        <v>0.350844277673546</v>
+        <v>0.1636363636363636</v>
       </c>
       <c r="I22">
-        <v>0.3301772043161932</v>
+        <v>0.1335080157937301</v>
       </c>
       <c r="J22">
-        <v>0.2441310237974277</v>
+        <v>0.09913603340781042</v>
       </c>
       <c r="K22">
-        <v>26.8</v>
+        <v>0.274</v>
       </c>
       <c r="L22">
-        <v>0.25140712945591</v>
+        <v>0.03321212121212121</v>
       </c>
       <c r="M22">
-        <v>27.5</v>
+        <v>1.032</v>
       </c>
       <c r="N22">
-        <v>0.08529776674937965</v>
+        <v>0.03451505016722408</v>
       </c>
       <c r="O22">
-        <v>1.026119402985075</v>
+        <v>3.766423357664233</v>
       </c>
       <c r="P22">
-        <v>27.5</v>
+        <v>0.967</v>
       </c>
       <c r="Q22">
-        <v>0.08529776674937965</v>
+        <v>0.03234113712374582</v>
       </c>
       <c r="R22">
-        <v>1.026119402985075</v>
+        <v>3.52919708029197</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>0.06500000000000006</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.06298449612403106</v>
       </c>
       <c r="U22">
-        <v>29</v>
+        <v>4.33</v>
       </c>
       <c r="V22">
-        <v>0.08995037220843673</v>
+        <v>0.1448160535117057</v>
       </c>
       <c r="W22">
-        <v>0.1246511627906977</v>
+        <v>0.02107692307692308</v>
       </c>
       <c r="X22">
-        <v>0.04886084256777795</v>
+        <v>0.03574649245884434</v>
       </c>
       <c r="Y22">
-        <v>0.07579032022291973</v>
+        <v>-0.01466956938192126</v>
       </c>
       <c r="Z22">
-        <v>1.05842642863708</v>
+        <v>1.290515469487084</v>
       </c>
       <c r="AA22">
-        <v>0.2583947276374254</v>
+        <v>0.1279365846963677</v>
       </c>
       <c r="AB22">
-        <v>0.04756279419891821</v>
+        <v>0.03514768392960196</v>
       </c>
       <c r="AC22">
-        <v>0.2108319334385072</v>
+        <v>0.09278890076676577</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>0.762</v>
       </c>
       <c r="AE22">
-        <v>17.71555009946905</v>
+        <v>0.06279434850863422</v>
       </c>
       <c r="AF22">
-        <v>17.71555009946905</v>
+        <v>0.8247943485086342</v>
       </c>
       <c r="AG22">
-        <v>-11.28444990053095</v>
+        <v>-3.505205651491366</v>
       </c>
       <c r="AH22">
-        <v>0.05208685722922114</v>
+        <v>0.02684458483767425</v>
       </c>
       <c r="AI22">
-        <v>0.07642088760597612</v>
+        <v>0.0514698866376026</v>
       </c>
       <c r="AJ22">
-        <v>-0.03627092858882532</v>
+        <v>-0.1327991271767351</v>
       </c>
       <c r="AK22">
-        <v>-0.05563897785449189</v>
+        <v>-0.2997235818805453</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>0.054</v>
       </c>
       <c r="AM22">
-        <v>-0.126</v>
+        <v>0.054</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>0.5388967468175389</v>
+      </c>
+      <c r="AO22">
+        <v>19.44444444444445</v>
       </c>
       <c r="AP22">
-        <v>-0.2818294180951785</v>
+        <v>-2.478929032172112</v>
       </c>
       <c r="AQ22">
-        <v>-286.5079365079365</v>
+        <v>19.44444444444445</v>
       </c>
     </row>
     <row r="23">
@@ -3228,7 +3336,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>EQT Holdings Limited (ASX:EQT)</t>
+          <t>Eildon Capital Fund (ASX:EDC)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3237,121 +3345,109 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.11</v>
+        <v>0.41</v>
       </c>
       <c r="E23">
-        <v>0.18</v>
+        <v>0.737</v>
       </c>
       <c r="G23">
-        <v>0.3790446841294299</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0.3790446841294299</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3469036709284022</v>
+        <v>0.8568773234200744</v>
       </c>
       <c r="J23">
-        <v>0.2366829136652417</v>
+        <v>0.6254439391927775</v>
       </c>
       <c r="K23">
-        <v>15.6</v>
+        <v>2.83</v>
       </c>
       <c r="L23">
-        <v>0.2403697996918336</v>
+        <v>0.5260223048327137</v>
       </c>
       <c r="M23">
-        <v>9.44</v>
+        <v>5.83</v>
       </c>
       <c r="N23">
-        <v>0.02119919155625421</v>
+        <v>0.1756024096385542</v>
       </c>
       <c r="O23">
-        <v>0.6051282051282051</v>
+        <v>2.060070671378092</v>
       </c>
       <c r="P23">
-        <v>9.44</v>
+        <v>2.41</v>
       </c>
       <c r="Q23">
-        <v>0.02119919155625421</v>
+        <v>0.07259036144578312</v>
       </c>
       <c r="R23">
-        <v>0.6051282051282051</v>
+        <v>0.8515901060070672</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>3.42</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>0.5866209262435678</v>
       </c>
       <c r="U23">
-        <v>38.2</v>
+        <v>5.86</v>
       </c>
       <c r="V23">
-        <v>0.08578486413653717</v>
+        <v>0.1765060240963855</v>
       </c>
       <c r="W23">
-        <v>0.08289054197662062</v>
+        <v>0.08372781065088758</v>
       </c>
       <c r="X23">
-        <v>0.04856051182169024</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y23">
-        <v>0.03433003015493037</v>
+        <v>0.04848231448058381</v>
       </c>
       <c r="Z23">
-        <v>0.9104969083426616</v>
+        <v>0.1859018659295093</v>
       </c>
       <c r="AA23">
-        <v>0.2154990611497357</v>
+        <v>0.1162711953302399</v>
       </c>
       <c r="AB23">
-        <v>0.04771734691208052</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC23">
-        <v>0.1677817142376551</v>
+        <v>0.08102569915993615</v>
       </c>
       <c r="AD23">
-        <v>10.3</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>7.479758783733475</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>17.77975878373348</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>-20.42024121626653</v>
+        <v>-5.86</v>
       </c>
       <c r="AH23">
-        <v>0.03839459282442302</v>
+        <v>0</v>
       </c>
       <c r="AI23">
-        <v>0.08785344389471891</v>
+        <v>0</v>
       </c>
       <c r="AJ23">
-        <v>-0.04806122389713688</v>
+        <v>-0.2143379663496708</v>
       </c>
       <c r="AK23">
-        <v>-0.1243773371793364</v>
+        <v>-0.2349639133921411</v>
       </c>
       <c r="AL23">
-        <v>0.581</v>
+        <v>0</v>
       </c>
       <c r="AM23">
-        <v>0.581</v>
-      </c>
-      <c r="AN23">
-        <v>0.39600153787005</v>
-      </c>
-      <c r="AO23">
-        <v>38.89845094664372</v>
-      </c>
-      <c r="AP23">
-        <v>-0.7850919344969829</v>
-      </c>
-      <c r="AQ23">
-        <v>38.89845094664372</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -3362,7 +3458,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Centuria Capital Group (ASX:CNI)</t>
+          <t>IOOF Holdings Ltd (ASX:IFL)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3371,49 +3467,49 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.109</v>
+        <v>0.05139999999999999</v>
       </c>
       <c r="E24">
-        <v>0.167</v>
+        <v>0.0121</v>
       </c>
       <c r="F24">
-        <v>0.033</v>
+        <v>-0.068</v>
       </c>
       <c r="G24">
-        <v>0.5744157441574417</v>
+        <v>0.1770755885997522</v>
       </c>
       <c r="H24">
-        <v>0.5744157441574417</v>
+        <v>0.1770755885997522</v>
       </c>
       <c r="I24">
-        <v>0.5499925430607457</v>
+        <v>0.1253106043179855</v>
       </c>
       <c r="J24">
-        <v>0.4643081255957265</v>
+        <v>0.08458465791464022</v>
       </c>
       <c r="K24">
-        <v>13.8</v>
+        <v>101.5</v>
       </c>
       <c r="L24">
-        <v>0.1697416974169742</v>
+        <v>0.1257744733581165</v>
       </c>
       <c r="M24">
-        <v>20.4</v>
+        <v>67.7</v>
       </c>
       <c r="N24">
-        <v>0.02862756104406399</v>
+        <v>0.03843970020440609</v>
       </c>
       <c r="O24">
-        <v>1.478260869565217</v>
+        <v>0.6669950738916256</v>
       </c>
       <c r="P24">
-        <v>20.4</v>
+        <v>67.7</v>
       </c>
       <c r="Q24">
-        <v>0.02862756104406399</v>
+        <v>0.03843970020440609</v>
       </c>
       <c r="R24">
-        <v>1.478260869565217</v>
+        <v>0.6669950738916256</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -3422,73 +3518,73 @@
         <v>0</v>
       </c>
       <c r="U24">
-        <v>87.40000000000001</v>
+        <v>256.1</v>
       </c>
       <c r="V24">
-        <v>0.1226494527083918</v>
+        <v>0.1454122189416307</v>
       </c>
       <c r="W24">
-        <v>0.1449579831932773</v>
+        <v>0.08777239709443098</v>
       </c>
       <c r="X24">
-        <v>0.05474784075556606</v>
+        <v>0.03932146258385943</v>
       </c>
       <c r="Y24">
-        <v>0.09021014243771126</v>
+        <v>0.04845093451057154</v>
       </c>
       <c r="Z24">
-        <v>0.4355091997566057</v>
+        <v>1.098920983873191</v>
       </c>
       <c r="AA24">
-        <v>0.2022104602186844</v>
+        <v>0.09295185549613375</v>
       </c>
       <c r="AB24">
-        <v>0.04568338318034984</v>
+        <v>0.03542445146413847</v>
       </c>
       <c r="AC24">
-        <v>0.1565270770383346</v>
+        <v>0.05752740403199527</v>
       </c>
       <c r="AD24">
-        <v>232.7</v>
+        <v>395.1</v>
       </c>
       <c r="AE24">
-        <v>16.27803124580689</v>
+        <v>0.1567115769285556</v>
       </c>
       <c r="AF24">
-        <v>248.9780312458069</v>
+        <v>395.2567115769286</v>
       </c>
       <c r="AG24">
-        <v>161.5780312458069</v>
+        <v>139.1567115769286</v>
       </c>
       <c r="AH24">
-        <v>0.2589264970240995</v>
+        <v>0.1832898891292344</v>
       </c>
       <c r="AI24">
-        <v>0.3917347973116392</v>
+        <v>0.2472120914369448</v>
       </c>
       <c r="AJ24">
-        <v>0.1848342391029195</v>
+        <v>0.07322662673233353</v>
       </c>
       <c r="AK24">
-        <v>0.2947546636967546</v>
+        <v>0.1036350891990727</v>
       </c>
       <c r="AL24">
-        <v>6.51</v>
+        <v>9.84</v>
       </c>
       <c r="AM24">
-        <v>6.51</v>
+        <v>9.84</v>
       </c>
       <c r="AN24">
-        <v>4.820799668531178</v>
+        <v>2.761836191168555</v>
       </c>
       <c r="AO24">
-        <v>7.127496159754224</v>
+        <v>10.26422764227642</v>
       </c>
       <c r="AP24">
-        <v>3.34737997194545</v>
+        <v>0.97273612320214</v>
       </c>
       <c r="AQ24">
-        <v>7.127496159754224</v>
+        <v>10.26422764227642</v>
       </c>
     </row>
     <row r="25">
@@ -3508,46 +3604,49 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.3779999999999999</v>
+        <v>0.361</v>
+      </c>
+      <c r="E25">
+        <v>0.07719999999999999</v>
       </c>
       <c r="F25">
-        <v>0.411</v>
+        <v>1.02</v>
       </c>
       <c r="G25">
-        <v>0.1057057057057057</v>
+        <v>0.09723756906077348</v>
       </c>
       <c r="H25">
-        <v>0.1057057057057057</v>
+        <v>0.09723756906077348</v>
       </c>
       <c r="I25">
-        <v>0.08560154663762153</v>
+        <v>0.05939226519337016</v>
       </c>
       <c r="J25">
-        <v>0.08560154663762153</v>
+        <v>0.02969613259668508</v>
       </c>
       <c r="K25">
-        <v>-0.8</v>
+        <v>0.377</v>
       </c>
       <c r="L25">
-        <v>-0.02402402402402403</v>
+        <v>0.01041436464088398</v>
       </c>
       <c r="M25">
-        <v>0.535</v>
+        <v>0.376</v>
       </c>
       <c r="N25">
-        <v>0.0107</v>
+        <v>0.003530516431924883</v>
       </c>
       <c r="O25">
-        <v>-0.66875</v>
+        <v>0.9973474801061007</v>
       </c>
       <c r="P25">
-        <v>0.535</v>
+        <v>0.376</v>
       </c>
       <c r="Q25">
-        <v>0.0107</v>
+        <v>0.003530516431924883</v>
       </c>
       <c r="R25">
-        <v>-0.66875</v>
+        <v>0.9973474801061007</v>
       </c>
       <c r="S25">
         <v>0</v>
@@ -3556,73 +3655,73 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>8.19</v>
+        <v>10.2</v>
       </c>
       <c r="V25">
-        <v>0.1638</v>
+        <v>0.09577464788732394</v>
       </c>
       <c r="W25">
-        <v>-0.0425531914893617</v>
+        <v>0.01532520325203252</v>
       </c>
       <c r="X25">
-        <v>0.0508401617021485</v>
+        <v>0.03661658774257108</v>
       </c>
       <c r="Y25">
-        <v>-0.09339335319151021</v>
+        <v>-0.02129138449053856</v>
       </c>
       <c r="Z25">
-        <v>2.256503841001019</v>
+        <v>2.589413447782547</v>
       </c>
       <c r="AA25">
-        <v>0.1931602187834208</v>
+        <v>0.07689556509298998</v>
       </c>
       <c r="AB25">
-        <v>0.04760630692697786</v>
+        <v>0.03531402998588982</v>
       </c>
       <c r="AC25">
-        <v>0.145553911856443</v>
+        <v>0.04158153510710015</v>
       </c>
       <c r="AD25">
-        <v>4.8</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="AE25">
-        <v>2.897342484836019</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>7.697342484836018</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="AG25">
-        <v>-0.4926575151639812</v>
+        <v>-2.16</v>
       </c>
       <c r="AH25">
-        <v>0.1334089605055732</v>
+        <v>0.07019381875327396</v>
       </c>
       <c r="AI25">
-        <v>0.2383274254979341</v>
+        <v>0.2397137745974955</v>
       </c>
       <c r="AJ25">
-        <v>-0.009951200982255935</v>
+        <v>-0.02070155261644624</v>
       </c>
       <c r="AK25">
-        <v>-0.02043599436453322</v>
+        <v>-0.09254498714652958</v>
       </c>
       <c r="AL25">
-        <v>0.293</v>
+        <v>0.347</v>
       </c>
       <c r="AM25">
-        <v>0.293</v>
+        <v>0.347</v>
       </c>
       <c r="AN25">
-        <v>0.9979209979209978</v>
+        <v>2.284090909090909</v>
       </c>
       <c r="AO25">
-        <v>7.303754266211605</v>
+        <v>6.195965417867435</v>
       </c>
       <c r="AP25">
-        <v>-0.1024235998261915</v>
+        <v>-0.6136363636363636</v>
       </c>
       <c r="AQ25">
-        <v>7.303754266211605</v>
+        <v>6.195965417867435</v>
       </c>
     </row>
     <row r="26">
@@ -3633,7 +3732,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Pengana Capital Group Limited (ASX:PCG)</t>
+          <t>Plato Income Maximiser Limited (ASX:PL8)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3642,40 +3741,40 @@
         </is>
       </c>
       <c r="G26">
-        <v>0.1737864077669903</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>0.1737864077669903</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>0.125042796053664</v>
+        <v>0.8539325842696629</v>
       </c>
       <c r="J26">
-        <v>0.125042796053664</v>
+        <v>0.8434576779026217</v>
       </c>
       <c r="K26">
-        <v>-10</v>
+        <v>14.8</v>
       </c>
       <c r="L26">
-        <v>-0.3236245954692557</v>
+        <v>0.8314606741573034</v>
       </c>
       <c r="M26">
-        <v>5.88</v>
+        <v>16</v>
       </c>
       <c r="N26">
-        <v>0.06689419795221842</v>
+        <v>0.04209418574059458</v>
       </c>
       <c r="O26">
-        <v>-0.588</v>
+        <v>1.081081081081081</v>
       </c>
       <c r="P26">
-        <v>5.88</v>
+        <v>16</v>
       </c>
       <c r="Q26">
-        <v>0.06689419795221842</v>
+        <v>0.04209418574059458</v>
       </c>
       <c r="R26">
-        <v>-0.588</v>
+        <v>1.081081081081081</v>
       </c>
       <c r="S26">
         <v>0</v>
@@ -3684,73 +3783,61 @@
         <v>0</v>
       </c>
       <c r="U26">
-        <v>10.1</v>
+        <v>0.627</v>
       </c>
       <c r="V26">
-        <v>0.1149032992036405</v>
+        <v>0.00164956590370955</v>
       </c>
       <c r="W26">
-        <v>-0.1508295625942685</v>
+        <v>0.0635465865178188</v>
       </c>
       <c r="X26">
-        <v>0.04873935113515244</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y26">
-        <v>-0.1995689137294209</v>
+        <v>0.02830109034751504</v>
       </c>
       <c r="Z26">
-        <v>1.226877527132987</v>
+        <v>0.07650320195985731</v>
       </c>
       <c r="AA26">
-        <v>0.1534121964081137</v>
+        <v>0.06452721307717654</v>
       </c>
       <c r="AB26">
-        <v>0.04758381982578599</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC26">
-        <v>0.1058283765823277</v>
+        <v>0.02928171690687278</v>
       </c>
       <c r="AD26">
-        <v>3.51</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>0.7858880097089072</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>4.295888009708907</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>-5.804111990291092</v>
+        <v>-0.627</v>
       </c>
       <c r="AH26">
-        <v>0.04659522352294625</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>0.07077724950694744</v>
+        <v>0</v>
       </c>
       <c r="AJ26">
-        <v>-0.07069918032441137</v>
+        <v>-0.001652291467377126</v>
       </c>
       <c r="AK26">
-        <v>-0.1147150928387171</v>
+        <v>-0.002104923910525627</v>
       </c>
       <c r="AL26">
-        <v>0.037</v>
+        <v>0</v>
       </c>
       <c r="AM26">
-        <v>0.037</v>
-      </c>
-      <c r="AN26">
-        <v>0.5968372725726917</v>
-      </c>
-      <c r="AO26">
-        <v>94.86486486486487</v>
-      </c>
-      <c r="AP26">
-        <v>-0.9869260313366931</v>
-      </c>
-      <c r="AQ26">
-        <v>94.86486486486487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -3761,7 +3848,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Bailador Technology Investments Limited (ASX:BTI)</t>
+          <t>Katana Capital Limited (ASX:KAT)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3776,64 +3863,67 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0.768888888888889</v>
+        <v>0.574712643678161</v>
       </c>
       <c r="J27">
-        <v>0.5382222222222223</v>
+        <v>0.4458128078817735</v>
       </c>
       <c r="K27">
-        <v>12</v>
+        <v>1.08</v>
       </c>
       <c r="L27">
-        <v>0.5333333333333333</v>
+        <v>0.4137931034482759</v>
       </c>
       <c r="M27">
-        <v>-0</v>
+        <v>2.357</v>
       </c>
       <c r="N27">
-        <v>-0</v>
+        <v>0.08794776119402986</v>
       </c>
       <c r="O27">
-        <v>-0</v>
+        <v>2.182407407407407</v>
       </c>
       <c r="P27">
-        <v>-0</v>
+        <v>0.487</v>
       </c>
       <c r="Q27">
-        <v>-0</v>
+        <v>0.01817164179104477</v>
       </c>
       <c r="R27">
-        <v>-0</v>
+        <v>0.4509259259259259</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1.87</v>
+      </c>
+      <c r="T27">
+        <v>0.7933814170555791</v>
       </c>
       <c r="U27">
-        <v>0.998</v>
+        <v>5.86</v>
       </c>
       <c r="V27">
-        <v>0.01054968287526427</v>
+        <v>0.2186567164179105</v>
       </c>
       <c r="W27">
-        <v>0.1267159450897571</v>
+        <v>0.03985239852398524</v>
       </c>
       <c r="X27">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y27">
-        <v>0.07895372775313665</v>
+        <v>0.004606902353681476</v>
       </c>
       <c r="Z27">
-        <v>0.2448047002502448</v>
+        <v>0.1266990291262136</v>
       </c>
       <c r="AA27">
-        <v>0.1317593297791318</v>
+        <v>0.05648404993065186</v>
       </c>
       <c r="AB27">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC27">
-        <v>0.0839971124425113</v>
+        <v>0.0212385537603481</v>
       </c>
       <c r="AD27">
         <v>0</v>
@@ -3845,7 +3935,7 @@
         <v>0</v>
       </c>
       <c r="AG27">
-        <v>-0.998</v>
+        <v>-5.86</v>
       </c>
       <c r="AH27">
         <v>0</v>
@@ -3854,10 +3944,10 @@
         <v>0</v>
       </c>
       <c r="AJ27">
-        <v>-0.01066216533834747</v>
+        <v>-0.279847182425979</v>
       </c>
       <c r="AK27">
-        <v>-0.009910428789894938</v>
+        <v>-0.2998976458546572</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -3874,7 +3964,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Clime Investment Management Limited (ASX:CIW)</t>
+          <t>First Growth Funds Limited (CNSX:FGFL)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3883,115 +3973,103 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.0731</v>
-      </c>
-      <c r="E28">
-        <v>-0.145</v>
+        <v>0.367</v>
       </c>
       <c r="G28">
-        <v>0.1638029782359679</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>0.1638029782359679</v>
+        <v>0</v>
       </c>
       <c r="I28">
-        <v>0.1353011544070795</v>
+        <v>0.1261627906976744</v>
       </c>
       <c r="J28">
-        <v>0.09434264167840581</v>
+        <v>0.1261627906976744</v>
       </c>
       <c r="K28">
-        <v>1.02</v>
+        <v>0.16</v>
       </c>
       <c r="L28">
-        <v>0.1168384879725086</v>
+        <v>0.09302325581395349</v>
       </c>
       <c r="M28">
-        <v>1.076</v>
+        <v>-0</v>
       </c>
       <c r="N28">
-        <v>0.04981481481481481</v>
+        <v>-0</v>
       </c>
       <c r="O28">
-        <v>1.054901960784314</v>
+        <v>-0</v>
       </c>
       <c r="P28">
-        <v>0.893</v>
+        <v>-0</v>
       </c>
       <c r="Q28">
-        <v>0.04134259259259259</v>
+        <v>-0</v>
       </c>
       <c r="R28">
-        <v>0.8754901960784314</v>
+        <v>-0</v>
       </c>
       <c r="S28">
-        <v>0.1830000000000001</v>
-      </c>
-      <c r="T28">
-        <v>0.1700743494423792</v>
+        <v>0</v>
       </c>
       <c r="U28">
-        <v>2.94</v>
+        <v>2.49</v>
       </c>
       <c r="V28">
-        <v>0.1361111111111111</v>
+        <v>7.410714285714286</v>
       </c>
       <c r="W28">
-        <v>0.075</v>
+        <v>0.02675585284280936</v>
       </c>
       <c r="X28">
-        <v>0.04875180987185661</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y28">
-        <v>0.02624819012814339</v>
+        <v>-0.008489643327494401</v>
       </c>
       <c r="Z28">
-        <v>1.207618435589609</v>
+        <v>0.442159383033419</v>
       </c>
       <c r="AA28">
-        <v>0.1139299133530674</v>
+        <v>0.05578406169665809</v>
       </c>
       <c r="AB28">
-        <v>0.04738357498937325</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC28">
-        <v>0.0665463383636942</v>
+        <v>0.02053856552635432</v>
       </c>
       <c r="AD28">
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>1.069104610130977</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>1.069104610130977</v>
+        <v>0</v>
       </c>
       <c r="AG28">
-        <v>-1.870895389869023</v>
+        <v>-2.49</v>
       </c>
       <c r="AH28">
-        <v>0.04716130736161441</v>
+        <v>0</v>
       </c>
       <c r="AI28">
-        <v>0.07598952739047296</v>
+        <v>0</v>
       </c>
       <c r="AJ28">
-        <v>-0.094829209274318</v>
+        <v>1.155988857938719</v>
       </c>
       <c r="AK28">
-        <v>-0.1681083479227898</v>
+        <v>-0.682191780821918</v>
       </c>
       <c r="AL28">
         <v>0</v>
       </c>
       <c r="AM28">
         <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>-1.103773091368155</v>
       </c>
     </row>
     <row r="29">
@@ -4002,7 +4080,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Eildon Capital Limited (ASX:EDC)</t>
+          <t>CVC Limited (ASX:CVC)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4011,109 +4089,118 @@
         </is>
       </c>
       <c r="D29">
-        <v>-0.055</v>
-      </c>
-      <c r="E29">
-        <v>-0.08070000000000001</v>
+        <v>-0.329</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.6160714285714286</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>0.6160714285714286</v>
       </c>
       <c r="I29">
-        <v>0.8299065420560749</v>
+        <v>0.6107142857142858</v>
       </c>
       <c r="J29">
-        <v>0.5803674451280524</v>
+        <v>0.6107142857142858</v>
       </c>
       <c r="K29">
-        <v>3.08</v>
+        <v>-1.43</v>
       </c>
       <c r="L29">
-        <v>0.5757009345794393</v>
+        <v>-0.1276785714285714</v>
       </c>
       <c r="M29">
-        <v>2.756</v>
+        <v>9.474</v>
       </c>
       <c r="N29">
-        <v>0.07592286501377411</v>
+        <v>0.06076972418216806</v>
       </c>
       <c r="O29">
-        <v>0.8948051948051948</v>
+        <v>-6.625174825174826</v>
       </c>
       <c r="P29">
-        <v>2.33</v>
+        <v>9.01</v>
       </c>
       <c r="Q29">
-        <v>0.06418732782369146</v>
+        <v>0.05779345734445157</v>
       </c>
       <c r="R29">
-        <v>0.7564935064935066</v>
+        <v>-6.300699300699301</v>
       </c>
       <c r="S29">
-        <v>0.4260000000000002</v>
+        <v>0.4640000000000004</v>
       </c>
       <c r="T29">
-        <v>0.1545718432510886</v>
+        <v>0.04897614523960317</v>
       </c>
       <c r="U29">
-        <v>4.86</v>
+        <v>15.6</v>
       </c>
       <c r="V29">
-        <v>0.1338842975206612</v>
+        <v>0.1000641436818473</v>
       </c>
       <c r="W29">
-        <v>0.08700564971751414</v>
+        <v>-0.01133122028526149</v>
       </c>
       <c r="X29">
-        <v>0.04776221733662046</v>
+        <v>0.04309737884711538</v>
       </c>
       <c r="Y29">
-        <v>0.03924343238089367</v>
+        <v>-0.05442859913237687</v>
       </c>
       <c r="Z29">
-        <v>0.1921005385996409</v>
+        <v>0.07865168539325842</v>
       </c>
       <c r="AA29">
-        <v>0.1114888987947964</v>
+        <v>0.04803370786516854</v>
       </c>
       <c r="AB29">
-        <v>0.04776221733662046</v>
+        <v>0.03414571142975946</v>
       </c>
       <c r="AC29">
-        <v>0.06372668145817595</v>
+        <v>0.01388799643540908</v>
       </c>
       <c r="AD29">
-        <v>0</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="AE29">
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>0</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="AG29">
-        <v>-4.86</v>
+        <v>51.8</v>
       </c>
       <c r="AH29">
-        <v>0</v>
+        <v>0.3018360949395432</v>
       </c>
       <c r="AI29">
-        <v>0</v>
+        <v>0.3111726685133888</v>
       </c>
       <c r="AJ29">
-        <v>-0.1545801526717557</v>
+        <v>0.2493981704381319</v>
       </c>
       <c r="AK29">
-        <v>-0.1679336558396683</v>
+        <v>0.2577114427860697</v>
       </c>
       <c r="AL29">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="AM29">
-        <v>0</v>
+        <v>3.5</v>
+      </c>
+      <c r="AN29">
+        <v>9.768115942028986</v>
+      </c>
+      <c r="AO29">
+        <v>1.954285714285714</v>
+      </c>
+      <c r="AP29">
+        <v>7.507246376811595</v>
+      </c>
+      <c r="AQ29">
+        <v>1.954285714285714</v>
       </c>
     </row>
     <row r="30">
@@ -4124,7 +4211,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Centrepoint Alliance Limited (ASX:CAF)</t>
+          <t>Carlton Investments Limited (ASX:CIN)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -4133,115 +4220,115 @@
         </is>
       </c>
       <c r="D30">
-        <v>-0.0314</v>
+        <v>0.00599</v>
+      </c>
+      <c r="E30">
+        <v>0.0037</v>
       </c>
       <c r="G30">
-        <v>0.02002427184466019</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>0.02002427184466019</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>0.01847952172410263</v>
+        <v>0.9783393501805054</v>
       </c>
       <c r="J30">
-        <v>0.009239760862051314</v>
+        <v>0.9505054151624549</v>
       </c>
       <c r="K30">
-        <v>-1.11</v>
+        <v>26.3</v>
       </c>
       <c r="L30">
-        <v>-0.01347087378640777</v>
+        <v>0.9494584837545127</v>
       </c>
       <c r="M30">
-        <v>-0</v>
+        <v>22.8</v>
       </c>
       <c r="N30">
-        <v>-0</v>
+        <v>0.04044704630122405</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.8669201520912547</v>
       </c>
       <c r="P30">
-        <v>-0</v>
+        <v>22.8</v>
       </c>
       <c r="Q30">
-        <v>-0</v>
+        <v>0.04044704630122405</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>0.8669201520912547</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
       <c r="U30">
-        <v>5.55</v>
+        <v>16.3</v>
       </c>
       <c r="V30">
-        <v>0.4080882352941176</v>
+        <v>0.02891609011885755</v>
       </c>
       <c r="W30">
-        <v>-0.07928571428571429</v>
+        <v>0.0462133192760499</v>
       </c>
       <c r="X30">
-        <v>0.04894042126573814</v>
+        <v>0.03524920135469566</v>
       </c>
       <c r="Y30">
-        <v>-0.1282261355514524</v>
+        <v>0.01096411792135425</v>
       </c>
       <c r="Z30">
-        <v>11.61473411112107</v>
+        <v>0.05009802573989539</v>
       </c>
       <c r="AA30">
-        <v>0.1073173656630688</v>
+        <v>0.04761844475471862</v>
       </c>
       <c r="AB30">
-        <v>0.04803608861961502</v>
+        <v>0.03524475298394321</v>
       </c>
       <c r="AC30">
-        <v>0.05928127704345382</v>
+        <v>0.01237369177077541</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>0.115</v>
       </c>
       <c r="AE30">
-        <v>0.8014370496697165</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>0.8014370496697165</v>
+        <v>0.115</v>
       </c>
       <c r="AG30">
-        <v>-4.748562950330284</v>
+        <v>-16.185</v>
       </c>
       <c r="AH30">
-        <v>0.0556497970935544</v>
+        <v>0.0002039676134902406</v>
       </c>
       <c r="AI30">
-        <v>0.06359886150371415</v>
+        <v>0.0002552067729658356</v>
       </c>
       <c r="AJ30">
-        <v>-0.5364736735610035</v>
+        <v>-0.0295608339497548</v>
       </c>
       <c r="AK30">
-        <v>-0.6734177610722203</v>
+        <v>-0.0372655791303547</v>
       </c>
       <c r="AL30">
-        <v>0.018</v>
+        <v>0.008</v>
       </c>
       <c r="AM30">
-        <v>0.018</v>
-      </c>
-      <c r="AN30">
-        <v>0</v>
+        <v>0.008</v>
       </c>
       <c r="AO30">
-        <v>62.77777777777778</v>
-      </c>
-      <c r="AP30">
-        <v>-2.155498388710978</v>
+        <v>3387.5</v>
       </c>
       <c r="AQ30">
-        <v>62.77777777777778</v>
+        <v>3387.5</v>
       </c>
     </row>
     <row r="31">
@@ -4252,7 +4339,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Easton Investments Limited (ASX:EAS)</t>
+          <t>Milton Corporation Limited (ASX:MLT)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -4261,118 +4348,115 @@
         </is>
       </c>
       <c r="D31">
-        <v>0.399</v>
+        <v>-0.0162</v>
+      </c>
+      <c r="E31">
+        <v>-0.0179</v>
       </c>
       <c r="G31">
-        <v>0.05942720763723151</v>
+        <v>0.9645714285714286</v>
       </c>
       <c r="H31">
-        <v>0.05942720763723151</v>
+        <v>0.9645714285714286</v>
       </c>
       <c r="I31">
-        <v>0.05039218944076509</v>
+        <v>0.9645714285714286</v>
       </c>
       <c r="J31">
-        <v>0.03474696095013045</v>
+        <v>0.9227428571428572</v>
       </c>
       <c r="K31">
-        <v>1.91</v>
+        <v>80.7</v>
       </c>
       <c r="L31">
-        <v>0.04558472553699284</v>
+        <v>0.9222857142857143</v>
       </c>
       <c r="M31">
-        <v>0.876</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="N31">
-        <v>0.03928251121076233</v>
+        <v>0.03309224615135965</v>
       </c>
       <c r="O31">
-        <v>0.4586387434554974</v>
+        <v>1.014869888475836</v>
       </c>
       <c r="P31">
-        <v>0.732</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="Q31">
-        <v>0.03282511210762332</v>
+        <v>0.03309224615135965</v>
       </c>
       <c r="R31">
-        <v>0.3832460732984293</v>
+        <v>1.014869888475836</v>
       </c>
       <c r="S31">
-        <v>0.144</v>
+        <v>0</v>
       </c>
       <c r="T31">
-        <v>0.1643835616438356</v>
+        <v>0</v>
       </c>
       <c r="U31">
-        <v>0.554</v>
+        <v>78.8</v>
       </c>
       <c r="V31">
-        <v>0.02484304932735426</v>
+        <v>0.03183967028970867</v>
       </c>
       <c r="W31">
-        <v>0.08451327433628318</v>
+        <v>0.04002579109215355</v>
       </c>
       <c r="X31">
-        <v>0.05214003089612421</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y31">
-        <v>0.03237324344015897</v>
+        <v>0.004780294921849788</v>
       </c>
       <c r="Z31">
-        <v>2.914004936864504</v>
+        <v>0.04512868121099593</v>
       </c>
       <c r="AA31">
-        <v>0.1012528157497182</v>
+        <v>0.04164216823972356</v>
       </c>
       <c r="AB31">
-        <v>0.04707447654107608</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC31">
-        <v>0.05417833920864217</v>
+        <v>0.006396672069419795</v>
       </c>
       <c r="AD31">
-        <v>4.32</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>0.5628363121597121</v>
+        <v>0</v>
       </c>
       <c r="AF31">
-        <v>4.882836312159712</v>
+        <v>0</v>
       </c>
       <c r="AG31">
-        <v>4.328836312159712</v>
+        <v>-78.8</v>
       </c>
       <c r="AH31">
-        <v>0.1796293902551836</v>
+        <v>0</v>
       </c>
       <c r="AI31">
-        <v>0.1776685730940847</v>
+        <v>0</v>
       </c>
       <c r="AJ31">
-        <v>0.1625619783536318</v>
+        <v>-0.0328867743416385</v>
       </c>
       <c r="AK31">
-        <v>0.1607509608651387</v>
+        <v>-0.04640207278294665</v>
       </c>
       <c r="AL31">
-        <v>0.318</v>
+        <v>0</v>
       </c>
       <c r="AM31">
-        <v>0.318</v>
+        <v>0</v>
       </c>
       <c r="AN31">
-        <v>1.557317952415285</v>
-      </c>
-      <c r="AO31">
-        <v>6.10062893081761</v>
+        <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.560503356942939</v>
-      </c>
-      <c r="AQ31">
-        <v>6.10062893081761</v>
+        <v>-0.9336492890995259</v>
       </c>
     </row>
     <row r="32">
@@ -4383,7 +4467,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Plato Income Maximiser Limited (ASX:PL8)</t>
+          <t>Australian United Investment Company Limited (ASX:AUI)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -4391,41 +4475,47 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D32">
+        <v>-0.0292</v>
+      </c>
+      <c r="E32">
+        <v>-0.0295</v>
+      </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.9719626168224298</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>0.9719626168224298</v>
       </c>
       <c r="I32">
-        <v>0.9259259259259259</v>
+        <v>0.9688473520249221</v>
       </c>
       <c r="J32">
-        <v>0.9051299283154122</v>
+        <v>0.9503056182189279</v>
       </c>
       <c r="K32">
-        <v>24.3</v>
+        <v>28.4</v>
       </c>
       <c r="L32">
-        <v>0.9</v>
+        <v>0.8847352024922117</v>
       </c>
       <c r="M32">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="N32">
-        <v>0.03489670575097711</v>
+        <v>0.03295454545454545</v>
       </c>
       <c r="O32">
-        <v>0.5144032921810699</v>
+        <v>1.02112676056338</v>
       </c>
       <c r="P32">
-        <v>12.5</v>
+        <v>29</v>
       </c>
       <c r="Q32">
-        <v>0.03489670575097711</v>
+        <v>0.03295454545454545</v>
       </c>
       <c r="R32">
-        <v>0.5144032921810699</v>
+        <v>1.02112676056338</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -4434,61 +4524,73 @@
         <v>0</v>
       </c>
       <c r="U32">
-        <v>0.23</v>
+        <v>12.8</v>
       </c>
       <c r="V32">
-        <v>0.0006420993858179788</v>
+        <v>0.01454545454545455</v>
       </c>
       <c r="W32">
-        <v>0.1000823723228995</v>
+        <v>0.03887748117727584</v>
       </c>
       <c r="X32">
-        <v>0.04776221733662046</v>
+        <v>0.03646110163291924</v>
       </c>
       <c r="Y32">
-        <v>0.05232015498627904</v>
+        <v>0.002416379544356598</v>
       </c>
       <c r="Z32">
-        <v>0.1115085035558823</v>
+        <v>0.04327311943920194</v>
       </c>
       <c r="AA32">
-        <v>0.1009296838300946</v>
+        <v>0.0411226885209323</v>
       </c>
       <c r="AB32">
-        <v>0.04776221733662046</v>
+        <v>0.03501691920009471</v>
       </c>
       <c r="AC32">
-        <v>0.05316746649347413</v>
+        <v>0.00610576932083759</v>
       </c>
       <c r="AD32">
-        <v>0</v>
+        <v>58.9</v>
       </c>
       <c r="AE32">
         <v>0</v>
       </c>
       <c r="AF32">
-        <v>0</v>
+        <v>58.9</v>
       </c>
       <c r="AG32">
-        <v>-0.23</v>
+        <v>46.09999999999999</v>
       </c>
       <c r="AH32">
-        <v>0</v>
+        <v>0.0627329854084567</v>
       </c>
       <c r="AI32">
-        <v>0</v>
+        <v>0.08375995449374289</v>
       </c>
       <c r="AJ32">
-        <v>-0.0006425119423415371</v>
+        <v>0.0497786416153763</v>
       </c>
       <c r="AK32">
-        <v>-0.0009885245197060214</v>
+        <v>0.06677288528389339</v>
       </c>
       <c r="AL32">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AM32">
-        <v>0</v>
+        <v>2.18</v>
+      </c>
+      <c r="AN32">
+        <v>1.887820512820513</v>
+      </c>
+      <c r="AO32">
+        <v>14.26605504587156</v>
+      </c>
+      <c r="AP32">
+        <v>1.477564102564102</v>
+      </c>
+      <c r="AQ32">
+        <v>14.26605504587156</v>
       </c>
     </row>
     <row r="33">
@@ -4499,7 +4601,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Teaminvest Private Group Limited (ASX:TIP)</t>
+          <t>BKI Investment Company Limited (ASX:BKI)</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -4507,107 +4609,113 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D33">
+        <v>0.00953</v>
+      </c>
+      <c r="E33">
+        <v>0.025</v>
+      </c>
       <c r="G33">
-        <v>-0.002537313432835821</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>-0.002537313432835821</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>0.008830743924375769</v>
+        <v>0.9566563467492261</v>
       </c>
       <c r="J33">
-        <v>0.008830743924375769</v>
+        <v>0.8965312970233669</v>
       </c>
       <c r="K33">
-        <v>-1.52</v>
+        <v>33.6</v>
       </c>
       <c r="L33">
-        <v>-0.05671641791044776</v>
+        <v>1.040247678018576</v>
       </c>
       <c r="M33">
-        <v>-0</v>
+        <v>31.6</v>
       </c>
       <c r="N33">
-        <v>-0</v>
+        <v>0.03628847037207166</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.9404761904761905</v>
       </c>
       <c r="P33">
-        <v>-0</v>
+        <v>31.6</v>
       </c>
       <c r="Q33">
-        <v>-0</v>
+        <v>0.03628847037207166</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>0.9404761904761905</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
       <c r="U33">
-        <v>0</v>
+        <v>33.3</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>0.03824069820854387</v>
+      </c>
+      <c r="W33">
+        <v>0.04147636094309345</v>
       </c>
       <c r="X33">
-        <v>0.04863419938608866</v>
+        <v>0.03524549617030377</v>
+      </c>
+      <c r="Y33">
+        <v>0.006230864772789682</v>
       </c>
       <c r="Z33">
-        <v>10.10679901990978</v>
+        <v>0.04319336721048408</v>
       </c>
       <c r="AA33">
-        <v>0.08925055403995526</v>
+        <v>0.03872420552802185</v>
       </c>
       <c r="AB33">
-        <v>0.04771337818071591</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC33">
-        <v>0.04153717585923935</v>
+        <v>0.003478709357718088</v>
       </c>
       <c r="AD33">
         <v>0</v>
       </c>
       <c r="AE33">
-        <v>2.651680314133647</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>2.651680314133647</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>2.651680314133647</v>
+        <v>-33.3</v>
       </c>
       <c r="AH33">
-        <v>0.04179054519921034</v>
+        <v>0</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ33">
-        <v>0.04179054519921034</v>
+        <v>-0.03976119402985074</v>
       </c>
       <c r="AK33">
-        <v>1</v>
+        <v>-0.0482468849608809</v>
       </c>
       <c r="AL33">
-        <v>0.135</v>
+        <v>0</v>
       </c>
       <c r="AM33">
-        <v>0.135</v>
-      </c>
-      <c r="AN33">
-        <v>0</v>
-      </c>
-      <c r="AO33">
-        <v>-2.466666666666667</v>
-      </c>
-      <c r="AP33">
-        <v>2.569457668734154</v>
+        <v>-4.96</v>
       </c>
       <c r="AQ33">
-        <v>-2.466666666666667</v>
+        <v>-6.229838709677419</v>
       </c>
     </row>
     <row r="34">
@@ -4618,7 +4726,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Perpetual Equity Investment Company Limited (ASX:PIC)</t>
+          <t>Argo Investments Limited (ASX:ARG)</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -4626,41 +4734,47 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D34">
+        <v>-0.0216</v>
+      </c>
+      <c r="E34">
+        <v>-0.0265</v>
+      </c>
       <c r="G34">
-        <v>0</v>
+        <v>0.9585838343353374</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>0.9585838343353374</v>
       </c>
       <c r="I34">
-        <v>0.7371794871794872</v>
+        <v>0.9579158316633267</v>
       </c>
       <c r="J34">
-        <v>0.6894568151147099</v>
+        <v>0.8846747821598933</v>
       </c>
       <c r="K34">
-        <v>10.7</v>
+        <v>137.7</v>
       </c>
       <c r="L34">
-        <v>0.6858974358974359</v>
+        <v>0.9198396793587175</v>
       </c>
       <c r="M34">
-        <v>14.9</v>
+        <v>132.2</v>
       </c>
       <c r="N34">
-        <v>0.05744024672320741</v>
+        <v>0.02832654810370688</v>
       </c>
       <c r="O34">
-        <v>1.392523364485981</v>
+        <v>0.9600580973129993</v>
       </c>
       <c r="P34">
-        <v>14.9</v>
+        <v>132.2</v>
       </c>
       <c r="Q34">
-        <v>0.05744024672320741</v>
+        <v>0.02832654810370688</v>
       </c>
       <c r="R34">
-        <v>1.392523364485981</v>
+        <v>0.9600580973129993</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -4669,61 +4783,67 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>44.6</v>
+        <v>116.5</v>
       </c>
       <c r="V34">
-        <v>0.1719352351580571</v>
+        <v>0.02496250267838012</v>
       </c>
       <c r="W34">
-        <v>0.04988344988344988</v>
+        <v>0.03725548551175563</v>
       </c>
       <c r="X34">
-        <v>0.04776221733662046</v>
+        <v>0.0352490919592309</v>
       </c>
       <c r="Y34">
-        <v>0.002121232546829416</v>
+        <v>0.00200639355252473</v>
       </c>
       <c r="Z34">
-        <v>0.09547123623011015</v>
+        <v>0.04225829216654904</v>
       </c>
       <c r="AA34">
-        <v>0.06582329446627584</v>
+        <v>0.0373848454168909</v>
       </c>
       <c r="AB34">
-        <v>0.04776221733662046</v>
+        <v>0.0352447749221561</v>
       </c>
       <c r="AC34">
-        <v>0.01806107712965538</v>
+        <v>0.002140070494734796</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>0.924</v>
       </c>
       <c r="AE34">
         <v>0</v>
       </c>
       <c r="AF34">
-        <v>0</v>
+        <v>0.924</v>
       </c>
       <c r="AG34">
-        <v>-44.6</v>
+        <v>-115.576</v>
       </c>
       <c r="AH34">
-        <v>0</v>
+        <v>0.0001979466675121532</v>
       </c>
       <c r="AI34">
-        <v>0</v>
+        <v>0.0002833292040043861</v>
       </c>
       <c r="AJ34">
-        <v>-0.207635009310987</v>
+        <v>-0.02539337139321671</v>
       </c>
       <c r="AK34">
-        <v>-0.1977827050997782</v>
+        <v>-0.0367523509217343</v>
       </c>
       <c r="AL34">
         <v>0</v>
       </c>
       <c r="AM34">
         <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0.006439024390243903</v>
+      </c>
+      <c r="AP34">
+        <v>-0.8054076655052265</v>
       </c>
     </row>
     <row r="35">
@@ -4734,7 +4854,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Australian Foundation Investment Company Limited (ASX:AFI)</t>
+          <t>Djerriwarrh Investments Limited (ASX:DJW)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -4743,10 +4863,10 @@
         </is>
       </c>
       <c r="D35">
-        <v>0.0915</v>
+        <v>-0.08500000000000001</v>
       </c>
       <c r="E35">
-        <v>0.09810000000000001</v>
+        <v>-0.06849999999999999</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -4755,34 +4875,34 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>0.9680645388422127</v>
+        <v>0.890625</v>
       </c>
       <c r="J35">
-        <v>0.9333504518607261</v>
+        <v>0.8210336538461538</v>
       </c>
       <c r="K35">
-        <v>284.6</v>
+        <v>22.7</v>
       </c>
       <c r="L35">
-        <v>0.9195476575121164</v>
+        <v>0.8867187499999999</v>
       </c>
       <c r="M35">
-        <v>207.5</v>
+        <v>25.3</v>
       </c>
       <c r="N35">
-        <v>0.03443640467339352</v>
+        <v>0.04706976744186046</v>
       </c>
       <c r="O35">
-        <v>0.7290934645115952</v>
+        <v>1.114537444933921</v>
       </c>
       <c r="P35">
-        <v>207.5</v>
+        <v>25.3</v>
       </c>
       <c r="Q35">
-        <v>0.03443640467339352</v>
+        <v>0.04706976744186046</v>
       </c>
       <c r="R35">
-        <v>0.7290934645115952</v>
+        <v>1.114537444933921</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4791,73 +4911,67 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>144.7</v>
+        <v>1.01</v>
       </c>
       <c r="V35">
-        <v>0.02401420605416888</v>
+        <v>0.00187906976744186</v>
       </c>
       <c r="W35">
-        <v>0.06070430646502997</v>
+        <v>0.04437060203283815</v>
       </c>
       <c r="X35">
-        <v>0.0477667469636593</v>
+        <v>0.03707688616974809</v>
       </c>
       <c r="Y35">
-        <v>0.01293755950137067</v>
+        <v>0.007293715863090064</v>
       </c>
       <c r="Z35">
-        <v>0.06704446782242346</v>
+        <v>0.0449833069759269</v>
       </c>
       <c r="AA35">
-        <v>0.06257598433682084</v>
+        <v>0.03693280888852844</v>
       </c>
       <c r="AB35">
-        <v>0.04776039881925404</v>
+        <v>0.03491173621132262</v>
       </c>
       <c r="AC35">
-        <v>0.01481558551756679</v>
+        <v>0.002021072677205818</v>
       </c>
       <c r="AD35">
-        <v>0</v>
+        <v>54.2</v>
       </c>
       <c r="AE35">
-        <v>1.365126141675671</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>1.365126141675671</v>
+        <v>54.2</v>
       </c>
       <c r="AG35">
-        <v>-143.3348738583243</v>
+        <v>53.19</v>
       </c>
       <c r="AH35">
-        <v>0.0002265030762754046</v>
+        <v>0.09160047321277674</v>
       </c>
       <c r="AI35">
-        <v>0.0002938051798803137</v>
+        <v>0.1097388135250051</v>
       </c>
       <c r="AJ35">
-        <v>-0.0243672923244011</v>
+        <v>0.09004723289712031</v>
       </c>
       <c r="AK35">
-        <v>-0.03184041234563686</v>
+        <v>0.1079145448274463</v>
       </c>
       <c r="AL35">
-        <v>0.579</v>
+        <v>1.97</v>
       </c>
       <c r="AM35">
-        <v>0.579</v>
-      </c>
-      <c r="AN35">
-        <v>0</v>
+        <v>1.97</v>
       </c>
       <c r="AO35">
-        <v>517.098445595855</v>
-      </c>
-      <c r="AP35">
-        <v>-293.118351448516</v>
+        <v>11.57360406091371</v>
       </c>
       <c r="AQ35">
-        <v>517.098445595855</v>
+        <v>11.57360406091371</v>
       </c>
     </row>
     <row r="36">
@@ -4868,7 +4982,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Argo Investments Limited (ASX:ARG)</t>
+          <t>Diversified United Investment Limited (ASX:DUI)</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -4877,46 +4991,46 @@
         </is>
       </c>
       <c r="D36">
-        <v>0.08199999999999999</v>
+        <v>-0.0147</v>
       </c>
       <c r="E36">
-        <v>0.08359999999999999</v>
+        <v>-0.0228</v>
       </c>
       <c r="G36">
-        <v>0.973071656777727</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>0.973071656777727</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>0.9725809576848342</v>
+        <v>0.9686274509803922</v>
       </c>
       <c r="J36">
-        <v>0.9282945968674644</v>
+        <v>0.8901943432240152</v>
       </c>
       <c r="K36">
-        <v>205.2</v>
+        <v>20.8</v>
       </c>
       <c r="L36">
-        <v>0.9365586490187129</v>
+        <v>0.8156862745098039</v>
       </c>
       <c r="M36">
-        <v>129.1</v>
+        <v>19.6</v>
       </c>
       <c r="N36">
-        <v>0.02939234569587687</v>
+        <v>0.02486047691527144</v>
       </c>
       <c r="O36">
-        <v>0.6291423001949318</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="P36">
-        <v>129.1</v>
+        <v>19.6</v>
       </c>
       <c r="Q36">
-        <v>0.02939234569587687</v>
+        <v>0.02486047691527144</v>
       </c>
       <c r="R36">
-        <v>0.6291423001949318</v>
+        <v>0.9423076923076923</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -4925,67 +5039,67 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>153.6</v>
+        <v>22.8</v>
       </c>
       <c r="V36">
-        <v>0.03497028891469162</v>
+        <v>0.0289193302891933</v>
       </c>
       <c r="W36">
-        <v>0.05464277154954331</v>
+        <v>0.03466088985169138</v>
       </c>
       <c r="X36">
-        <v>0.04776732718317128</v>
+        <v>0.03639961660497214</v>
       </c>
       <c r="Y36">
-        <v>0.006875444366372031</v>
+        <v>-0.001738726753280753</v>
       </c>
       <c r="Z36">
-        <v>0.05960084202115556</v>
+        <v>0.04144993498049414</v>
       </c>
       <c r="AA36">
-        <v>0.05532713961699003</v>
+        <v>0.03689849764663912</v>
       </c>
       <c r="AB36">
-        <v>0.04776016593702076</v>
+        <v>0.0350277897809899</v>
       </c>
       <c r="AC36">
-        <v>0.007566973679969266</v>
+        <v>0.001870707865649218</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>50.1</v>
       </c>
       <c r="AE36">
-        <v>1.122560856264108</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>1.122560856264108</v>
+        <v>50.1</v>
       </c>
       <c r="AG36">
-        <v>-152.4774391437359</v>
+        <v>27.3</v>
       </c>
       <c r="AH36">
-        <v>0.0002555094213485635</v>
+        <v>0.05974955277280859</v>
       </c>
       <c r="AI36">
-        <v>0.000303622743231375</v>
+        <v>0.08275520317145689</v>
       </c>
       <c r="AJ36">
-        <v>-0.03596316519268248</v>
+        <v>0.03346818683339464</v>
       </c>
       <c r="AK36">
-        <v>-0.04302869070426393</v>
+        <v>0.04685890834191556</v>
       </c>
       <c r="AL36">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AM36">
-        <v>0</v>
-      </c>
-      <c r="AN36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>-0.7144577945699541</v>
+        <v>1.93</v>
+      </c>
+      <c r="AO36">
+        <v>12.7979274611399</v>
+      </c>
+      <c r="AQ36">
+        <v>12.7979274611399</v>
       </c>
     </row>
     <row r="37">
@@ -4996,7 +5110,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Carlton Investments Limited (ASX:CIN)</t>
+          <t>Australian Foundation Investment Company Limited (ASX:AFI)</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -5005,10 +5119,10 @@
         </is>
       </c>
       <c r="D37">
-        <v>0.0518</v>
+        <v>-0.0409</v>
       </c>
       <c r="E37">
-        <v>0.0525</v>
+        <v>-0.0395</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -5017,34 +5131,34 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>0.9819277108433735</v>
+        <v>0.944109589041096</v>
       </c>
       <c r="J37">
-        <v>0.9630142724745134</v>
+        <v>0.8789803240651819</v>
       </c>
       <c r="K37">
-        <v>31.9</v>
+        <v>165.7</v>
       </c>
       <c r="L37">
-        <v>0.9608433734939757</v>
+        <v>0.907945205479452</v>
       </c>
       <c r="M37">
-        <v>23.2</v>
+        <v>154.3</v>
       </c>
       <c r="N37">
-        <v>0.03890659064229415</v>
+        <v>0.02251765804681572</v>
       </c>
       <c r="O37">
-        <v>0.7272727272727273</v>
+        <v>0.9312009656004829</v>
       </c>
       <c r="P37">
-        <v>23.2</v>
+        <v>154.3</v>
       </c>
       <c r="Q37">
-        <v>0.03890659064229415</v>
+        <v>0.02251765804681572</v>
       </c>
       <c r="R37">
-        <v>0.7272727272727273</v>
+        <v>0.9312009656004829</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -5053,67 +5167,67 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>16.3</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="V37">
-        <v>0.02733523394264632</v>
+        <v>0.0112223454556068</v>
       </c>
       <c r="W37">
-        <v>0.05288461538461538</v>
+        <v>0.0356789113302614</v>
       </c>
       <c r="X37">
-        <v>0.04776610674136259</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y37">
-        <v>0.005118508643252785</v>
+        <v>0.0004334151599576369</v>
       </c>
       <c r="Z37">
-        <v>0.05618329291633596</v>
+        <v>0.04056006222913657</v>
       </c>
       <c r="AA37">
-        <v>0.05410531295304776</v>
+        <v>0.03565149664227041</v>
       </c>
       <c r="AB37">
-        <v>0.0477606558004388</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC37">
-        <v>0.006344657152608957</v>
+        <v>0.000406000471966643</v>
       </c>
       <c r="AD37">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="AE37">
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>0.116</v>
+        <v>0</v>
       </c>
       <c r="AG37">
-        <v>-16.184</v>
+        <v>-76.90000000000001</v>
       </c>
       <c r="AH37">
-        <v>0.0001944951175018779</v>
+        <v>0</v>
       </c>
       <c r="AI37">
-        <v>0.0002037890712840117</v>
+        <v>0</v>
       </c>
       <c r="AJ37">
-        <v>-0.02789786870212165</v>
+        <v>-0.01134971588812634</v>
       </c>
       <c r="AK37">
-        <v>-0.02927026890160531</v>
+        <v>-0.01817236571590614</v>
       </c>
       <c r="AL37">
-        <v>0.008</v>
+        <v>0.723</v>
       </c>
       <c r="AM37">
-        <v>0.008</v>
+        <v>0.723</v>
       </c>
       <c r="AO37">
-        <v>4075</v>
+        <v>238.3125864453665</v>
       </c>
       <c r="AQ37">
-        <v>4075</v>
+        <v>238.3125864453665</v>
       </c>
     </row>
     <row r="38">
@@ -5124,7 +5238,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Milton Corporation Limited (ASX:MLT)</t>
+          <t>Amcil Limited (ASX:AMH)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -5133,46 +5247,46 @@
         </is>
       </c>
       <c r="D38">
-        <v>0.0392</v>
+        <v>-0.009689999999999999</v>
       </c>
       <c r="E38">
-        <v>0.0418</v>
+        <v>-0.031</v>
       </c>
       <c r="G38">
-        <v>0.9736603088101726</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>0.9736603088101726</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>0.9736603088101726</v>
+        <v>0.78839590443686</v>
       </c>
       <c r="J38">
-        <v>0.9414776991632258</v>
+        <v>0.7137148857967971</v>
       </c>
       <c r="K38">
-        <v>103.5</v>
+        <v>4.12</v>
       </c>
       <c r="L38">
-        <v>0.9400544959128065</v>
+        <v>0.7030716723549488</v>
       </c>
       <c r="M38">
-        <v>82.59999999999999</v>
+        <v>6.64</v>
       </c>
       <c r="N38">
-        <v>0.03557737864495843</v>
+        <v>0.02654938024790084</v>
       </c>
       <c r="O38">
-        <v>0.7980676328502415</v>
+        <v>1.611650485436893</v>
       </c>
       <c r="P38">
-        <v>82.59999999999999</v>
+        <v>6.64</v>
       </c>
       <c r="Q38">
-        <v>0.03557737864495843</v>
+        <v>0.02654938024790084</v>
       </c>
       <c r="R38">
-        <v>0.7980676328502415</v>
+        <v>1.611650485436893</v>
       </c>
       <c r="S38">
         <v>0</v>
@@ -5181,31 +5295,31 @@
         <v>0</v>
       </c>
       <c r="U38">
-        <v>77.3</v>
+        <v>6.34</v>
       </c>
       <c r="V38">
-        <v>0.0332945686350519</v>
+        <v>0.02534986005597761</v>
       </c>
       <c r="W38">
-        <v>0.05115658362989324</v>
+        <v>0.02373271889400922</v>
       </c>
       <c r="X38">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y38">
-        <v>0.003394366293272777</v>
+        <v>-0.01151277727629455</v>
       </c>
       <c r="Z38">
-        <v>0.05717401464402554</v>
+        <v>0.0357775199951157</v>
       </c>
       <c r="AA38">
-        <v>0.05382805975898175</v>
+        <v>0.02553494859740663</v>
       </c>
       <c r="AB38">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC38">
-        <v>0.006065842422361287</v>
+        <v>-0.009710547572897139</v>
       </c>
       <c r="AD38">
         <v>0</v>
@@ -5217,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="AG38">
-        <v>-77.3</v>
+        <v>-6.34</v>
       </c>
       <c r="AH38">
         <v>0</v>
@@ -5226,22 +5340,22 @@
         <v>0</v>
       </c>
       <c r="AJ38">
-        <v>-0.03444127606487258</v>
+        <v>-0.02600918936659009</v>
       </c>
       <c r="AK38">
-        <v>-0.03986796637268554</v>
+        <v>-0.03736885535777437</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>0.068</v>
       </c>
       <c r="AM38">
-        <v>0</v>
-      </c>
-      <c r="AN38">
-        <v>0</v>
-      </c>
-      <c r="AP38">
-        <v>-0.7210820895522387</v>
+        <v>0.068</v>
+      </c>
+      <c r="AO38">
+        <v>67.94117647058823</v>
+      </c>
+      <c r="AQ38">
+        <v>67.94117647058823</v>
       </c>
     </row>
     <row r="39">
@@ -5252,7 +5366,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Australian United Investment Company Limited (ASX:AUI)</t>
+          <t>Mirrabooka Investments Limited (ASX:MIR)</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -5261,10 +5375,10 @@
         </is>
       </c>
       <c r="D39">
-        <v>0.0612</v>
+        <v>-0.00687</v>
       </c>
       <c r="E39">
-        <v>0.06709999999999999</v>
+        <v>-0.0212</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -5273,34 +5387,34 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0.9817351598173517</v>
+        <v>0.7435508345978756</v>
       </c>
       <c r="J39">
-        <v>0.9670709545334301</v>
+        <v>0.6815625009858698</v>
       </c>
       <c r="K39">
-        <v>39.1</v>
+        <v>4.41</v>
       </c>
       <c r="L39">
-        <v>0.8926940639269407</v>
+        <v>0.669195751138088</v>
       </c>
       <c r="M39">
-        <v>29.4</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="N39">
-        <v>0.03378533670420593</v>
+        <v>0.02238329238329238</v>
       </c>
       <c r="O39">
-        <v>0.7519181585677749</v>
+        <v>2.065759637188208</v>
       </c>
       <c r="P39">
-        <v>29.4</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="Q39">
-        <v>0.03378533670420593</v>
+        <v>0.02238329238329238</v>
       </c>
       <c r="R39">
-        <v>0.7519181585677749</v>
+        <v>2.065759637188208</v>
       </c>
       <c r="S39">
         <v>0</v>
@@ -5309,67 +5423,67 @@
         <v>0</v>
       </c>
       <c r="U39">
-        <v>58.8</v>
+        <v>14</v>
       </c>
       <c r="V39">
-        <v>0.06757067340841186</v>
+        <v>0.0343980343980344</v>
       </c>
       <c r="W39">
-        <v>0.0538864388092613</v>
+        <v>0.01823067383216205</v>
       </c>
       <c r="X39">
-        <v>0.04937282180077579</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y39">
-        <v>0.004513617008485508</v>
+        <v>-0.01701482233814171</v>
       </c>
       <c r="Z39">
-        <v>0.05441669772642563</v>
+        <v>0.02988662131519274</v>
       </c>
       <c r="AA39">
-        <v>0.05262480781285157</v>
+        <v>0.02036960036960037</v>
       </c>
       <c r="AB39">
-        <v>0.04716367492399776</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC39">
-        <v>0.005461132888853804</v>
+        <v>-0.01487589580070339</v>
       </c>
       <c r="AD39">
-        <v>70.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE39">
         <v>0</v>
       </c>
       <c r="AF39">
-        <v>70.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG39">
-        <v>11.3</v>
+        <v>-14</v>
       </c>
       <c r="AH39">
-        <v>0.07455067531638837</v>
+        <v>0</v>
       </c>
       <c r="AI39">
-        <v>0.0875593305021234</v>
+        <v>0</v>
       </c>
       <c r="AJ39">
-        <v>0.01281905842314237</v>
+        <v>-0.0356234096692112</v>
       </c>
       <c r="AK39">
-        <v>0.01523321650040442</v>
+        <v>-0.06167400881057269</v>
       </c>
       <c r="AL39">
-        <v>3.25</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AM39">
-        <v>3.25</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="AO39">
-        <v>13.23076923076923</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="AQ39">
-        <v>13.23076923076923</v>
+        <v>58.33333333333334</v>
       </c>
     </row>
     <row r="40">
@@ -5380,7 +5494,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>BKI Investment Company Limited (ASX:BKI)</t>
+          <t>Keybridge Capital Limited (ASX:KBC)</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -5388,113 +5502,101 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D40">
-        <v>0.0707</v>
-      </c>
-      <c r="E40">
-        <v>0.148</v>
-      </c>
       <c r="G40">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I40">
-        <v>0.9631578947368421</v>
+        <v>-0</v>
       </c>
       <c r="J40">
-        <v>0.8971764375351189</v>
+        <v>-0</v>
       </c>
       <c r="K40">
-        <v>52.4</v>
+        <v>-2.66</v>
       </c>
       <c r="L40">
-        <v>1.378947368421053</v>
+        <v>5.833333333333333</v>
       </c>
       <c r="M40">
-        <v>31.5</v>
+        <v>-0</v>
       </c>
       <c r="N40">
-        <v>0.03628196268140981</v>
+        <v>-0</v>
       </c>
       <c r="O40">
-        <v>0.601145038167939</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>31.5</v>
+        <v>-0</v>
       </c>
       <c r="Q40">
-        <v>0.03628196268140981</v>
+        <v>-0</v>
       </c>
       <c r="R40">
-        <v>0.601145038167939</v>
+        <v>0</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
-      <c r="T40">
-        <v>0</v>
-      </c>
       <c r="U40">
-        <v>62.3</v>
+        <v>0.316</v>
       </c>
       <c r="V40">
-        <v>0.07175765952545496</v>
+        <v>0.02872727272727273</v>
       </c>
       <c r="W40">
-        <v>0.06349975763451284</v>
+        <v>-0.3388535031847134</v>
       </c>
       <c r="X40">
-        <v>0.04776221733662046</v>
+        <v>0.04163516427260858</v>
       </c>
       <c r="Y40">
-        <v>0.01573754029789237</v>
+        <v>-0.380488667457322</v>
       </c>
       <c r="Z40">
-        <v>0.05476293414036604</v>
+        <v>-0.03494252873563218</v>
       </c>
       <c r="AA40">
-        <v>0.04913201416102395</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>0.04776221733662046</v>
+        <v>0.03429721634153964</v>
       </c>
       <c r="AC40">
-        <v>0.001369796824403489</v>
+        <v>-0.03429721634153964</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>3.87</v>
       </c>
       <c r="AE40">
         <v>0</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>3.87</v>
       </c>
       <c r="AG40">
-        <v>-62.3</v>
+        <v>3.554</v>
       </c>
       <c r="AH40">
-        <v>0</v>
+        <v>0.2602555480833894</v>
       </c>
       <c r="AI40">
-        <v>0</v>
+        <v>0.3790401567091087</v>
       </c>
       <c r="AJ40">
-        <v>-0.07730487653555031</v>
+        <v>0.2441940360038478</v>
       </c>
       <c r="AK40">
-        <v>-0.0833110457341535</v>
+        <v>0.3592076005659996</v>
       </c>
       <c r="AL40">
         <v>0</v>
       </c>
       <c r="AM40">
-        <v>-19.6</v>
-      </c>
-      <c r="AQ40">
-        <v>-1.86734693877551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -5505,7 +5607,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Djerriwarrh Investments Limited (ASX:DJW)</t>
+          <t>Moelis Australia Limited (ASX:MOE)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -5513,12 +5615,6 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D41">
-        <v>-0.034</v>
-      </c>
-      <c r="E41">
-        <v>-0.0436</v>
-      </c>
       <c r="G41">
         <v>0</v>
       </c>
@@ -5526,103 +5622,97 @@
         <v>0</v>
       </c>
       <c r="I41">
-        <v>0.9158878504672896</v>
+        <v>0</v>
       </c>
       <c r="J41">
-        <v>0.8634487813817114</v>
+        <v>0</v>
       </c>
       <c r="K41">
-        <v>24.1</v>
+        <v>17.2</v>
       </c>
       <c r="L41">
-        <v>0.7507788161993769</v>
+        <v>0.1542600896860986</v>
       </c>
       <c r="M41">
-        <v>27.2</v>
+        <v>39.3</v>
       </c>
       <c r="N41">
-        <v>0.04732904123890725</v>
+        <v>0.07178082191780821</v>
       </c>
       <c r="O41">
-        <v>1.128630705394191</v>
+        <v>2.284883720930233</v>
       </c>
       <c r="P41">
-        <v>27.2</v>
+        <v>10.2</v>
       </c>
       <c r="Q41">
-        <v>0.04732904123890725</v>
+        <v>0.01863013698630137</v>
       </c>
       <c r="R41">
-        <v>1.128630705394191</v>
+        <v>0.5930232558139534</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>29.1</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>0.7404580152671756</v>
       </c>
       <c r="U41">
-        <v>20.5</v>
+        <v>114</v>
       </c>
       <c r="V41">
-        <v>0.03567078475726466</v>
+        <v>0.2082191780821918</v>
       </c>
       <c r="W41">
-        <v>0.04477057402935167</v>
+        <v>0.1015948021264028</v>
       </c>
       <c r="X41">
-        <v>0.05047580193132983</v>
+        <v>0.04169419593076941</v>
       </c>
       <c r="Y41">
-        <v>-0.005705227901978166</v>
+        <v>0.05990060619563342</v>
       </c>
       <c r="Z41">
-        <v>0.05195015374656094</v>
+        <v>0.5962248008127907</v>
       </c>
       <c r="AA41">
-        <v>0.0448562969450606</v>
+        <v>0</v>
       </c>
       <c r="AB41">
-        <v>0.0468027629384637</v>
+        <v>0.03550132938683954</v>
       </c>
       <c r="AC41">
-        <v>-0.001946465993403104</v>
+        <v>-0.03550132938683954</v>
       </c>
       <c r="AD41">
-        <v>78</v>
+        <v>194.4</v>
       </c>
       <c r="AE41">
         <v>0</v>
       </c>
       <c r="AF41">
-        <v>78</v>
+        <v>194.4</v>
       </c>
       <c r="AG41">
-        <v>57.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="AH41">
-        <v>0.1195036004289873</v>
+        <v>0.2620299231702386</v>
       </c>
       <c r="AI41">
-        <v>0.1322930800542741</v>
+        <v>0.5690866510538641</v>
       </c>
       <c r="AJ41">
-        <v>0.0909522303068649</v>
+        <v>0.128045867176302</v>
       </c>
       <c r="AK41">
-        <v>0.1010367246529608</v>
+        <v>0.3532513181019333</v>
       </c>
       <c r="AL41">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AM41">
-        <v>1.97</v>
-      </c>
-      <c r="AO41">
-        <v>14.9238578680203</v>
-      </c>
-      <c r="AQ41">
-        <v>14.9238578680203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -5633,7 +5723,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Diversified United Investment Limited (ASX:DUI)</t>
+          <t>Thorney Technologies Ltd (ASX:TEK)</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -5641,11 +5731,8 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D42">
-        <v>0.0776</v>
-      </c>
       <c r="E42">
-        <v>0.0755</v>
+        <v>-0.156</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -5654,103 +5741,100 @@
         <v>0</v>
       </c>
       <c r="I42">
-        <v>0.974921630094044</v>
+        <v>-0.5514450867052023</v>
       </c>
       <c r="J42">
-        <v>0.9202983614575692</v>
+        <v>-0.5514450867052023</v>
       </c>
       <c r="K42">
-        <v>26.7</v>
+        <v>0.138</v>
       </c>
       <c r="L42">
-        <v>0.8369905956112853</v>
+        <v>0.1595375722543353</v>
       </c>
       <c r="M42">
-        <v>19.6</v>
+        <v>-0</v>
       </c>
       <c r="N42">
-        <v>0.02648648648648649</v>
+        <v>-0</v>
       </c>
       <c r="O42">
-        <v>0.7340823970037454</v>
+        <v>-0</v>
       </c>
       <c r="P42">
-        <v>19.6</v>
+        <v>-0</v>
       </c>
       <c r="Q42">
-        <v>0.02648648648648649</v>
+        <v>-0</v>
       </c>
       <c r="R42">
-        <v>0.7340823970037454</v>
+        <v>-0</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
-      <c r="T42">
-        <v>0</v>
-      </c>
       <c r="U42">
-        <v>51.5</v>
+        <v>3.37</v>
       </c>
       <c r="V42">
-        <v>0.06959459459459459</v>
+        <v>0.03055303717135086</v>
       </c>
       <c r="W42">
-        <v>0.04522357723577236</v>
+        <v>0.002269736842105264</v>
       </c>
       <c r="X42">
-        <v>0.04956163702882754</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y42">
-        <v>-0.004338059793055182</v>
+        <v>-0.0329757593281985</v>
       </c>
       <c r="Z42">
-        <v>0.048506781825923</v>
+        <v>0.0153613922926656</v>
       </c>
       <c r="AA42">
-        <v>0.04464071183397673</v>
+        <v>-0.00847096430474161</v>
       </c>
       <c r="AB42">
-        <v>0.04709930002644729</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC42">
-        <v>-0.002458588192470558</v>
+        <v>-0.04371646047504538</v>
       </c>
       <c r="AD42">
-        <v>66.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="AE42">
         <v>0</v>
       </c>
       <c r="AF42">
-        <v>66.59999999999999</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>15.09999999999999</v>
+        <v>-3.37</v>
       </c>
       <c r="AH42">
-        <v>0.08256880733944953</v>
+        <v>0</v>
       </c>
       <c r="AI42">
-        <v>0.0998950052497375</v>
+        <v>0</v>
       </c>
       <c r="AJ42">
-        <v>0.01999735134419281</v>
+        <v>-0.0315159450107547</v>
       </c>
       <c r="AK42">
-        <v>0.0245448634590377</v>
+        <v>-0.05950909411972453</v>
       </c>
       <c r="AL42">
-        <v>2.76</v>
+        <v>0.001</v>
       </c>
       <c r="AM42">
-        <v>2.76</v>
+        <v>0.001</v>
       </c>
       <c r="AO42">
-        <v>11.26811594202899</v>
+        <v>-476.9999999999999</v>
       </c>
       <c r="AQ42">
-        <v>11.26811594202899</v>
+        <v>-476.9999999999999</v>
       </c>
     </row>
     <row r="43">
@@ -5761,7 +5845,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>BlackWall Limited (ASX:BWF)</t>
+          <t>Perpetual Equity Investment Company Limited (ASX:PIC)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -5770,46 +5854,43 @@
         </is>
       </c>
       <c r="D43">
-        <v>0.134</v>
-      </c>
-      <c r="E43">
-        <v>-0.0481</v>
+        <v>-0.159</v>
       </c>
       <c r="G43">
-        <v>0.3216783216783216</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>0.3216783216783216</v>
+        <v>0</v>
       </c>
       <c r="I43">
-        <v>0.143773554594077</v>
+        <v>-0.7368421052631579</v>
       </c>
       <c r="J43">
-        <v>0.1051144432476696</v>
+        <v>-0.7368421052631579</v>
       </c>
       <c r="K43">
-        <v>2.24</v>
+        <v>-0.3</v>
       </c>
       <c r="L43">
-        <v>0.1566433566433567</v>
+        <v>-0.112781954887218</v>
       </c>
       <c r="M43">
-        <v>1.77</v>
+        <v>14.5</v>
       </c>
       <c r="N43">
-        <v>0.04338235294117648</v>
+        <v>0.04607562758182396</v>
       </c>
       <c r="O43">
-        <v>0.7901785714285714</v>
+        <v>-48.33333333333334</v>
       </c>
       <c r="P43">
-        <v>1.77</v>
+        <v>14.5</v>
       </c>
       <c r="Q43">
-        <v>0.04338235294117648</v>
+        <v>0.04607562758182396</v>
       </c>
       <c r="R43">
-        <v>0.7901785714285714</v>
+        <v>-48.33333333333334</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -5818,73 +5899,61 @@
         <v>0</v>
       </c>
       <c r="U43">
-        <v>8.06</v>
+        <v>14</v>
       </c>
       <c r="V43">
-        <v>0.1975490196078432</v>
+        <v>0.04448681283762314</v>
       </c>
       <c r="W43">
-        <v>0.1018181818181818</v>
+        <v>-0.001110699740836727</v>
       </c>
       <c r="X43">
-        <v>0.06190823903268108</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y43">
-        <v>0.03990994278550074</v>
+        <v>-0.03635619591114049</v>
       </c>
       <c r="Z43">
-        <v>0.2804625978129374</v>
+        <v>0.0117960088691796</v>
       </c>
       <c r="AA43">
-        <v>0.02948066982090199</v>
+        <v>-0.008691796008869178</v>
       </c>
       <c r="AB43">
-        <v>0.04617577746870916</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC43">
-        <v>-0.01669510764780717</v>
+        <v>-0.04393729217917294</v>
       </c>
       <c r="AD43">
-        <v>0.747</v>
+        <v>0</v>
       </c>
       <c r="AE43">
-        <v>28.1201908465235</v>
+        <v>0</v>
       </c>
       <c r="AF43">
-        <v>28.8671908465235</v>
+        <v>0</v>
       </c>
       <c r="AG43">
-        <v>20.8071908465235</v>
+        <v>-14</v>
       </c>
       <c r="AH43">
-        <v>0.4143584734185391</v>
+        <v>0</v>
       </c>
       <c r="AI43">
-        <v>0.5663877166283444</v>
+        <v>0</v>
       </c>
       <c r="AJ43">
-        <v>0.3377396463078247</v>
+        <v>-0.04655803126039242</v>
       </c>
       <c r="AK43">
-        <v>0.4849348194560114</v>
+        <v>-0.05902192242833053</v>
       </c>
       <c r="AL43">
-        <v>0.08599999999999999</v>
+        <v>0</v>
       </c>
       <c r="AM43">
-        <v>0.08599999999999999</v>
-      </c>
-      <c r="AN43">
-        <v>0.09076549210206561</v>
-      </c>
-      <c r="AO43">
-        <v>47.09302325581395</v>
-      </c>
-      <c r="AP43">
-        <v>2.52821273955328</v>
-      </c>
-      <c r="AQ43">
-        <v>47.09302325581395</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -5895,7 +5964,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Amcil Limited (ASX:AMH)</t>
+          <t>Pinnacle Investment Management Group Limited (ASX:PNI)</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -5904,46 +5973,46 @@
         </is>
       </c>
       <c r="D44">
-        <v>0.0291</v>
-      </c>
-      <c r="E44">
-        <v>0.0224</v>
+        <v>0.24</v>
+      </c>
+      <c r="F44">
+        <v>0.189</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>-0.1290322580645161</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>-0.1290322580645161</v>
       </c>
       <c r="I44">
-        <v>0.7955974842767295</v>
+        <v>-0.1632258064516129</v>
       </c>
       <c r="J44">
-        <v>0.7795904432584129</v>
+        <v>-0.1632258064516129</v>
       </c>
       <c r="K44">
-        <v>4.92</v>
+        <v>22.2</v>
       </c>
       <c r="L44">
-        <v>0.7735849056603773</v>
+        <v>1.432258064516129</v>
       </c>
       <c r="M44">
-        <v>11.6</v>
+        <v>19.2</v>
       </c>
       <c r="N44">
-        <v>0.06144067796610169</v>
+        <v>0.02005640864932623</v>
       </c>
       <c r="O44">
-        <v>2.357723577235773</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="P44">
-        <v>11.6</v>
+        <v>19.2</v>
       </c>
       <c r="Q44">
-        <v>0.06144067796610169</v>
+        <v>0.02005640864932623</v>
       </c>
       <c r="R44">
-        <v>2.357723577235773</v>
+        <v>0.8648648648648649</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -5952,67 +6021,73 @@
         <v>0</v>
       </c>
       <c r="U44">
-        <v>9.81</v>
+        <v>11.1</v>
       </c>
       <c r="V44">
-        <v>0.05195974576271186</v>
+        <v>0.01159511125039173</v>
       </c>
       <c r="W44">
-        <v>0.02710743801652893</v>
+        <v>0.1788879935535858</v>
       </c>
       <c r="X44">
-        <v>0.04776221733662046</v>
+        <v>0.03568943979014036</v>
       </c>
       <c r="Y44">
-        <v>-0.02065477932009154</v>
+        <v>0.1431985537634455</v>
       </c>
       <c r="Z44">
-        <v>0.03520619983393302</v>
+        <v>0.1470588235294118</v>
       </c>
       <c r="AA44">
-        <v>0.0274464169339801</v>
+        <v>-0.02400379506641366</v>
       </c>
       <c r="AB44">
-        <v>0.04776221733662046</v>
+        <v>0.03526879240450838</v>
       </c>
       <c r="AC44">
-        <v>-0.02031580040264036</v>
+        <v>-0.05927258747092204</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="AE44">
         <v>0</v>
       </c>
       <c r="AF44">
-        <v>0</v>
+        <v>23.4</v>
       </c>
       <c r="AG44">
-        <v>-9.81</v>
+        <v>12.3</v>
       </c>
       <c r="AH44">
-        <v>0</v>
+        <v>0.02386050780055063</v>
       </c>
       <c r="AI44">
-        <v>0</v>
+        <v>0.15234375</v>
       </c>
       <c r="AJ44">
-        <v>-0.05480753114699145</v>
+        <v>0.01268564356435644</v>
       </c>
       <c r="AK44">
-        <v>-0.05989376640820564</v>
+        <v>0.08631578947368421</v>
       </c>
       <c r="AL44">
-        <v>0.044</v>
+        <v>0.443</v>
       </c>
       <c r="AM44">
-        <v>0.044</v>
+        <v>0.443</v>
+      </c>
+      <c r="AN44">
+        <v>-11.7</v>
       </c>
       <c r="AO44">
-        <v>115</v>
+        <v>-5.711060948081264</v>
+      </c>
+      <c r="AP44">
+        <v>-6.149999999999999</v>
       </c>
       <c r="AQ44">
-        <v>115</v>
+        <v>-5.711060948081264</v>
       </c>
     </row>
     <row r="45">
@@ -6023,7 +6098,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>CVC Limited (ASX:CVC)</t>
+          <t>Bailador Technology Investments Limited (ASX:BTI)</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -6031,119 +6106,101 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D45">
-        <v>-0.156</v>
-      </c>
       <c r="G45">
-        <v>0.1016867469879518</v>
+        <v>-0</v>
       </c>
       <c r="H45">
-        <v>0.1016867469879518</v>
+        <v>-0</v>
       </c>
       <c r="I45">
-        <v>0.1010374489840163</v>
+        <v>3.241071428571428</v>
       </c>
       <c r="J45">
-        <v>0.09653172490770204</v>
+        <v>3.241071428571428</v>
       </c>
       <c r="K45">
-        <v>-1.44</v>
+        <v>-2.84</v>
       </c>
       <c r="L45">
-        <v>-0.03469879518072289</v>
+        <v>2.535714285714285</v>
       </c>
       <c r="M45">
-        <v>19.42</v>
+        <v>-0</v>
       </c>
       <c r="N45">
-        <v>0.1078289838978345</v>
+        <v>-0</v>
       </c>
       <c r="O45">
-        <v>-13.48611111111111</v>
+        <v>0</v>
       </c>
       <c r="P45">
-        <v>16</v>
+        <v>-0</v>
       </c>
       <c r="Q45">
-        <v>0.08883953359244864</v>
+        <v>-0</v>
       </c>
       <c r="R45">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="S45">
-        <v>3.420000000000002</v>
-      </c>
-      <c r="T45">
-        <v>0.1761071060762102</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>40.1</v>
+        <v>3.18</v>
       </c>
       <c r="V45">
-        <v>0.2226540810660744</v>
+        <v>0.02917431192660551</v>
       </c>
       <c r="W45">
-        <v>-0.009504950495049505</v>
+        <v>-0.02792527040314651</v>
       </c>
       <c r="X45">
-        <v>0.05422762025078415</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y45">
-        <v>-0.06373257074583365</v>
+        <v>-0.06317076657345028</v>
       </c>
       <c r="Z45">
-        <v>0.2577003834467452</v>
+        <v>-0.01112192409286807</v>
       </c>
       <c r="AA45">
-        <v>0.02487626252349054</v>
+        <v>-0.0360469504081349</v>
       </c>
       <c r="AB45">
-        <v>0.04682666024068738</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC45">
-        <v>-0.02195039771719684</v>
+        <v>-0.07129244657843867</v>
       </c>
       <c r="AD45">
-        <v>56.3</v>
+        <v>0</v>
       </c>
       <c r="AE45">
-        <v>1.939729335816625</v>
+        <v>0</v>
       </c>
       <c r="AF45">
-        <v>58.23972933581662</v>
+        <v>0</v>
       </c>
       <c r="AG45">
-        <v>18.13972933581662</v>
+        <v>-3.18</v>
       </c>
       <c r="AH45">
-        <v>0.2443559430822288</v>
+        <v>0</v>
       </c>
       <c r="AI45">
-        <v>0.315936936360147</v>
+        <v>0</v>
       </c>
       <c r="AJ45">
-        <v>0.09150400576409209</v>
+        <v>-0.03005103005103005</v>
       </c>
       <c r="AK45">
-        <v>0.1257609773627902</v>
+        <v>-0.03382259093809828</v>
       </c>
       <c r="AL45">
-        <v>3.95</v>
+        <v>0</v>
       </c>
       <c r="AM45">
-        <v>3.95</v>
-      </c>
-      <c r="AN45">
-        <v>12.10492367232853</v>
-      </c>
-      <c r="AO45">
-        <v>1.050632911392405</v>
-      </c>
-      <c r="AP45">
-        <v>3.900178313441543</v>
-      </c>
-      <c r="AQ45">
-        <v>1.050632911392405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -6154,7 +6211,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Mirrabooka Investments Limited (ASX:MIR)</t>
+          <t>Fatfish Group Limited (ASX:FFG)</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -6163,115 +6220,115 @@
         </is>
       </c>
       <c r="D46">
-        <v>0.0304</v>
-      </c>
-      <c r="E46">
-        <v>0.0264</v>
+        <v>0.129</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>-0.9363636363636363</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>-0.9363636363636363</v>
       </c>
       <c r="I46">
-        <v>0.8028503562945368</v>
+        <v>-0.7054545454545454</v>
       </c>
       <c r="J46">
-        <v>0.7489275711702769</v>
+        <v>-0.7054545454545454</v>
       </c>
       <c r="K46">
-        <v>6.25</v>
+        <v>-7.66</v>
       </c>
       <c r="L46">
-        <v>0.7422802850356295</v>
+        <v>-6.963636363636363</v>
       </c>
       <c r="M46">
-        <v>9.31</v>
+        <v>-0</v>
       </c>
       <c r="N46">
-        <v>0.03044473512099411</v>
+        <v>-0</v>
       </c>
       <c r="O46">
-        <v>1.4896</v>
+        <v>0</v>
       </c>
       <c r="P46">
-        <v>9.31</v>
+        <v>-0</v>
       </c>
       <c r="Q46">
-        <v>0.03044473512099411</v>
+        <v>-0</v>
       </c>
       <c r="R46">
-        <v>1.4896</v>
+        <v>0</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
-      <c r="T46">
-        <v>0</v>
-      </c>
       <c r="U46">
-        <v>21.4</v>
+        <v>0.271</v>
       </c>
       <c r="V46">
-        <v>0.06998037933289732</v>
+        <v>0.01054474708171206</v>
       </c>
       <c r="W46">
-        <v>0.02336448598130841</v>
+        <v>-0.4586826347305389</v>
       </c>
       <c r="X46">
-        <v>0.04776221733662046</v>
+        <v>0.03525468309696328</v>
       </c>
       <c r="Y46">
-        <v>-0.02439773135531205</v>
+        <v>-0.4939373178275022</v>
       </c>
       <c r="Z46">
-        <v>0.0341305229023105</v>
+        <v>0.06794317479925881</v>
       </c>
       <c r="AA46">
-        <v>0.02556128961999891</v>
+        <v>-0.04793082149474984</v>
       </c>
       <c r="AB46">
-        <v>0.04776221733662046</v>
+        <v>0.03525134263181878</v>
       </c>
       <c r="AC46">
-        <v>-0.02220092771662155</v>
+        <v>-0.08318216412656862</v>
       </c>
       <c r="AD46">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="AE46">
         <v>0</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="AG46">
-        <v>-21.4</v>
+        <v>-0.258</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>0.0005055808345972854</v>
       </c>
       <c r="AI46">
-        <v>0</v>
+        <v>0.001856347279737255</v>
       </c>
       <c r="AJ46">
-        <v>-0.07524613220815751</v>
+        <v>-0.01014071220815974</v>
       </c>
       <c r="AK46">
-        <v>-0.09705215419501133</v>
+        <v>-0.03832442067736185</v>
       </c>
       <c r="AL46">
-        <v>0.06</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="AM46">
-        <v>0.06</v>
+        <v>0.08799999999999999</v>
+      </c>
+      <c r="AN46">
+        <v>-0.02241379310344828</v>
       </c>
       <c r="AO46">
-        <v>112.6666666666667</v>
+        <v>-8.818181818181818</v>
+      </c>
+      <c r="AP46">
+        <v>0.4448275862068966</v>
       </c>
       <c r="AQ46">
-        <v>112.6666666666667</v>
+        <v>-8.818181818181818</v>
       </c>
     </row>
     <row r="47">
@@ -6282,7 +6339,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sandon Capital Investments Limited (ASX:SNC)</t>
+          <t>Benjamin Hornigold Limited (ASX:BHD)</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -6290,9 +6347,6 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D47">
-        <v>0.00115</v>
-      </c>
       <c r="G47">
         <v>0</v>
       </c>
@@ -6300,67 +6354,64 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>-0.2223393045310854</v>
+        <v>-1.341201716738197</v>
       </c>
       <c r="J47">
-        <v>-0.2223393045310854</v>
+        <v>-1.341201716738197</v>
       </c>
       <c r="K47">
-        <v>-0.142</v>
+        <v>-0.518</v>
       </c>
       <c r="L47">
-        <v>-0.1496311907270811</v>
+        <v>-1.111587982832618</v>
       </c>
       <c r="M47">
-        <v>2.38</v>
+        <v>-0</v>
       </c>
       <c r="N47">
-        <v>0.03844911147011308</v>
+        <v>-0</v>
       </c>
       <c r="O47">
-        <v>-16.76056338028169</v>
+        <v>0</v>
       </c>
       <c r="P47">
-        <v>2.38</v>
+        <v>-0</v>
       </c>
       <c r="Q47">
-        <v>0.03844911147011308</v>
+        <v>-0</v>
       </c>
       <c r="R47">
-        <v>-16.76056338028169</v>
+        <v>0</v>
       </c>
       <c r="S47">
         <v>0</v>
       </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
       <c r="U47">
-        <v>0.492</v>
+        <v>5.21</v>
       </c>
       <c r="V47">
-        <v>0.007948303715670436</v>
+        <v>0.9904942965779469</v>
       </c>
       <c r="W47">
-        <v>-0.004127906976744186</v>
+        <v>-0.09184397163120568</v>
       </c>
       <c r="X47">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y47">
-        <v>-0.05189012431336465</v>
+        <v>-0.1270894678015095</v>
       </c>
       <c r="Z47">
-        <v>0.02870538415003025</v>
+        <v>0.08660100353094222</v>
       </c>
       <c r="AA47">
-        <v>-0.006382335148215366</v>
+        <v>-0.1161494146069504</v>
       </c>
       <c r="AB47">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC47">
-        <v>-0.05414455248483583</v>
+        <v>-0.1513949107772542</v>
       </c>
       <c r="AD47">
         <v>0</v>
@@ -6372,7 +6423,7 @@
         <v>0</v>
       </c>
       <c r="AG47">
-        <v>-0.492</v>
+        <v>-5.21</v>
       </c>
       <c r="AH47">
         <v>0</v>
@@ -6381,10 +6432,10 @@
         <v>0</v>
       </c>
       <c r="AJ47">
-        <v>-0.008011985409067222</v>
+        <v>-104.2000000000004</v>
       </c>
       <c r="AK47">
-        <v>-0.01336665942186481</v>
+        <v>30.64705882352942</v>
       </c>
       <c r="AL47">
         <v>0</v>
@@ -6401,7 +6452,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Florin Mining Investment Company Limited (NSX:FMI)</t>
+          <t>VGI Partners Global Investments Limited (ASX:VG1)</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -6409,113 +6460,104 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D48">
-        <v>-0.221</v>
-      </c>
-      <c r="E48">
-        <v>-0.238</v>
-      </c>
       <c r="G48">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I48">
-        <v>-0.6585365853658536</v>
+        <v>1.385964912280702</v>
       </c>
       <c r="J48">
-        <v>-0.6585365853658536</v>
+        <v>1.385964912280702</v>
       </c>
       <c r="K48">
-        <v>0.013</v>
+        <v>-31.4</v>
       </c>
       <c r="L48">
-        <v>0.3170731707317073</v>
+        <v>1.101754385964912</v>
       </c>
       <c r="M48">
-        <v>-0</v>
+        <v>2.81</v>
       </c>
       <c r="N48">
-        <v>-0</v>
+        <v>0.004069514844315713</v>
       </c>
       <c r="O48">
-        <v>-0</v>
+        <v>-0.08949044585987262</v>
       </c>
       <c r="P48">
-        <v>-0</v>
+        <v>2.81</v>
       </c>
       <c r="Q48">
-        <v>-0</v>
+        <v>0.004069514844315713</v>
       </c>
       <c r="R48">
-        <v>-0</v>
+        <v>-0.08949044585987262</v>
       </c>
       <c r="S48">
         <v>0</v>
       </c>
+      <c r="T48">
+        <v>0</v>
+      </c>
       <c r="U48">
-        <v>0.034</v>
+        <v>390.5</v>
       </c>
       <c r="V48">
-        <v>0.03628601921024546</v>
+        <v>0.5655322230267922</v>
       </c>
       <c r="W48">
-        <v>0.007065217391304347</v>
+        <v>-0.04753974261922785</v>
       </c>
       <c r="X48">
-        <v>0.04857305509665685</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y48">
-        <v>-0.0415078377053525</v>
+        <v>-0.08278523878953162</v>
       </c>
       <c r="Z48">
-        <v>0.02271468144044321</v>
+        <v>-0.0884269314303444</v>
       </c>
       <c r="AA48">
-        <v>-0.0149584487534626</v>
+        <v>-0.1225566242631089</v>
       </c>
       <c r="AB48">
-        <v>0.04771666935955638</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC48">
-        <v>-0.06267511811301898</v>
+        <v>-0.1578021204334127</v>
       </c>
       <c r="AD48">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="AE48">
         <v>0</v>
       </c>
       <c r="AF48">
-        <v>0.038</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>0.003999999999999997</v>
+        <v>-390.5</v>
       </c>
       <c r="AH48">
-        <v>0.03897435897435897</v>
+        <v>0</v>
       </c>
       <c r="AI48">
-        <v>0.0201271186440678</v>
+        <v>0</v>
       </c>
       <c r="AJ48">
-        <v>0.004250797024442079</v>
+        <v>-1.301666666666667</v>
       </c>
       <c r="AK48">
-        <v>0.002157497303128369</v>
+        <v>-1.730939716312057</v>
       </c>
       <c r="AL48">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="AM48">
-        <v>0.001</v>
-      </c>
-      <c r="AO48">
-        <v>-27</v>
-      </c>
-      <c r="AQ48">
-        <v>-27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -6526,7 +6568,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECP Emerging Growth Limited (ASX:ECP)</t>
+          <t>Spheria Emerging Companies Limited (ASX:SEC)</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -6534,80 +6576,74 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D49">
-        <v>8.842000000000001</v>
-      </c>
-      <c r="E49">
-        <v>11.992</v>
-      </c>
       <c r="G49">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I49">
-        <v>-1.111111111111111</v>
+        <v>1.105769230769231</v>
       </c>
       <c r="J49">
-        <v>-0.8156565656565655</v>
+        <v>1.105769230769231</v>
       </c>
       <c r="K49">
-        <v>1.3</v>
+        <v>-7.47</v>
       </c>
       <c r="L49">
-        <v>4.012345679012346</v>
+        <v>0.7182692307692308</v>
       </c>
       <c r="M49">
-        <v>0.449</v>
+        <v>7.779999999999999</v>
       </c>
       <c r="N49">
-        <v>0.03230215827338129</v>
+        <v>0.08606194690265485</v>
       </c>
       <c r="O49">
-        <v>0.3453846153846154</v>
+        <v>-1.041499330655957</v>
       </c>
       <c r="P49">
-        <v>0.449</v>
+        <v>3.14</v>
       </c>
       <c r="Q49">
-        <v>0.03230215827338129</v>
+        <v>0.03473451327433628</v>
       </c>
       <c r="R49">
-        <v>0.3453846153846154</v>
+        <v>-0.4203480589022758</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>4.639999999999999</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>0.5964010282776349</v>
       </c>
       <c r="U49">
-        <v>2.41</v>
+        <v>1.36</v>
       </c>
       <c r="V49">
-        <v>0.1733812949640288</v>
+        <v>0.01504424778761062</v>
       </c>
       <c r="W49">
-        <v>0.08280254777070065</v>
+        <v>-0.07661538461538461</v>
       </c>
       <c r="X49">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y49">
-        <v>0.03504033043408018</v>
+        <v>-0.1118608807856884</v>
       </c>
       <c r="Z49">
-        <v>0.0220708446866485</v>
+        <v>-0.1239570917759237</v>
       </c>
       <c r="AA49">
-        <v>-0.01800222937825118</v>
+        <v>-0.1370679380214541</v>
       </c>
       <c r="AB49">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC49">
-        <v>-0.06576444671487164</v>
+        <v>-0.1723134341917579</v>
       </c>
       <c r="AD49">
         <v>0</v>
@@ -6619,7 +6655,7 @@
         <v>0</v>
       </c>
       <c r="AG49">
-        <v>-2.41</v>
+        <v>-1.36</v>
       </c>
       <c r="AH49">
         <v>0</v>
@@ -6628,10 +6664,10 @@
         <v>0</v>
       </c>
       <c r="AJ49">
-        <v>-0.2097476066144474</v>
+        <v>-0.01527403414195867</v>
       </c>
       <c r="AK49">
-        <v>-0.181339352896915</v>
+        <v>-0.01714141668767331</v>
       </c>
       <c r="AL49">
         <v>0</v>
@@ -6648,7 +6684,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pinnacle Investment Management Group Limited (ASX:PNI)</t>
+          <t>Centrepoint Alliance Limited (ASX:CAF)</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -6657,124 +6693,118 @@
         </is>
       </c>
       <c r="D50">
-        <v>0.224</v>
-      </c>
-      <c r="E50">
-        <v>0.448</v>
-      </c>
-      <c r="F50">
-        <v>0.169</v>
+        <v>-0.00296</v>
       </c>
       <c r="G50">
-        <v>-0.175</v>
+        <v>-0.006969026548672566</v>
       </c>
       <c r="H50">
-        <v>-0.175</v>
+        <v>-0.006969026548672566</v>
       </c>
       <c r="I50">
-        <v>-0.140627055137847</v>
+        <v>-0.01001106194690266</v>
       </c>
       <c r="J50">
-        <v>-0.140627055137847</v>
+        <v>-0.01001106194690266</v>
       </c>
       <c r="K50">
-        <v>21.4</v>
+        <v>-1.38</v>
       </c>
       <c r="L50">
-        <v>1.445945945945946</v>
+        <v>-0.01526548672566371</v>
       </c>
       <c r="M50">
-        <v>15.1</v>
+        <v>0.257</v>
       </c>
       <c r="N50">
-        <v>0.02724648141465175</v>
+        <v>0.01028</v>
       </c>
       <c r="O50">
-        <v>0.705607476635514</v>
+        <v>-0.186231884057971</v>
       </c>
       <c r="P50">
-        <v>15.1</v>
+        <v>-0</v>
       </c>
       <c r="Q50">
-        <v>0.02724648141465175</v>
+        <v>-0</v>
       </c>
       <c r="R50">
-        <v>0.705607476635514</v>
+        <v>0</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>0.257</v>
       </c>
       <c r="T50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U50">
-        <v>18.7</v>
+        <v>8.41</v>
       </c>
       <c r="V50">
-        <v>0.03374233128834355</v>
+        <v>0.3364</v>
       </c>
       <c r="W50">
-        <v>0.2947658402203857</v>
+        <v>-0.1169491525423729</v>
       </c>
       <c r="X50">
-        <v>0.04786165845660831</v>
+        <v>0.03574095136517189</v>
       </c>
       <c r="Y50">
-        <v>0.2469041817637773</v>
+        <v>-0.1526901039075448</v>
       </c>
       <c r="Z50">
-        <v>0.2161959955573029</v>
+        <v>16.20071684587813</v>
       </c>
       <c r="AA50">
-        <v>-0.03040300618781855</v>
+        <v>-0.1621863799283154</v>
       </c>
       <c r="AB50">
-        <v>0.04774326910174072</v>
+        <v>0.03527142372592856</v>
       </c>
       <c r="AC50">
-        <v>-0.07814627528955928</v>
+        <v>-0.197457803654244</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="AE50">
-        <v>2.756402080200675</v>
+        <v>0</v>
       </c>
       <c r="AF50">
-        <v>2.756402080200675</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="AG50">
-        <v>-15.94359791979932</v>
+        <v>-7.728</v>
       </c>
       <c r="AH50">
-        <v>0.004949044610863021</v>
+        <v>0.02655556420839499</v>
       </c>
       <c r="AI50">
-        <v>0.02172852165914365</v>
+        <v>0.06210162083409215</v>
       </c>
       <c r="AJ50">
-        <v>-0.02962082356695074</v>
+        <v>-0.4474293654469662</v>
       </c>
       <c r="AK50">
-        <v>-0.1474124287897146</v>
+        <v>-3.00466562986003</v>
       </c>
       <c r="AL50">
-        <v>0.074</v>
+        <v>0.039</v>
       </c>
       <c r="AM50">
-        <v>0.074</v>
+        <v>0.039</v>
       </c>
       <c r="AN50">
-        <v>-0</v>
+        <v>-1.082539682539683</v>
       </c>
       <c r="AO50">
-        <v>-35.67567567567568</v>
+        <v>-23.2051282051282</v>
       </c>
       <c r="AP50">
-        <v>10.77270129716171</v>
+        <v>12.26666666666667</v>
       </c>
       <c r="AQ50">
-        <v>-35.67567567567568</v>
+        <v>-23.2051282051282</v>
       </c>
     </row>
     <row r="51">
@@ -6785,7 +6815,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Katana Capital Limited (ASX:KAT)</t>
+          <t>Sandon Capital Investments Limited (ASX:SNC)</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -6793,77 +6823,74 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D51">
-        <v>-0.602</v>
-      </c>
       <c r="G51">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I51">
-        <v>-14.25862068965517</v>
+        <v>1.262759924385633</v>
       </c>
       <c r="J51">
-        <v>-14.25862068965517</v>
+        <v>1.262759924385633</v>
       </c>
       <c r="K51">
-        <v>-0.44</v>
+        <v>-5.98</v>
       </c>
       <c r="L51">
-        <v>-7.586206896551724</v>
+        <v>1.130434782608696</v>
       </c>
       <c r="M51">
-        <v>1.437</v>
+        <v>4.146</v>
       </c>
       <c r="N51">
-        <v>0.06167381974248926</v>
+        <v>0.06188059701492537</v>
       </c>
       <c r="O51">
-        <v>-3.265909090909091</v>
+        <v>-0.6933110367892976</v>
       </c>
       <c r="P51">
-        <v>0.748</v>
+        <v>4.08</v>
       </c>
       <c r="Q51">
-        <v>0.03210300429184549</v>
+        <v>0.0608955223880597</v>
       </c>
       <c r="R51">
-        <v>-1.7</v>
+        <v>-0.6822742474916388</v>
       </c>
       <c r="S51">
-        <v>0.6889999999999998</v>
+        <v>0.06599999999999984</v>
       </c>
       <c r="T51">
-        <v>0.4794711203897007</v>
+        <v>0.01591895803183788</v>
       </c>
       <c r="U51">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="V51">
-        <v>0.278969957081545</v>
+        <v>0.02164179104477612</v>
       </c>
       <c r="W51">
-        <v>-0.01442622950819672</v>
+        <v>-0.1603217158176944</v>
       </c>
       <c r="X51">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="Y51">
-        <v>-0.06218844684481718</v>
+        <v>-0.1955672119879981</v>
       </c>
       <c r="Z51">
-        <v>0.002648401826484019</v>
+        <v>-0.1437187567920017</v>
       </c>
       <c r="AA51">
-        <v>-0.03776255707762557</v>
+        <v>-0.1814822864594653</v>
       </c>
       <c r="AB51">
-        <v>0.04776221733662046</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AC51">
-        <v>-0.08552477441424602</v>
+        <v>-0.2167277826297691</v>
       </c>
       <c r="AD51">
         <v>0</v>
@@ -6875,7 +6902,7 @@
         <v>0</v>
       </c>
       <c r="AG51">
-        <v>-6.5</v>
+        <v>-1.45</v>
       </c>
       <c r="AH51">
         <v>0</v>
@@ -6884,10 +6911,10 @@
         <v>0</v>
       </c>
       <c r="AJ51">
-        <v>-0.3869047619047619</v>
+        <v>-0.02212051868802441</v>
       </c>
       <c r="AK51">
-        <v>-0.3155339805825242</v>
+        <v>-0.02605570530098832</v>
       </c>
       <c r="AL51">
         <v>0</v>
@@ -6904,7 +6931,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Fatfish Blockchain Limited (ASX:FFG)</t>
+          <t>Bentley Capital Limited (ASX:BEL)</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -6912,113 +6939,119 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D52">
+        <v>-0.277</v>
+      </c>
       <c r="G52">
-        <v>-0.6128404669260702</v>
+        <v>-2.170731707317073</v>
       </c>
       <c r="H52">
-        <v>-0.6225680933852141</v>
+        <v>-2.35670731707317</v>
       </c>
       <c r="I52">
-        <v>-0.5642023346303502</v>
+        <v>-2.36280487804878</v>
       </c>
       <c r="J52">
-        <v>-0.5642023346303502</v>
+        <v>-2.36280487804878</v>
       </c>
       <c r="K52">
-        <v>1.34</v>
+        <v>-0.789</v>
       </c>
       <c r="L52">
-        <v>0.5214007782101168</v>
+        <v>-2.405487804878049</v>
       </c>
       <c r="M52">
+        <v>0.003</v>
+      </c>
+      <c r="N52">
+        <v>0.0007194244604316547</v>
+      </c>
+      <c r="O52">
+        <v>-0.003802281368821293</v>
+      </c>
+      <c r="P52">
+        <v>0.003</v>
+      </c>
+      <c r="Q52">
+        <v>0.0007194244604316547</v>
+      </c>
+      <c r="R52">
+        <v>-0.003802281368821293</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>0.056</v>
+      </c>
+      <c r="V52">
+        <v>0.01342925659472422</v>
+      </c>
+      <c r="W52">
+        <v>-0.1773033707865169</v>
+      </c>
+      <c r="X52">
+        <v>0.03524549617030377</v>
+      </c>
+      <c r="Y52">
+        <v>-0.2125488669568206</v>
+      </c>
+      <c r="Z52">
+        <v>0.07694112127609665</v>
+      </c>
+      <c r="AA52">
+        <v>-0.181796856673704</v>
+      </c>
+      <c r="AB52">
+        <v>0.03524549617030377</v>
+      </c>
+      <c r="AC52">
+        <v>-0.2170423528440077</v>
+      </c>
+      <c r="AD52">
+        <v>0</v>
+      </c>
+      <c r="AE52">
+        <v>0</v>
+      </c>
+      <c r="AF52">
+        <v>0</v>
+      </c>
+      <c r="AG52">
+        <v>-0.056</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
+      <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
+        <v>-0.01361205639280506</v>
+      </c>
+      <c r="AK52">
+        <v>-0.01580135440180587</v>
+      </c>
+      <c r="AL52">
+        <v>0.003</v>
+      </c>
+      <c r="AM52">
+        <v>0.003</v>
+      </c>
+      <c r="AN52">
         <v>-0</v>
       </c>
-      <c r="N52">
-        <v>-0</v>
-      </c>
-      <c r="O52">
-        <v>-0</v>
-      </c>
-      <c r="P52">
-        <v>-0</v>
-      </c>
-      <c r="Q52">
-        <v>-0</v>
-      </c>
-      <c r="R52">
-        <v>-0</v>
-      </c>
-      <c r="S52">
-        <v>0</v>
-      </c>
-      <c r="U52">
-        <v>1.63</v>
-      </c>
-      <c r="V52">
-        <v>0.2849650349650349</v>
-      </c>
-      <c r="W52">
-        <v>0.07790697674418605</v>
-      </c>
-      <c r="X52">
-        <v>0.05531223003119566</v>
-      </c>
-      <c r="Y52">
-        <v>0.02259474671299039</v>
-      </c>
-      <c r="Z52">
-        <v>0.1591725504768983</v>
-      </c>
-      <c r="AA52">
-        <v>-0.08980552458813328</v>
-      </c>
-      <c r="AB52">
-        <v>0.05774573042873593</v>
-      </c>
-      <c r="AC52">
-        <v>-0.1475512550168692</v>
-      </c>
-      <c r="AD52">
-        <v>2.16</v>
-      </c>
-      <c r="AE52">
-        <v>0</v>
-      </c>
-      <c r="AF52">
-        <v>2.16</v>
-      </c>
-      <c r="AG52">
-        <v>0.5300000000000002</v>
-      </c>
-      <c r="AH52">
-        <v>0.2741116751269036</v>
-      </c>
-      <c r="AI52">
-        <v>0.09747292418772564</v>
-      </c>
-      <c r="AJ52">
-        <v>0.08480000000000004</v>
-      </c>
-      <c r="AK52">
-        <v>0.02581587920116903</v>
-      </c>
-      <c r="AL52">
-        <v>0.33</v>
-      </c>
-      <c r="AM52">
-        <v>0.33</v>
-      </c>
-      <c r="AN52">
-        <v>-1.911504424778761</v>
-      </c>
       <c r="AO52">
-        <v>-4.393939393939394</v>
+        <v>-258.3333333333333</v>
       </c>
       <c r="AP52">
-        <v>-0.4690265486725667</v>
+        <v>0.07244501940491591</v>
       </c>
       <c r="AQ52">
-        <v>-4.393939393939394</v>
+        <v>-258.3333333333333</v>
       </c>
     </row>
     <row r="53">
@@ -7029,7 +7062,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Orion Equities Limited (ASX:OEQ)</t>
+          <t>NGE Capital Limited (ASX:NGE)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -7037,35 +7070,32 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
-      <c r="D53">
-        <v>-0.315</v>
-      </c>
       <c r="G53">
-        <v>-10.5</v>
+        <v>0.1316831683168317</v>
       </c>
       <c r="H53">
-        <v>-10.5</v>
+        <v>0.1316831683168317</v>
       </c>
       <c r="I53">
-        <v>-10.64705882352941</v>
+        <v>1.188118811881188</v>
       </c>
       <c r="J53">
-        <v>-10.64705882352941</v>
+        <v>1.188118811881188</v>
       </c>
       <c r="K53">
-        <v>-0.897</v>
+        <v>-3.4</v>
       </c>
       <c r="L53">
-        <v>-26.38235294117647</v>
+        <v>0.6732673267326733</v>
       </c>
       <c r="M53">
-        <v>-0</v>
+        <v>0.013</v>
       </c>
       <c r="N53">
-        <v>-0</v>
+        <v>0.0008227848101265822</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>-0.003823529411764706</v>
       </c>
       <c r="P53">
         <v>-0</v>
@@ -7077,70 +7107,79 @@
         <v>0</v>
       </c>
       <c r="S53">
-        <v>0</v>
+        <v>0.013</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
       </c>
       <c r="U53">
-        <v>0.571</v>
+        <v>7.42</v>
       </c>
       <c r="V53">
-        <v>0.7191435768261963</v>
+        <v>0.4696202531645569</v>
       </c>
       <c r="W53">
-        <v>-0.3071917808219178</v>
+        <v>-0.1658536585365854</v>
       </c>
       <c r="X53">
-        <v>0.04776221733662046</v>
+        <v>0.03530526933869611</v>
       </c>
       <c r="Y53">
-        <v>-0.3549539981585383</v>
+        <v>-0.2011589278752815</v>
       </c>
       <c r="Z53">
-        <v>0.011752506049084</v>
+        <v>-0.2638453500522466</v>
       </c>
       <c r="AA53">
-        <v>-0.1251296232284826</v>
+        <v>-0.3134796238244514</v>
       </c>
       <c r="AB53">
-        <v>0.04776221733662046</v>
+        <v>0.03523354375166531</v>
       </c>
       <c r="AC53">
-        <v>-0.172891840565103</v>
+        <v>-0.3487131675761167</v>
       </c>
       <c r="AD53">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="AE53">
         <v>0</v>
       </c>
       <c r="AF53">
-        <v>0</v>
+        <v>0.052</v>
       </c>
       <c r="AG53">
-        <v>-0.571</v>
+        <v>-7.368</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>0.003280343174362856</v>
       </c>
       <c r="AI53">
-        <v>0</v>
+        <v>0.003085687158794208</v>
       </c>
       <c r="AJ53">
-        <v>-2.560538116591927</v>
+        <v>-0.8738140417457305</v>
       </c>
       <c r="AK53">
-        <v>-0.4646053702196907</v>
+        <v>-0.7811704834605598</v>
       </c>
       <c r="AL53">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="AM53">
-        <v>0</v>
+        <v>0.128</v>
       </c>
       <c r="AN53">
-        <v>-0</v>
+        <v>-0.008666666666666666</v>
+      </c>
+      <c r="AO53">
+        <v>-46.875</v>
       </c>
       <c r="AP53">
-        <v>1.599439775910364</v>
+        <v>1.228</v>
+      </c>
+      <c r="AQ53">
+        <v>-46.875</v>
       </c>
     </row>
     <row r="54">
@@ -7151,7 +7190,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Bentley Capital Limited (ASX:BEL)</t>
+          <t>Auctus Investment Group Limited (ASX:AVC)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -7160,118 +7199,115 @@
         </is>
       </c>
       <c r="D54">
-        <v>-0.323</v>
+        <v>0.0917</v>
       </c>
       <c r="G54">
-        <v>-1.634615384615385</v>
+        <v>-1.42483660130719</v>
       </c>
       <c r="H54">
-        <v>-5.192307692307693</v>
+        <v>-1.42483660130719</v>
       </c>
       <c r="I54">
-        <v>-5.240384615384616</v>
+        <v>-1.450980392156863</v>
       </c>
       <c r="J54">
-        <v>-5.240384615384616</v>
+        <v>-1.450980392156863</v>
       </c>
       <c r="K54">
-        <v>-1.72</v>
+        <v>-2.05</v>
       </c>
       <c r="L54">
-        <v>-8.26923076923077</v>
+        <v>-1.339869281045752</v>
       </c>
       <c r="M54">
-        <v>0.262</v>
+        <v>-0</v>
       </c>
       <c r="N54">
-        <v>0.1247619047619048</v>
+        <v>-0</v>
       </c>
       <c r="O54">
-        <v>-0.1523255813953489</v>
+        <v>0</v>
       </c>
       <c r="P54">
-        <v>0.262</v>
+        <v>-0</v>
       </c>
       <c r="Q54">
-        <v>0.1247619047619048</v>
+        <v>-0</v>
       </c>
       <c r="R54">
-        <v>-0.1523255813953489</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
-      <c r="T54">
-        <v>0</v>
-      </c>
       <c r="U54">
-        <v>0.187</v>
+        <v>1.26</v>
       </c>
       <c r="V54">
-        <v>0.08904761904761904</v>
+        <v>0.03549295774647887</v>
       </c>
       <c r="W54">
-        <v>-0.2529411764705882</v>
+        <v>-0.4823529411764705</v>
       </c>
       <c r="X54">
-        <v>0.04776221733662046</v>
+        <v>0.03554017853807465</v>
       </c>
       <c r="Y54">
-        <v>-0.3007033938072087</v>
+        <v>-0.5178931197145452</v>
       </c>
       <c r="Z54">
-        <v>0.0315773493244269</v>
+        <v>0.4975609756097561</v>
       </c>
       <c r="AA54">
-        <v>-0.1654774555943525</v>
+        <v>-0.7219512195121951</v>
       </c>
       <c r="AB54">
-        <v>0.04776221733662046</v>
+        <v>0.03526108487918977</v>
       </c>
       <c r="AC54">
-        <v>-0.213239672930973</v>
+        <v>-0.7572123043913849</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>0.576</v>
       </c>
       <c r="AE54">
         <v>0</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>0.576</v>
       </c>
       <c r="AG54">
-        <v>-0.187</v>
+        <v>-0.6840000000000001</v>
       </c>
       <c r="AH54">
-        <v>0</v>
+        <v>0.01596629338064087</v>
       </c>
       <c r="AI54">
-        <v>0</v>
+        <v>0.1000694927032662</v>
       </c>
       <c r="AJ54">
-        <v>-0.09775222164140093</v>
+        <v>-0.01964613970588235</v>
       </c>
       <c r="AK54">
-        <v>-0.04386582219094534</v>
+        <v>-0.152135231316726</v>
       </c>
       <c r="AL54">
-        <v>0.006</v>
+        <v>0.017</v>
       </c>
       <c r="AM54">
-        <v>0.006</v>
+        <v>0.017</v>
       </c>
       <c r="AN54">
-        <v>-0</v>
+        <v>-0.2642201834862385</v>
       </c>
       <c r="AO54">
-        <v>-181.6666666666667</v>
+        <v>-130.5882352941177</v>
       </c>
       <c r="AP54">
-        <v>0.1731481481481481</v>
+        <v>0.3137614678899083</v>
       </c>
       <c r="AQ54">
-        <v>-181.6666666666667</v>
+        <v>-130.5882352941177</v>
       </c>
     </row>
     <row r="55">
@@ -7282,7 +7318,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>NGE Capital Limited (ASX:NGE)</t>
+          <t>A1 Investments &amp; Resources Ltd (ASX:AYI)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -7290,32 +7326,35 @@
           <t>Investments &amp; Asset Management</t>
         </is>
       </c>
+      <c r="D55">
+        <v>0.21</v>
+      </c>
       <c r="G55">
-        <v>0.1286561264822134</v>
+        <v>-1.58</v>
       </c>
       <c r="H55">
-        <v>0.1286561264822134</v>
+        <v>-1.58</v>
       </c>
       <c r="I55">
-        <v>1.120553359683794</v>
+        <v>-1.623333333333333</v>
       </c>
       <c r="J55">
-        <v>1.120553359683794</v>
+        <v>-1.623333333333333</v>
       </c>
       <c r="K55">
-        <v>-0.194</v>
+        <v>-0.789</v>
       </c>
       <c r="L55">
-        <v>0.0383399209486166</v>
+        <v>-2.63</v>
       </c>
       <c r="M55">
-        <v>0.056</v>
+        <v>-0</v>
       </c>
       <c r="N55">
-        <v>0.003146067415730337</v>
+        <v>-0</v>
       </c>
       <c r="O55">
-        <v>-0.288659793814433</v>
+        <v>0</v>
       </c>
       <c r="P55">
         <v>-0</v>
@@ -7327,79 +7366,76 @@
         <v>0</v>
       </c>
       <c r="S55">
-        <v>0.056</v>
-      </c>
-      <c r="T55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>3.56</v>
+        <v>1.54</v>
       </c>
       <c r="V55">
-        <v>0.2</v>
+        <v>0.1305084745762712</v>
       </c>
       <c r="W55">
-        <v>-0.008858447488584475</v>
+        <v>-3.669767441860465</v>
       </c>
       <c r="X55">
-        <v>0.05023333052192358</v>
+        <v>0.03749263999115549</v>
       </c>
       <c r="Y55">
-        <v>-0.05909177801050806</v>
+        <v>-3.707260081851621</v>
       </c>
       <c r="Z55">
-        <v>-0.2411016343450708</v>
+        <v>2.083333333333334</v>
       </c>
       <c r="AA55">
-        <v>-0.2701672463906228</v>
+        <v>-3.381944444444445</v>
       </c>
       <c r="AB55">
-        <v>0.04734106416451199</v>
+        <v>0.03535299788051545</v>
       </c>
       <c r="AC55">
-        <v>-0.3175083105551348</v>
+        <v>-3.417297442324961</v>
       </c>
       <c r="AD55">
-        <v>2.2</v>
+        <v>1.46</v>
       </c>
       <c r="AE55">
         <v>0</v>
       </c>
       <c r="AF55">
-        <v>2.2</v>
+        <v>1.46</v>
       </c>
       <c r="AG55">
-        <v>-1.36</v>
+        <v>-0.08000000000000007</v>
       </c>
       <c r="AH55">
-        <v>0.11</v>
+        <v>0.110105580693816</v>
       </c>
       <c r="AI55">
-        <v>0.09691629955947138</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="AJ55">
-        <v>-0.08272506082725059</v>
+        <v>-0.006825938566552906</v>
       </c>
       <c r="AK55">
-        <v>-0.07105538140020898</v>
+        <v>-0.5755395683453245</v>
       </c>
       <c r="AL55">
-        <v>0.08400000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AM55">
-        <v>0.08400000000000001</v>
+        <v>0.04</v>
       </c>
       <c r="AN55">
-        <v>-0.3880070546737214</v>
+        <v>-3.080168776371308</v>
       </c>
       <c r="AO55">
-        <v>-67.5</v>
+        <v>-12.175</v>
       </c>
       <c r="AP55">
-        <v>0.2398589065255732</v>
+        <v>0.168776371308017</v>
       </c>
       <c r="AQ55">
-        <v>-67.5</v>
+        <v>-12.175</v>
       </c>
     </row>
     <row r="56">
@@ -7410,7 +7446,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>InvestSMART Group Limited (ASX:INV)</t>
+          <t>Australian Ethical Investment Ltd. (ASX:AEF)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -7419,109 +7455,121 @@
         </is>
       </c>
       <c r="D56">
-        <v>0.465</v>
+        <v>0.187</v>
+      </c>
+      <c r="E56">
+        <v>0.369</v>
       </c>
       <c r="G56">
-        <v>-0.009404761904761904</v>
+        <v>0.2927536231884058</v>
       </c>
       <c r="H56">
-        <v>-0.009404761904761904</v>
+        <v>0.2927536231884058</v>
       </c>
       <c r="I56">
-        <v>-0.1304328699583481</v>
+        <v>0.284927536231884</v>
       </c>
       <c r="J56">
-        <v>-0.1304328699583481</v>
+        <v>0.2062723737909316</v>
       </c>
       <c r="K56">
-        <v>-1.24</v>
+        <v>6.53</v>
       </c>
       <c r="L56">
-        <v>-0.1476190476190476</v>
+        <v>0.1892753623188406</v>
       </c>
       <c r="M56">
-        <v>-0</v>
+        <v>4.696</v>
       </c>
       <c r="N56">
-        <v>-0</v>
+        <v>0.01076817243751433</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.7191424196018376</v>
       </c>
       <c r="P56">
-        <v>-0</v>
+        <v>4.26</v>
       </c>
       <c r="Q56">
-        <v>-0</v>
+        <v>0.009768401742719559</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>0.6523736600306278</v>
       </c>
       <c r="S56">
-        <v>0</v>
+        <v>0.4359999999999999</v>
+      </c>
+      <c r="T56">
+        <v>0.0928449744463373</v>
       </c>
       <c r="U56">
-        <v>3.09</v>
+        <v>14.8</v>
       </c>
       <c r="V56">
-        <v>0.3414364640883977</v>
+        <v>0.03393717037376748</v>
       </c>
       <c r="W56">
-        <v>-0.1847988077496274</v>
+        <v>0.5487394957983194</v>
       </c>
       <c r="X56">
-        <v>0.04838782892284264</v>
+        <v>0.03529255621953722</v>
       </c>
       <c r="Y56">
-        <v>-0.2331866366724701</v>
+        <v>0.5134469395787822</v>
       </c>
       <c r="Z56">
-        <v>2.324821555710858</v>
+        <v>-26.53846153846156</v>
       </c>
       <c r="AA56">
-        <v>-0.3032331476523988</v>
+        <v>-5.474151458297804</v>
       </c>
       <c r="AB56">
-        <v>0.04772675855177282</v>
+        <v>0.03524801950309947</v>
       </c>
       <c r="AC56">
-        <v>-0.3509599062041716</v>
+        <v>-5.509399477800904</v>
       </c>
       <c r="AD56">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE56">
-        <v>0.283180538250619</v>
+        <v>0</v>
       </c>
       <c r="AF56">
-        <v>0.283180538250619</v>
+        <v>1.13</v>
       </c>
       <c r="AG56">
-        <v>-2.806819461749381</v>
+        <v>-13.67</v>
       </c>
       <c r="AH56">
-        <v>0.03034126866935089</v>
+        <v>0.002584452119022025</v>
       </c>
       <c r="AI56">
-        <v>0.05044921258472009</v>
+        <v>0.07276239536381196</v>
       </c>
       <c r="AJ56">
-        <v>-0.4495816586678222</v>
+        <v>-0.03236039107070995</v>
       </c>
       <c r="AK56">
-        <v>-1.112413249547104</v>
+        <v>-18.72602739726031</v>
       </c>
       <c r="AL56">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AM56">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="AN56">
-        <v>0</v>
+        <v>0.1118811881188119</v>
+      </c>
+      <c r="AO56">
+        <v>245.75</v>
       </c>
       <c r="AP56">
-        <v>-19.7663342376717</v>
+        <v>-1.353465346534654</v>
+      </c>
+      <c r="AQ56">
+        <v>245.75</v>
       </c>
     </row>
     <row r="57">
@@ -7532,7 +7580,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Australian Rural Capital Limited (ASX:ARC)</t>
+          <t>Tribeca Global Natural Resources Limited (ASX:TGF)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -7547,25 +7595,25 @@
         <v>-0</v>
       </c>
       <c r="I57">
-        <v>1.20979020979021</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="J57">
-        <v>1.20979020979021</v>
+        <v>1.043478260869565</v>
       </c>
       <c r="K57">
-        <v>-1.74</v>
+        <v>-31.5</v>
       </c>
       <c r="L57">
-        <v>1.216783216783217</v>
+        <v>0.7608695652173914</v>
       </c>
       <c r="M57">
-        <v>-0</v>
+        <v>0.681</v>
       </c>
       <c r="N57">
-        <v>-0</v>
+        <v>0.008809831824062097</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>-0.02161904761904762</v>
       </c>
       <c r="P57">
         <v>-0</v>
@@ -7577,34 +7625,22 @@
         <v>0</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>0.681</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
       </c>
       <c r="U57">
-        <v>0.198</v>
+        <v>23.6</v>
       </c>
       <c r="V57">
-        <v>0.07920000000000001</v>
-      </c>
-      <c r="W57">
-        <v>-0.3163636363636363</v>
+        <v>0.3053040103492885</v>
       </c>
       <c r="X57">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="Y57">
-        <v>-0.3641258537002568</v>
-      </c>
-      <c r="Z57">
-        <v>-0.2771317829457364</v>
-      </c>
-      <c r="AA57">
-        <v>-0.3352713178294573</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AB57">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="AC57">
-        <v>-0.3830335351660778</v>
+        <v>0.03524549617030377</v>
       </c>
       <c r="AD57">
         <v>0</v>
@@ -7616,7 +7652,7 @@
         <v>0</v>
       </c>
       <c r="AG57">
-        <v>-0.198</v>
+        <v>-23.6</v>
       </c>
       <c r="AH57">
         <v>0</v>
@@ -7625,980 +7661,22 @@
         <v>0</v>
       </c>
       <c r="AJ57">
-        <v>-0.08601216333622937</v>
+        <v>-0.4394785847299814</v>
       </c>
       <c r="AK57">
-        <v>-0.06014580801944107</v>
+        <v>-0.484599589322382</v>
       </c>
       <c r="AL57">
-        <v>0.001</v>
+        <v>0.951</v>
       </c>
       <c r="AM57">
-        <v>0.001</v>
+        <v>0.951</v>
       </c>
       <c r="AO57">
-        <v>-1730</v>
+        <v>-45.42586750788644</v>
       </c>
       <c r="AQ57">
-        <v>-1730</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Lions Bay Capital Inc. (TSXV:LBI)</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G58">
-        <v>-0</v>
-      </c>
-      <c r="H58">
-        <v>-0</v>
-      </c>
-      <c r="I58">
-        <v>1.349056603773585</v>
-      </c>
-      <c r="J58">
-        <v>1.349056603773585</v>
-      </c>
-      <c r="K58">
-        <v>-3.06</v>
-      </c>
-      <c r="L58">
-        <v>1.443396226415094</v>
-      </c>
-      <c r="M58">
-        <v>-0</v>
-      </c>
-      <c r="N58">
-        <v>-0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58">
-        <v>-0</v>
-      </c>
-      <c r="Q58">
-        <v>-0</v>
-      </c>
-      <c r="R58">
-        <v>0</v>
-      </c>
-      <c r="S58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>0.043</v>
-      </c>
-      <c r="V58">
-        <v>0.01936936936936937</v>
-      </c>
-      <c r="W58">
-        <v>-0.703448275862069</v>
-      </c>
-      <c r="X58">
-        <v>0.05189601933223134</v>
-      </c>
-      <c r="Y58">
-        <v>-0.7553442951943004</v>
-      </c>
-      <c r="Z58">
-        <v>-0.4129333852746397</v>
-      </c>
-      <c r="AA58">
-        <v>-0.5570705103233347</v>
-      </c>
-      <c r="AB58">
-        <v>0.04756198690464859</v>
-      </c>
-      <c r="AC58">
-        <v>-0.6046324972279833</v>
-      </c>
-      <c r="AD58">
-        <v>0.459</v>
-      </c>
-      <c r="AE58">
-        <v>0</v>
-      </c>
-      <c r="AF58">
-        <v>0.459</v>
-      </c>
-      <c r="AG58">
-        <v>0.416</v>
-      </c>
-      <c r="AH58">
-        <v>0.1713325867861142</v>
-      </c>
-      <c r="AI58">
-        <v>0.2176386913229019</v>
-      </c>
-      <c r="AJ58">
-        <v>0.157814871016692</v>
-      </c>
-      <c r="AK58">
-        <v>0.2013552758954502</v>
-      </c>
-      <c r="AL58">
-        <v>0.061</v>
-      </c>
-      <c r="AM58">
-        <v>0.061</v>
-      </c>
-      <c r="AO58">
-        <v>-46.88524590163934</v>
-      </c>
-      <c r="AQ58">
-        <v>-46.88524590163934</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>EVE Investments Limited (ASX:EVE)</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="D59">
-        <v>2.349</v>
-      </c>
-      <c r="G59">
-        <v>-1.232142857142857</v>
-      </c>
-      <c r="H59">
-        <v>-1.232142857142857</v>
-      </c>
-      <c r="I59">
-        <v>-1.339285714285714</v>
-      </c>
-      <c r="J59">
-        <v>-1.339285714285714</v>
-      </c>
-      <c r="K59">
-        <v>-1.85</v>
-      </c>
-      <c r="L59">
-        <v>-1.651785714285714</v>
-      </c>
-      <c r="M59">
-        <v>-0</v>
-      </c>
-      <c r="N59">
-        <v>-0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>-0</v>
-      </c>
-      <c r="Q59">
-        <v>-0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0.238</v>
-      </c>
-      <c r="V59">
-        <v>0.02034188034188034</v>
-      </c>
-      <c r="W59">
-        <v>-0.3388278388278388</v>
-      </c>
-      <c r="X59">
-        <v>0.04932068909283401</v>
-      </c>
-      <c r="Y59">
-        <v>-0.3881485279206728</v>
-      </c>
-      <c r="Z59">
-        <v>0.4357976653696499</v>
-      </c>
-      <c r="AA59">
-        <v>-0.5836575875486382</v>
-      </c>
-      <c r="AB59">
-        <v>0.04963664306899444</v>
-      </c>
-      <c r="AC59">
-        <v>-0.6332942306176326</v>
-      </c>
-      <c r="AD59">
-        <v>0.912</v>
-      </c>
-      <c r="AE59">
-        <v>0</v>
-      </c>
-      <c r="AF59">
-        <v>0.912</v>
-      </c>
-      <c r="AG59">
-        <v>0.674</v>
-      </c>
-      <c r="AH59">
-        <v>0.07231208372978117</v>
-      </c>
-      <c r="AI59">
-        <v>0.1819632881085395</v>
-      </c>
-      <c r="AJ59">
-        <v>0.05446904800387911</v>
-      </c>
-      <c r="AK59">
-        <v>0.1411813992459154</v>
-      </c>
-      <c r="AL59">
-        <v>0</v>
-      </c>
-      <c r="AM59">
-        <v>0</v>
-      </c>
-      <c r="AN59">
-        <v>-0.6608695652173914</v>
-      </c>
-      <c r="AP59">
-        <v>-0.4884057971014493</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Contango Asset Management Limited (ASX:CGA)</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="D60">
-        <v>0.453</v>
-      </c>
-      <c r="G60">
-        <v>-1.255707762557078</v>
-      </c>
-      <c r="H60">
-        <v>-1.255707762557078</v>
-      </c>
-      <c r="I60">
-        <v>-1.229676846059774</v>
-      </c>
-      <c r="J60">
-        <v>-1.229676846059774</v>
-      </c>
-      <c r="K60">
-        <v>-3.65</v>
-      </c>
-      <c r="L60">
-        <v>-1.666666666666667</v>
-      </c>
-      <c r="M60">
-        <v>-0</v>
-      </c>
-      <c r="N60">
-        <v>-0</v>
-      </c>
-      <c r="O60">
-        <v>0</v>
-      </c>
-      <c r="P60">
-        <v>-0</v>
-      </c>
-      <c r="Q60">
-        <v>-0</v>
-      </c>
-      <c r="R60">
-        <v>0</v>
-      </c>
-      <c r="S60">
-        <v>0</v>
-      </c>
-      <c r="U60">
-        <v>3.11</v>
-      </c>
-      <c r="V60">
-        <v>0.213013698630137</v>
-      </c>
-      <c r="W60">
-        <v>-0.4284037558685446</v>
-      </c>
-      <c r="X60">
-        <v>0.0483537546008778</v>
-      </c>
-      <c r="Y60">
-        <v>-0.4767575104694224</v>
-      </c>
-      <c r="Z60">
-        <v>0.4771281887674786</v>
-      </c>
-      <c r="AA60">
-        <v>-0.5867134863298057</v>
-      </c>
-      <c r="AB60">
-        <v>0.04772863433863612</v>
-      </c>
-      <c r="AC60">
-        <v>-0.6344421206684419</v>
-      </c>
-      <c r="AD60">
-        <v>0.352</v>
-      </c>
-      <c r="AE60">
-        <v>0.07996146435452794</v>
-      </c>
-      <c r="AF60">
-        <v>0.4319614643545279</v>
-      </c>
-      <c r="AG60">
-        <v>-2.678038535645472</v>
-      </c>
-      <c r="AH60">
-        <v>0.0287362008862811</v>
-      </c>
-      <c r="AI60">
-        <v>0.05344760257267904</v>
-      </c>
-      <c r="AJ60">
-        <v>-0.2246306988705289</v>
-      </c>
-      <c r="AK60">
-        <v>-0.538628176192661</v>
-      </c>
-      <c r="AL60">
-        <v>0.036</v>
-      </c>
-      <c r="AM60">
-        <v>-0.267</v>
-      </c>
-      <c r="AN60">
-        <v>-0.1319835020622422</v>
-      </c>
-      <c r="AO60">
-        <v>-76.66666666666667</v>
-      </c>
-      <c r="AP60">
-        <v>1.004138933500365</v>
-      </c>
-      <c r="AQ60">
-        <v>10.33707865168539</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>DomaCom Limited (ASX:DCL)</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G61">
-        <v>-11.07569721115538</v>
-      </c>
-      <c r="H61">
-        <v>-11.07569721115538</v>
-      </c>
-      <c r="I61">
-        <v>-11.08980647736607</v>
-      </c>
-      <c r="J61">
-        <v>-11.08980647736607</v>
-      </c>
-      <c r="K61">
-        <v>-4.05</v>
-      </c>
-      <c r="L61">
-        <v>-16.13545816733068</v>
-      </c>
-      <c r="M61">
-        <v>-0</v>
-      </c>
-      <c r="N61">
-        <v>-0</v>
-      </c>
-      <c r="O61">
-        <v>0</v>
-      </c>
-      <c r="P61">
-        <v>-0</v>
-      </c>
-      <c r="Q61">
-        <v>-0</v>
-      </c>
-      <c r="R61">
-        <v>0</v>
-      </c>
-      <c r="S61">
-        <v>0</v>
-      </c>
-      <c r="U61">
-        <v>0.539</v>
-      </c>
-      <c r="V61">
-        <v>0.04686956521739131</v>
-      </c>
-      <c r="W61">
-        <v>-3.857142857142857</v>
-      </c>
-      <c r="X61">
-        <v>0.05165262726269261</v>
-      </c>
-      <c r="Y61">
-        <v>-3.908795484405549</v>
-      </c>
-      <c r="Z61">
-        <v>0.1555424745138588</v>
-      </c>
-      <c r="AA61">
-        <v>-1.724935941369338</v>
-      </c>
-      <c r="AB61">
-        <v>0.04757185584272657</v>
-      </c>
-      <c r="AC61">
-        <v>-1.772507797212064</v>
-      </c>
-      <c r="AD61">
-        <v>2.23</v>
-      </c>
-      <c r="AE61">
-        <v>0.007707129094412331</v>
-      </c>
-      <c r="AF61">
-        <v>2.237707129094412</v>
-      </c>
-      <c r="AG61">
-        <v>1.698707129094412</v>
-      </c>
-      <c r="AH61">
-        <v>0.1628879628941341</v>
-      </c>
-      <c r="AI61">
-        <v>1.200675306844874</v>
-      </c>
-      <c r="AJ61">
-        <v>0.1287025397623899</v>
-      </c>
-      <c r="AK61">
-        <v>1.282326554893436</v>
-      </c>
-      <c r="AL61">
-        <v>0.791</v>
-      </c>
-      <c r="AM61">
-        <v>0.791</v>
-      </c>
-      <c r="AN61">
-        <v>-0.8044733044733046</v>
-      </c>
-      <c r="AO61">
-        <v>-3.527180783817952</v>
-      </c>
-      <c r="AP61">
-        <v>-0.6128092096300188</v>
-      </c>
-      <c r="AQ61">
-        <v>-3.527180783817952</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Auctus Alternative Investments Limited (ASX:AVC)</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G62">
-        <v>-3.538767395626242</v>
-      </c>
-      <c r="H62">
-        <v>-3.538767395626242</v>
-      </c>
-      <c r="I62">
-        <v>-3.618290258449304</v>
-      </c>
-      <c r="J62">
-        <v>-3.618290258449304</v>
-      </c>
-      <c r="K62">
-        <v>0.6820000000000001</v>
-      </c>
-      <c r="L62">
-        <v>1.355864811133201</v>
-      </c>
-      <c r="M62">
-        <v>-0</v>
-      </c>
-      <c r="N62">
-        <v>-0</v>
-      </c>
-      <c r="O62">
-        <v>-0</v>
-      </c>
-      <c r="P62">
-        <v>-0</v>
-      </c>
-      <c r="Q62">
-        <v>-0</v>
-      </c>
-      <c r="R62">
-        <v>-0</v>
-      </c>
-      <c r="S62">
-        <v>0</v>
-      </c>
-      <c r="U62">
-        <v>0.364</v>
-      </c>
-      <c r="V62">
-        <v>0.06419753086419754</v>
-      </c>
-      <c r="W62">
-        <v>0.42625</v>
-      </c>
-      <c r="X62">
-        <v>0.04776574353629165</v>
-      </c>
-      <c r="Y62">
-        <v>0.3784842564637084</v>
-      </c>
-      <c r="Z62">
-        <v>0.8355481727574751</v>
-      </c>
-      <c r="AA62">
-        <v>-3.023255813953488</v>
-      </c>
-      <c r="AB62">
-        <v>0.04776308514385005</v>
-      </c>
-      <c r="AC62">
-        <v>-3.071018899097338</v>
-      </c>
-      <c r="AD62">
-        <v>0.001</v>
-      </c>
-      <c r="AE62">
-        <v>0</v>
-      </c>
-      <c r="AF62">
-        <v>0.001</v>
-      </c>
-      <c r="AG62">
-        <v>-0.363</v>
-      </c>
-      <c r="AH62">
-        <v>0.0001763357432551578</v>
-      </c>
-      <c r="AI62">
-        <v>0.0002456398919184475</v>
-      </c>
-      <c r="AJ62">
-        <v>-0.06840022611644997</v>
-      </c>
-      <c r="AK62">
-        <v>-0.09792284866468842</v>
-      </c>
-      <c r="AL62">
-        <v>0.014</v>
-      </c>
-      <c r="AM62">
-        <v>0.014</v>
-      </c>
-      <c r="AN62">
-        <v>-0.0005617977528089888</v>
-      </c>
-      <c r="AO62">
-        <v>-130</v>
-      </c>
-      <c r="AP62">
-        <v>0.2039325842696629</v>
-      </c>
-      <c r="AQ62">
-        <v>-130</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Powerwrap Limited (ASX:PWL)</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G63">
-        <v>-0.4567796610169491</v>
-      </c>
-      <c r="H63">
-        <v>-0.4567796610169491</v>
-      </c>
-      <c r="I63">
-        <v>-0.4539480642556623</v>
-      </c>
-      <c r="J63">
-        <v>-0.4539480642556623</v>
-      </c>
-      <c r="K63">
-        <v>-4.54</v>
-      </c>
-      <c r="L63">
-        <v>-0.3847457627118644</v>
-      </c>
-      <c r="M63">
-        <v>-0</v>
-      </c>
-      <c r="N63">
-        <v>-0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>-0</v>
-      </c>
-      <c r="Q63">
-        <v>-0</v>
-      </c>
-      <c r="R63">
-        <v>0</v>
-      </c>
-      <c r="S63">
-        <v>0</v>
-      </c>
-      <c r="U63">
-        <v>14</v>
-      </c>
-      <c r="V63">
-        <v>0.472972972972973</v>
-      </c>
-      <c r="X63">
-        <v>0.04869295487305951</v>
-      </c>
-      <c r="Z63">
-        <v>8.563534002347421</v>
-      </c>
-      <c r="AA63">
-        <v>-3.887399683553156</v>
-      </c>
-      <c r="AB63">
-        <v>0.04771023370481576</v>
-      </c>
-      <c r="AC63">
-        <v>-3.935109917257972</v>
-      </c>
-      <c r="AD63">
-        <v>0</v>
-      </c>
-      <c r="AE63">
-        <v>1.377935791084079</v>
-      </c>
-      <c r="AF63">
-        <v>1.377935791084079</v>
-      </c>
-      <c r="AG63">
-        <v>-12.62206420891592</v>
-      </c>
-      <c r="AH63">
-        <v>0.04448120108379428</v>
-      </c>
-      <c r="AI63">
-        <v>0.07497772365450174</v>
-      </c>
-      <c r="AJ63">
-        <v>-0.7434392710770156</v>
-      </c>
-      <c r="AK63">
-        <v>-2.883108572451311</v>
-      </c>
-      <c r="AL63">
-        <v>0.013</v>
-      </c>
-      <c r="AM63">
-        <v>-0.129</v>
-      </c>
-      <c r="AN63">
-        <v>-0</v>
-      </c>
-      <c r="AO63">
-        <v>-419.2307692307693</v>
-      </c>
-      <c r="AP63">
-        <v>2.513854652243761</v>
-      </c>
-      <c r="AQ63">
-        <v>42.24806201550388</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>K2 Asset Management Holdings Ltd (ASX:KAM)</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="D64">
-        <v>-0.351</v>
-      </c>
-      <c r="G64">
-        <v>-0.3282738095238095</v>
-      </c>
-      <c r="H64">
-        <v>-0.3630952380952381</v>
-      </c>
-      <c r="I64">
-        <v>-0.3384813348639962</v>
-      </c>
-      <c r="J64">
-        <v>-0.3384813348639962</v>
-      </c>
-      <c r="K64">
-        <v>-0.9409999999999999</v>
-      </c>
-      <c r="L64">
-        <v>-0.2800595238095238</v>
-      </c>
-      <c r="M64">
-        <v>-0</v>
-      </c>
-      <c r="N64">
-        <v>-0</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>-0</v>
-      </c>
-      <c r="Q64">
-        <v>-0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
-      <c r="S64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>8.85</v>
-      </c>
-      <c r="V64">
-        <v>1.315007429420505</v>
-      </c>
-      <c r="W64">
-        <v>-0.08712962962962961</v>
-      </c>
-      <c r="X64">
-        <v>0.05014328132451627</v>
-      </c>
-      <c r="Y64">
-        <v>-0.1372729109541459</v>
-      </c>
-      <c r="Z64">
-        <v>2260.456049556953</v>
-      </c>
-      <c r="AA64">
-        <v>-765.1221810554331</v>
-      </c>
-      <c r="AB64">
-        <v>0.04763785021413613</v>
-      </c>
-      <c r="AC64">
-        <v>-765.1698189056473</v>
-      </c>
-      <c r="AD64">
-        <v>0</v>
-      </c>
-      <c r="AE64">
-        <v>0.8014864257151366</v>
-      </c>
-      <c r="AF64">
-        <v>0.8014864257151366</v>
-      </c>
-      <c r="AG64">
-        <v>-8.048513574284863</v>
-      </c>
-      <c r="AH64">
-        <v>0.1064180933764391</v>
-      </c>
-      <c r="AI64">
-        <v>0.07910847352870665</v>
-      </c>
-      <c r="AJ64">
-        <v>6.104232623202403</v>
-      </c>
-      <c r="AK64">
-        <v>-6.2806077479856</v>
-      </c>
-      <c r="AL64">
-        <v>0</v>
-      </c>
-      <c r="AM64">
-        <v>0</v>
-      </c>
-      <c r="AN64">
-        <v>-0</v>
-      </c>
-      <c r="AP64">
-        <v>8.410150025376034</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Australia</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>Tribeca Global Natural Resources Limited (ASX:TGF)</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Investments &amp; Asset Management</t>
-        </is>
-      </c>
-      <c r="G65">
-        <v>-0</v>
-      </c>
-      <c r="H65">
-        <v>-0</v>
-      </c>
-      <c r="I65">
-        <v>0.4503105590062111</v>
-      </c>
-      <c r="J65">
-        <v>0.4503105590062111</v>
-      </c>
-      <c r="K65">
-        <v>-2.03</v>
-      </c>
-      <c r="L65">
-        <v>0.6304347826086956</v>
-      </c>
-      <c r="M65">
-        <v>-0</v>
-      </c>
-      <c r="N65">
-        <v>-0</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>-0</v>
-      </c>
-      <c r="Q65">
-        <v>-0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="U65">
-        <v>0</v>
-      </c>
-      <c r="V65">
-        <v>0</v>
-      </c>
-      <c r="X65">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="AB65">
-        <v>0.04776221733662046</v>
-      </c>
-      <c r="AD65">
-        <v>0</v>
-      </c>
-      <c r="AE65">
-        <v>0</v>
-      </c>
-      <c r="AF65">
-        <v>0</v>
-      </c>
-      <c r="AG65">
-        <v>0</v>
-      </c>
-      <c r="AH65">
-        <v>0</v>
-      </c>
-      <c r="AJ65">
-        <v>0</v>
-      </c>
-      <c r="AL65">
-        <v>0.455</v>
-      </c>
-      <c r="AM65">
-        <v>0.455</v>
-      </c>
-      <c r="AO65">
-        <v>-3.186813186813187</v>
-      </c>
-      <c r="AQ65">
-        <v>-3.186813186813187</v>
+        <v>-45.42586750788644</v>
       </c>
     </row>
   </sheetData>
